--- a/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
+++ b/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Energy Policy Solutions\US\Models\eps-1.4.2-us - AEO Update\InputData\fuels\BSoFPtiT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Desktop\eps-1.4.2-us-2019\InputData\fuels\BSoFPtiT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="22995" windowHeight="10800"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="22995" windowHeight="10800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
   <si>
     <t>Source:</t>
   </si>
@@ -179,9 +179,6 @@
     <t>geothermal (does not use fuel)</t>
   </si>
   <si>
-    <t>(EIA), Form EIA-782A, "Refiners'/Gas Plant Operators' Monthly Petroleum Product Sales Report" and EIA-782B, "Resellers'/Retailers' Monthly</t>
-  </si>
-  <si>
     <t>PPC000:fa_WorldOilPrice</t>
   </si>
   <si>
@@ -281,43 +278,49 @@
     <t>hard coal</t>
   </si>
   <si>
-    <t>ref2018.d121317a</t>
-  </si>
-  <si>
     <t>Annual Energy Outlook 2018</t>
   </si>
   <si>
-    <t>ref2018</t>
-  </si>
-  <si>
-    <t>d121317a</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> February 2018</t>
-  </si>
-  <si>
-    <t>(2017 dollars per gallon)</t>
-  </si>
-  <si>
-    <t>2017-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Sources:  2016 distribution costs and wholesale prices estimated based on U.S. Energy Information Administration</t>
-  </si>
-  <si>
-    <t>Petroleum Product Sales Report".  2016 diesel, gasoline, and jet fuel taxes:  American Petroleum Institute, State</t>
-  </si>
-  <si>
-    <t>Motor Fuel Taxes, November 2016.  2016 data for price mark-ups estimated from the State Energy Data System database,</t>
-  </si>
-  <si>
-    <t>EIA, State Energy Data System 2015.  2016 end-user prices estimated as the sum of the components.</t>
-  </si>
-  <si>
-    <t>2017:  EIA, Short-Term Energy Outlook, October 2017 and EIA, AEO2018 National Energy Modeling System run</t>
-  </si>
-  <si>
-    <t>ref2018.d121317a.  Projections:  EIA, AEO2018 National Energy Modeling System run ref2018.d121317a.</t>
+    <t>ref2019.d111618a</t>
+  </si>
+  <si>
+    <t>Annual Energy Outlook 2019</t>
+  </si>
+  <si>
+    <t>ref2019</t>
+  </si>
+  <si>
+    <t>d111618a</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> January 2019</t>
+  </si>
+  <si>
+    <t>(2018 dollars per gallon)</t>
+  </si>
+  <si>
+    <t>2018-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Sources:  2017 distribution costs and wholesale prices estimated based on U.S. Energy Information Administration</t>
+  </si>
+  <si>
+    <t>(EIA), Form EIA-782A, "Refiners'/Gas Plant Operators' Monthly Petroleum Product Sales Report" and EIA-782B, "Resellers'/Retailers'</t>
+  </si>
+  <si>
+    <t>Monthly Petroleum Product Sales Report".  2017 diesel, gasoline, and jet fuel taxes:  American Petroleum</t>
+  </si>
+  <si>
+    <t>Institute, State Motor Fuel Taxes, August 2018.  2017 data for price mark-ups estimated from the State</t>
+  </si>
+  <si>
+    <t>Energy Data System database, EIA, State Energy Data System 2016.  2017 end-user prices estimated</t>
+  </si>
+  <si>
+    <t>as the sum of the components.  2018:  EIA, Short-Term Energy Outlook, October 2018 and EIA, AEO2019 National Energy</t>
+  </si>
+  <si>
+    <t>Modeling System run ref2019.d111618a.  Projections:  EIA, AEO2019 National Energy Modeling System run ref2019.d111618a.</t>
   </si>
 </sst>
 </file>
@@ -588,15 +591,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Body: normal cell" xfId="5"/>
@@ -917,22 +920,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="79.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="79.59765625" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -940,52 +943,52 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
@@ -993,7 +996,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>41</v>
       </c>
@@ -1001,37 +1004,37 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>50</v>
       </c>
@@ -1047,3307 +1050,3225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL56"/>
+  <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A24" sqref="A24:XFD26"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1:AM93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.86328125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="45.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="15" t="s">
         <v>86</v>
       </c>
       <c r="C1" s="14">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D1" s="14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E1" s="14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F1" s="14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G1" s="14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H1" s="14">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I1" s="14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J1" s="14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K1" s="14">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L1" s="14">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="M1" s="14">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="N1" s="14">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="O1" s="14">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="P1" s="14">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="Q1" s="14">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="R1" s="14">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="S1" s="14">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="T1" s="14">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="U1" s="14">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="V1" s="14">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="W1" s="14">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="X1" s="14">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="Y1" s="14">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="Z1" s="14">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="AA1" s="14">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="AB1" s="14">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="AC1" s="14">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AD1" s="14">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AE1" s="14">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AF1" s="14">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AG1" s="14">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AH1" s="14">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AI1" s="14">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AJ1" s="14">
-        <v>2049</v>
-      </c>
-      <c r="AK1" s="14">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="18" t="s">
+    <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C3" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-    </row>
-    <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="18" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C4" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C5" s="18" t="s">
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="18" t="s">
+    </row>
+    <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C5" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="C6" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="10" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>77</v>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="18" t="s">
+        <v>76</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="20" t="s">
+      <c r="K12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="20" t="s">
+      <c r="L12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="20" t="s">
+      <c r="M12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="20" t="s">
+      <c r="N12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="20" t="s">
+      <c r="O12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="P12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="20" t="s">
+      <c r="Q12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="R12" s="20" t="s">
+      <c r="R12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="20" t="s">
+      <c r="S12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="T12" s="20" t="s">
+      <c r="T12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="U12" s="20" t="s">
+      <c r="U12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="V12" s="20" t="s">
+      <c r="V12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="W12" s="20" t="s">
+      <c r="W12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="X12" s="20" t="s">
+      <c r="X12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Y12" s="20" t="s">
+      <c r="Y12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="20" t="s">
+      <c r="Z12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AA12" s="20" t="s">
+      <c r="AA12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AB12" s="20" t="s">
+      <c r="AB12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AC12" s="20" t="s">
+      <c r="AC12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AD12" s="20" t="s">
+      <c r="AD12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AE12" s="20" t="s">
+      <c r="AE12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AF12" s="20" t="s">
+      <c r="AF12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AG12" s="20" t="s">
+      <c r="AG12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AH12" s="20" t="s">
+      <c r="AH12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AI12" s="20" t="s">
+      <c r="AI12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AJ12" s="20" t="s">
+      <c r="AJ12" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="AK12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL12" s="20" t="s">
+      <c r="AK12" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="14">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="D13" s="14">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E13" s="14">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F13" s="14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="G13" s="14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="H13" s="14">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="I13" s="14">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="J13" s="14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="K13" s="14">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="L13" s="14">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="M13" s="14">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="N13" s="14">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="O13" s="14">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="P13" s="14">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="Q13" s="14">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="R13" s="14">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="S13" s="14">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="T13" s="14">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="U13" s="14">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="V13" s="14">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="W13" s="14">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="X13" s="14">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="Y13" s="14">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="Z13" s="14">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="AA13" s="14">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="AB13" s="14">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="AC13" s="14">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AD13" s="14">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AE13" s="14">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AF13" s="14">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AG13" s="14">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AH13" s="14">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AI13" s="14">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AJ13" s="14">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="AK13" s="14">
         <v>2050</v>
       </c>
-      <c r="AL13" s="14">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="15" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>76</v>
+    <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="18" t="s">
+        <v>75</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="12">
-        <v>2.3680949999999998</v>
+        <v>2.6929379999999998</v>
       </c>
       <c r="D16" s="12">
-        <v>2.6527660000000002</v>
+        <v>3.1838160000000002</v>
       </c>
       <c r="E16" s="12">
-        <v>2.743182</v>
+        <v>3.123262</v>
       </c>
       <c r="F16" s="12">
-        <v>2.7773349999999999</v>
+        <v>3.326381</v>
       </c>
       <c r="G16" s="12">
-        <v>3.154515</v>
+        <v>3.3373910000000002</v>
       </c>
       <c r="H16" s="12">
-        <v>3.3126850000000001</v>
+        <v>3.3094389999999998</v>
       </c>
       <c r="I16" s="12">
-        <v>3.3664320000000001</v>
+        <v>3.344697</v>
       </c>
       <c r="J16" s="12">
-        <v>3.4196650000000002</v>
+        <v>3.4141149999999998</v>
       </c>
       <c r="K16" s="12">
-        <v>3.5098590000000001</v>
+        <v>3.4664990000000002</v>
       </c>
       <c r="L16" s="12">
-        <v>3.549032</v>
+        <v>3.491835</v>
       </c>
       <c r="M16" s="12">
-        <v>3.5624799999999999</v>
+        <v>3.5884490000000002</v>
       </c>
       <c r="N16" s="12">
-        <v>3.603145</v>
+        <v>3.6205069999999999</v>
       </c>
       <c r="O16" s="12">
-        <v>3.6470009999999999</v>
+        <v>3.7350080000000001</v>
       </c>
       <c r="P16" s="12">
-        <v>3.6985540000000001</v>
+        <v>3.7641300000000002</v>
       </c>
       <c r="Q16" s="12">
-        <v>3.7295090000000002</v>
+        <v>3.8046760000000002</v>
       </c>
       <c r="R16" s="12">
-        <v>3.7803119999999999</v>
+        <v>3.848112</v>
       </c>
       <c r="S16" s="12">
-        <v>3.7962669999999998</v>
+        <v>3.8867609999999999</v>
       </c>
       <c r="T16" s="12">
-        <v>3.835693</v>
+        <v>3.8985789999999998</v>
       </c>
       <c r="U16" s="12">
-        <v>3.8797600000000001</v>
+        <v>3.9358170000000001</v>
       </c>
       <c r="V16" s="12">
-        <v>3.900782</v>
+        <v>3.981144</v>
       </c>
       <c r="W16" s="12">
-        <v>3.917567</v>
+        <v>3.9727440000000001</v>
       </c>
       <c r="X16" s="12">
-        <v>3.9829240000000001</v>
+        <v>3.9973160000000001</v>
       </c>
       <c r="Y16" s="12">
-        <v>4.0033430000000001</v>
+        <v>4.0190039999999998</v>
       </c>
       <c r="Z16" s="12">
-        <v>4.0298170000000004</v>
+        <v>4.0379170000000002</v>
       </c>
       <c r="AA16" s="12">
-        <v>4.0538319999999999</v>
+        <v>4.0409160000000002</v>
       </c>
       <c r="AB16" s="12">
-        <v>4.0796010000000003</v>
+        <v>4.0637829999999999</v>
       </c>
       <c r="AC16" s="12">
-        <v>4.0799620000000001</v>
+        <v>4.0639890000000003</v>
       </c>
       <c r="AD16" s="12">
-        <v>4.084409</v>
+        <v>4.0470769999999998</v>
       </c>
       <c r="AE16" s="12">
-        <v>4.0829279999999999</v>
+        <v>4.0528560000000002</v>
       </c>
       <c r="AF16" s="12">
-        <v>4.0913110000000001</v>
+        <v>4.0338050000000001</v>
       </c>
       <c r="AG16" s="12">
-        <v>4.07918</v>
+        <v>4.0133850000000004</v>
       </c>
       <c r="AH16" s="12">
-        <v>4.0920040000000002</v>
+        <v>4.0168330000000001</v>
       </c>
       <c r="AI16" s="12">
-        <v>4.1016170000000001</v>
+        <v>4.0082680000000002</v>
       </c>
       <c r="AJ16" s="12">
-        <v>4.078773</v>
-      </c>
-      <c r="AK16" s="12">
-        <v>4.0853489999999999</v>
-      </c>
-      <c r="AL16" s="11">
-        <v>1.3171E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
-        <v>75</v>
+        <v>4.0067279999999998</v>
+      </c>
+      <c r="AK16" s="11">
+        <v>7.2100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="12">
-        <v>0.246089</v>
+        <v>0.24659800000000001</v>
       </c>
       <c r="D17" s="12">
-        <v>0.24185699999999999</v>
+        <v>0.241813</v>
       </c>
       <c r="E17" s="12">
-        <v>0.23655000000000001</v>
+        <v>0.235989</v>
       </c>
       <c r="F17" s="12">
-        <v>0.23113900000000001</v>
+        <v>0.22960800000000001</v>
       </c>
       <c r="G17" s="12">
-        <v>0.22526099999999999</v>
+        <v>0.22364999999999999</v>
       </c>
       <c r="H17" s="12">
-        <v>0.21981999999999999</v>
+        <v>0.21812300000000001</v>
       </c>
       <c r="I17" s="12">
-        <v>0.21463599999999999</v>
+        <v>0.21281800000000001</v>
       </c>
       <c r="J17" s="12">
-        <v>0.20946400000000001</v>
+        <v>0.20794699999999999</v>
       </c>
       <c r="K17" s="12">
-        <v>0.20450499999999999</v>
+        <v>0.203237</v>
       </c>
       <c r="L17" s="12">
-        <v>0.19974</v>
+        <v>0.19873499999999999</v>
       </c>
       <c r="M17" s="12">
-        <v>0.19524</v>
+        <v>0.19436</v>
       </c>
       <c r="N17" s="12">
-        <v>0.190943</v>
+        <v>0.19009699999999999</v>
       </c>
       <c r="O17" s="12">
-        <v>0.18690699999999999</v>
+        <v>0.185915</v>
       </c>
       <c r="P17" s="12">
-        <v>0.183004</v>
+        <v>0.18198600000000001</v>
       </c>
       <c r="Q17" s="12">
-        <v>0.17915900000000001</v>
+        <v>0.17815300000000001</v>
       </c>
       <c r="R17" s="12">
-        <v>0.17533000000000001</v>
+        <v>0.17436199999999999</v>
       </c>
       <c r="S17" s="12">
-        <v>0.17156299999999999</v>
+        <v>0.17066100000000001</v>
       </c>
       <c r="T17" s="12">
-        <v>0.16783300000000001</v>
+        <v>0.16697100000000001</v>
       </c>
       <c r="U17" s="12">
-        <v>0.16414899999999999</v>
+        <v>0.16334899999999999</v>
       </c>
       <c r="V17" s="12">
-        <v>0.16051399999999999</v>
+        <v>0.15976099999999999</v>
       </c>
       <c r="W17" s="12">
-        <v>0.156919</v>
+        <v>0.15626799999999999</v>
       </c>
       <c r="X17" s="12">
-        <v>0.15339900000000001</v>
+        <v>0.15284500000000001</v>
       </c>
       <c r="Y17" s="12">
-        <v>0.149974</v>
+        <v>0.14948500000000001</v>
       </c>
       <c r="Z17" s="12">
-        <v>0.14660400000000001</v>
+        <v>0.146176</v>
       </c>
       <c r="AA17" s="12">
-        <v>0.143286</v>
+        <v>0.14291100000000001</v>
       </c>
       <c r="AB17" s="12">
-        <v>0.14001</v>
+        <v>0.13970099999999999</v>
       </c>
       <c r="AC17" s="12">
-        <v>0.13677700000000001</v>
+        <v>0.13653499999999999</v>
       </c>
       <c r="AD17" s="12">
-        <v>0.133573</v>
+        <v>0.13341</v>
       </c>
       <c r="AE17" s="12">
-        <v>0.130411</v>
+        <v>0.130333</v>
       </c>
       <c r="AF17" s="12">
-        <v>0.12728999999999999</v>
+        <v>0.12731400000000001</v>
       </c>
       <c r="AG17" s="12">
-        <v>0.12424</v>
+        <v>0.124332</v>
       </c>
       <c r="AH17" s="12">
-        <v>0.121229</v>
+        <v>0.121381</v>
       </c>
       <c r="AI17" s="12">
-        <v>0.11824900000000001</v>
+        <v>0.118466</v>
       </c>
       <c r="AJ17" s="12">
-        <v>0.11534</v>
-      </c>
-      <c r="AK17" s="12">
-        <v>0.112473</v>
-      </c>
-      <c r="AL17" s="11">
-        <v>-2.2934E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
-        <v>74</v>
+        <v>0.115588</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>-2.2803E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="18" t="s">
+        <v>73</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="12">
-        <v>0.291462</v>
+        <v>0.29766199999999998</v>
       </c>
       <c r="D18" s="12">
-        <v>0.291489</v>
+        <v>0.34289700000000001</v>
       </c>
       <c r="E18" s="12">
-        <v>0.291439</v>
+        <v>0.34288600000000002</v>
       </c>
       <c r="F18" s="12">
-        <v>0.29152</v>
+        <v>0.346192</v>
       </c>
       <c r="G18" s="12">
-        <v>0.29172799999999999</v>
+        <v>0.34665800000000002</v>
       </c>
       <c r="H18" s="12">
-        <v>0.291765</v>
+        <v>0.34594200000000003</v>
       </c>
       <c r="I18" s="12">
-        <v>0.29176400000000002</v>
+        <v>0.34558499999999998</v>
       </c>
       <c r="J18" s="12">
-        <v>0.29178399999999999</v>
+        <v>0.34542400000000001</v>
       </c>
       <c r="K18" s="12">
-        <v>0.291771</v>
+        <v>0.34519300000000003</v>
       </c>
       <c r="L18" s="12">
-        <v>0.29174699999999998</v>
+        <v>0.345306</v>
       </c>
       <c r="M18" s="12">
-        <v>0.29172500000000001</v>
+        <v>0.34546500000000002</v>
       </c>
       <c r="N18" s="12">
-        <v>0.29178100000000001</v>
+        <v>0.34556700000000001</v>
       </c>
       <c r="O18" s="12">
-        <v>0.291823</v>
+        <v>0.34554699999999999</v>
       </c>
       <c r="P18" s="12">
-        <v>0.291877</v>
+        <v>0.34571400000000002</v>
       </c>
       <c r="Q18" s="12">
-        <v>0.291933</v>
+        <v>0.34579399999999999</v>
       </c>
       <c r="R18" s="12">
-        <v>0.29195399999999999</v>
+        <v>0.34580699999999998</v>
       </c>
       <c r="S18" s="12">
-        <v>0.29192200000000001</v>
+        <v>0.345864</v>
       </c>
       <c r="T18" s="12">
-        <v>0.291939</v>
+        <v>0.34583999999999998</v>
       </c>
       <c r="U18" s="12">
-        <v>0.291964</v>
+        <v>0.34597099999999997</v>
       </c>
       <c r="V18" s="12">
-        <v>0.29198099999999999</v>
+        <v>0.34600900000000001</v>
       </c>
       <c r="W18" s="12">
-        <v>0.29198099999999999</v>
+        <v>0.34608299999999997</v>
       </c>
       <c r="X18" s="12">
-        <v>0.29197499999999998</v>
+        <v>0.34614099999999998</v>
       </c>
       <c r="Y18" s="12">
-        <v>0.29196</v>
+        <v>0.34620499999999998</v>
       </c>
       <c r="Z18" s="12">
-        <v>0.29196299999999997</v>
+        <v>0.34628999999999999</v>
       </c>
       <c r="AA18" s="12">
-        <v>0.29194500000000001</v>
+        <v>0.34635899999999997</v>
       </c>
       <c r="AB18" s="12">
-        <v>0.29192699999999999</v>
+        <v>0.346385</v>
       </c>
       <c r="AC18" s="12">
-        <v>0.291912</v>
+        <v>0.34645999999999999</v>
       </c>
       <c r="AD18" s="12">
-        <v>0.29190300000000002</v>
+        <v>0.34655399999999997</v>
       </c>
       <c r="AE18" s="12">
-        <v>0.29188900000000001</v>
+        <v>0.34660999999999997</v>
       </c>
       <c r="AF18" s="12">
-        <v>0.291883</v>
+        <v>0.34668300000000002</v>
       </c>
       <c r="AG18" s="12">
-        <v>0.29188500000000001</v>
+        <v>0.34672500000000001</v>
       </c>
       <c r="AH18" s="12">
-        <v>0.291877</v>
+        <v>0.34676600000000002</v>
       </c>
       <c r="AI18" s="12">
-        <v>0.29186899999999999</v>
+        <v>0.34682499999999999</v>
       </c>
       <c r="AJ18" s="12">
-        <v>0.29186499999999999</v>
-      </c>
-      <c r="AK18" s="12">
-        <v>0.29186699999999999</v>
-      </c>
-      <c r="AL18" s="11">
-        <v>3.8999999999999999E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>73</v>
+        <v>0.34688400000000003</v>
+      </c>
+      <c r="AK18" s="11">
+        <v>3.6099999999999999E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="12">
-        <v>8.6359999999999996E-3</v>
+        <v>9.3500000000000007E-3</v>
       </c>
       <c r="D19" s="12">
-        <v>9.0620000000000006E-3</v>
+        <v>9.7940000000000006E-3</v>
       </c>
       <c r="E19" s="12">
-        <v>9.4940000000000007E-3</v>
+        <v>1.0165E-2</v>
       </c>
       <c r="F19" s="12">
-        <v>1.0044000000000001E-2</v>
+        <v>1.1735000000000001E-2</v>
       </c>
       <c r="G19" s="12">
-        <v>1.0538E-2</v>
+        <v>1.1860000000000001E-2</v>
       </c>
       <c r="H19" s="12">
-        <v>1.0596E-2</v>
+        <v>1.1649E-2</v>
       </c>
       <c r="I19" s="12">
-        <v>1.0606000000000001E-2</v>
+        <v>1.1554999999999999E-2</v>
       </c>
       <c r="J19" s="12">
-        <v>1.0605E-2</v>
+        <v>1.1488999999999999E-2</v>
       </c>
       <c r="K19" s="12">
-        <v>4.845E-2</v>
+        <v>1.1448E-2</v>
       </c>
       <c r="L19" s="12">
-        <v>4.8448999999999999E-2</v>
+        <v>1.1457999999999999E-2</v>
       </c>
       <c r="M19" s="12">
-        <v>4.8494000000000002E-2</v>
+        <v>1.1466E-2</v>
       </c>
       <c r="N19" s="12">
-        <v>4.8542000000000002E-2</v>
+        <v>1.1472E-2</v>
       </c>
       <c r="O19" s="12">
-        <v>4.8576000000000001E-2</v>
+        <v>5.2429000000000003E-2</v>
       </c>
       <c r="P19" s="12">
-        <v>5.398E-2</v>
+        <v>5.2511000000000002E-2</v>
       </c>
       <c r="Q19" s="12">
-        <v>5.3996000000000002E-2</v>
+        <v>5.8365E-2</v>
       </c>
       <c r="R19" s="12">
-        <v>5.3966E-2</v>
+        <v>5.8361999999999997E-2</v>
       </c>
       <c r="S19" s="12">
-        <v>5.3851000000000003E-2</v>
+        <v>5.8324000000000001E-2</v>
       </c>
       <c r="T19" s="12">
-        <v>5.3865000000000003E-2</v>
+        <v>5.8332000000000002E-2</v>
       </c>
       <c r="U19" s="12">
-        <v>5.3962999999999997E-2</v>
+        <v>5.8487999999999998E-2</v>
       </c>
       <c r="V19" s="12">
-        <v>5.4065000000000002E-2</v>
+        <v>5.8571999999999999E-2</v>
       </c>
       <c r="W19" s="12">
-        <v>5.4212999999999997E-2</v>
+        <v>5.8706000000000001E-2</v>
       </c>
       <c r="X19" s="12">
-        <v>5.4323000000000003E-2</v>
+        <v>5.8847999999999998E-2</v>
       </c>
       <c r="Y19" s="12">
-        <v>5.4493E-2</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="Z19" s="12">
-        <v>5.4690999999999997E-2</v>
+        <v>5.9199000000000002E-2</v>
       </c>
       <c r="AA19" s="12">
-        <v>5.4866999999999999E-2</v>
+        <v>5.9353000000000003E-2</v>
       </c>
       <c r="AB19" s="12">
-        <v>5.5037999999999997E-2</v>
+        <v>5.9466999999999999E-2</v>
       </c>
       <c r="AC19" s="12">
-        <v>5.5212999999999998E-2</v>
+        <v>5.9596999999999997E-2</v>
       </c>
       <c r="AD19" s="12">
-        <v>5.5419000000000003E-2</v>
+        <v>5.9827999999999999E-2</v>
       </c>
       <c r="AE19" s="12">
-        <v>5.5620000000000003E-2</v>
+        <v>5.9982000000000001E-2</v>
       </c>
       <c r="AF19" s="12">
-        <v>5.5839E-2</v>
+        <v>6.0186999999999997E-2</v>
       </c>
       <c r="AG19" s="12">
-        <v>5.6066999999999999E-2</v>
+        <v>6.0349E-2</v>
       </c>
       <c r="AH19" s="12">
-        <v>5.6265000000000003E-2</v>
+        <v>6.0514999999999999E-2</v>
       </c>
       <c r="AI19" s="12">
-        <v>5.645E-2</v>
+        <v>6.0689E-2</v>
       </c>
       <c r="AJ19" s="12">
-        <v>5.6634999999999998E-2</v>
-      </c>
-      <c r="AK19" s="12">
-        <v>5.6839000000000001E-2</v>
-      </c>
-      <c r="AL19" s="11">
-        <v>5.7216000000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>72</v>
+        <v>6.0866999999999997E-2</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>5.8753E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="12">
-        <v>0.51552299999999995</v>
+        <v>0.52562399999999998</v>
       </c>
       <c r="D20" s="12">
-        <v>0.51556999999999997</v>
+        <v>0.52554800000000002</v>
       </c>
       <c r="E20" s="12">
-        <v>0.515482</v>
+        <v>0.52553099999999997</v>
       </c>
       <c r="F20" s="12">
-        <v>0.51544900000000005</v>
+        <v>0.52596799999999999</v>
       </c>
       <c r="G20" s="12">
-        <v>0.51529400000000003</v>
+        <v>0.52604099999999998</v>
       </c>
       <c r="H20" s="12">
-        <v>0.51519800000000004</v>
+        <v>0.52595899999999995</v>
       </c>
       <c r="I20" s="12">
-        <v>0.51518900000000001</v>
+        <v>0.525756</v>
       </c>
       <c r="J20" s="12">
-        <v>0.51516399999999996</v>
+        <v>0.52581699999999998</v>
       </c>
       <c r="K20" s="12">
-        <v>0.51515100000000003</v>
+        <v>0.52568999999999999</v>
       </c>
       <c r="L20" s="12">
-        <v>0.51515999999999995</v>
+        <v>0.52574100000000001</v>
       </c>
       <c r="M20" s="12">
-        <v>0.51509899999999997</v>
+        <v>0.52583000000000002</v>
       </c>
       <c r="N20" s="12">
-        <v>0.51507700000000001</v>
+        <v>0.52581299999999997</v>
       </c>
       <c r="O20" s="12">
-        <v>0.51506300000000005</v>
+        <v>0.52566299999999999</v>
       </c>
       <c r="P20" s="12">
-        <v>0.51504899999999998</v>
+        <v>0.52563300000000002</v>
       </c>
       <c r="Q20" s="12">
-        <v>0.51503600000000005</v>
+        <v>0.52561199999999997</v>
       </c>
       <c r="R20" s="12">
-        <v>0.51503299999999996</v>
+        <v>0.52561000000000002</v>
       </c>
       <c r="S20" s="12">
-        <v>0.51506600000000002</v>
+        <v>0.52568800000000004</v>
       </c>
       <c r="T20" s="12">
-        <v>0.515069</v>
+        <v>0.52557799999999999</v>
       </c>
       <c r="U20" s="12">
-        <v>0.51505199999999995</v>
+        <v>0.52558000000000005</v>
       </c>
       <c r="V20" s="12">
-        <v>0.515046</v>
+        <v>0.52552399999999999</v>
       </c>
       <c r="W20" s="12">
-        <v>0.51503900000000002</v>
+        <v>0.52553899999999998</v>
       </c>
       <c r="X20" s="12">
-        <v>0.51502599999999998</v>
+        <v>0.52552399999999999</v>
       </c>
       <c r="Y20" s="12">
-        <v>0.51502899999999996</v>
+        <v>0.52549299999999999</v>
       </c>
       <c r="Z20" s="12">
-        <v>0.51501200000000003</v>
+        <v>0.52546199999999998</v>
       </c>
       <c r="AA20" s="12">
-        <v>0.51500199999999996</v>
+        <v>0.52544400000000002</v>
       </c>
       <c r="AB20" s="12">
-        <v>0.51501200000000003</v>
+        <v>0.52541300000000002</v>
       </c>
       <c r="AC20" s="12">
-        <v>0.51501200000000003</v>
+        <v>0.52540200000000004</v>
       </c>
       <c r="AD20" s="12">
-        <v>0.51500699999999999</v>
+        <v>0.52537599999999995</v>
       </c>
       <c r="AE20" s="12">
-        <v>0.51499499999999998</v>
+        <v>0.52536700000000003</v>
       </c>
       <c r="AF20" s="12">
-        <v>0.51498600000000005</v>
+        <v>0.52535699999999996</v>
       </c>
       <c r="AG20" s="12">
-        <v>0.51497800000000005</v>
+        <v>0.52532900000000005</v>
       </c>
       <c r="AH20" s="12">
-        <v>0.51496900000000001</v>
+        <v>0.52531799999999995</v>
       </c>
       <c r="AI20" s="12">
-        <v>0.51496699999999995</v>
+        <v>0.52528200000000003</v>
       </c>
       <c r="AJ20" s="12">
-        <v>0.51494300000000004</v>
-      </c>
-      <c r="AK20" s="12">
-        <v>0.51493</v>
-      </c>
-      <c r="AL20" s="11">
-        <v>-3.8000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>71</v>
+        <v>0.52525900000000003</v>
+      </c>
+      <c r="AK20" s="11">
+        <v>-1.7E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="12">
-        <v>1.306386</v>
+        <v>1.6137049999999999</v>
       </c>
       <c r="D21" s="12">
-        <v>1.5947880000000001</v>
+        <v>2.0637629999999998</v>
       </c>
       <c r="E21" s="12">
-        <v>1.690218</v>
+        <v>2.0086909999999998</v>
       </c>
       <c r="F21" s="12">
-        <v>1.7291829999999999</v>
+        <v>2.212879</v>
       </c>
       <c r="G21" s="12">
-        <v>2.111694</v>
+        <v>2.2291820000000002</v>
       </c>
       <c r="H21" s="12">
-        <v>2.2753049999999999</v>
+        <v>2.2077659999999999</v>
       </c>
       <c r="I21" s="12">
-        <v>2.3342369999999999</v>
+        <v>2.2489819999999998</v>
       </c>
       <c r="J21" s="12">
-        <v>2.3926479999999999</v>
+        <v>2.323439</v>
       </c>
       <c r="K21" s="12">
-        <v>2.449983</v>
+        <v>2.3809309999999999</v>
       </c>
       <c r="L21" s="12">
-        <v>2.493935</v>
+        <v>2.410596</v>
       </c>
       <c r="M21" s="12">
-        <v>2.5119220000000002</v>
+        <v>2.5113279999999998</v>
       </c>
       <c r="N21" s="12">
-        <v>2.5568019999999998</v>
+        <v>2.547558</v>
       </c>
       <c r="O21" s="12">
-        <v>2.6046320000000001</v>
+        <v>2.625454</v>
       </c>
       <c r="P21" s="12">
-        <v>2.6546439999999998</v>
+        <v>2.6582859999999999</v>
       </c>
       <c r="Q21" s="12">
-        <v>2.689384</v>
+        <v>2.696752</v>
       </c>
       <c r="R21" s="12">
-        <v>2.7440289999999998</v>
+        <v>2.7439710000000002</v>
       </c>
       <c r="S21" s="12">
-        <v>2.763865</v>
+        <v>2.7862230000000001</v>
       </c>
       <c r="T21" s="12">
-        <v>2.8069860000000002</v>
+        <v>2.8018580000000002</v>
       </c>
       <c r="U21" s="12">
-        <v>2.8546330000000002</v>
+        <v>2.8424290000000001</v>
       </c>
       <c r="V21" s="12">
-        <v>2.8791769999999999</v>
+        <v>2.8912789999999999</v>
       </c>
       <c r="W21" s="12">
-        <v>2.8994140000000002</v>
+        <v>2.8861479999999999</v>
       </c>
       <c r="X21" s="12">
-        <v>2.9681999999999999</v>
+        <v>2.913958</v>
       </c>
       <c r="Y21" s="12">
-        <v>2.991886</v>
+        <v>2.9388209999999999</v>
       </c>
       <c r="Z21" s="12">
-        <v>3.021547</v>
+        <v>2.9607890000000001</v>
       </c>
       <c r="AA21" s="12">
-        <v>3.0487320000000002</v>
+        <v>2.9668489999999998</v>
       </c>
       <c r="AB21" s="12">
-        <v>3.0776150000000002</v>
+        <v>2.9928149999999998</v>
       </c>
       <c r="AC21" s="12">
-        <v>3.0810469999999999</v>
+        <v>2.9959950000000002</v>
       </c>
       <c r="AD21" s="12">
-        <v>3.0885069999999999</v>
+        <v>2.9819089999999999</v>
       </c>
       <c r="AE21" s="12">
-        <v>3.0900129999999999</v>
+        <v>2.990564</v>
       </c>
       <c r="AF21" s="12">
-        <v>3.101315</v>
+        <v>2.9742639999999998</v>
       </c>
       <c r="AG21" s="12">
-        <v>3.0920100000000001</v>
+        <v>2.9566499999999998</v>
       </c>
       <c r="AH21" s="12">
-        <v>3.1076649999999999</v>
+        <v>2.9628519999999998</v>
       </c>
       <c r="AI21" s="12">
-        <v>3.1200830000000002</v>
+        <v>2.9570069999999999</v>
       </c>
       <c r="AJ21" s="12">
-        <v>3.09999</v>
-      </c>
-      <c r="AK21" s="12">
-        <v>3.1092399999999998</v>
-      </c>
-      <c r="AL21" s="11">
-        <v>2.0437E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.958132</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>1.1313999999999999E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
-        <v>70</v>
+    <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C24" s="12">
-        <v>2.3009680000000001</v>
+        <v>2.5881569999999998</v>
       </c>
       <c r="D24" s="12">
-        <v>2.501519</v>
+        <v>2.8932310000000001</v>
       </c>
       <c r="E24" s="12">
-        <v>2.4651529999999999</v>
+        <v>2.9147400000000001</v>
       </c>
       <c r="F24" s="12">
-        <v>2.5298310000000002</v>
+        <v>3.0029029999999999</v>
       </c>
       <c r="G24" s="12">
-        <v>2.880941</v>
+        <v>3.025417</v>
       </c>
       <c r="H24" s="12">
-        <v>3.0524149999999999</v>
+        <v>3.033026</v>
       </c>
       <c r="I24" s="12">
-        <v>3.1273300000000002</v>
+        <v>3.0742500000000001</v>
       </c>
       <c r="J24" s="12">
-        <v>3.1844950000000001</v>
+        <v>3.1167419999999999</v>
       </c>
       <c r="K24" s="12">
-        <v>3.2516910000000001</v>
+        <v>3.151408</v>
       </c>
       <c r="L24" s="12">
-        <v>3.2455240000000001</v>
+        <v>3.177133</v>
       </c>
       <c r="M24" s="12">
-        <v>3.2445729999999999</v>
+        <v>3.2425269999999999</v>
       </c>
       <c r="N24" s="12">
-        <v>3.264669</v>
+        <v>3.2654450000000002</v>
       </c>
       <c r="O24" s="12">
-        <v>3.2922560000000001</v>
+        <v>3.345129</v>
       </c>
       <c r="P24" s="12">
-        <v>3.3266239999999998</v>
+        <v>3.3590970000000002</v>
       </c>
       <c r="Q24" s="12">
-        <v>3.3396599999999999</v>
+        <v>3.3952040000000001</v>
       </c>
       <c r="R24" s="12">
-        <v>3.3818280000000001</v>
+        <v>3.4234960000000001</v>
       </c>
       <c r="S24" s="12">
-        <v>3.395502</v>
+        <v>3.4373239999999998</v>
       </c>
       <c r="T24" s="12">
-        <v>3.4128630000000002</v>
+        <v>3.4620869999999999</v>
       </c>
       <c r="U24" s="12">
-        <v>3.4423400000000002</v>
+        <v>3.4839030000000002</v>
       </c>
       <c r="V24" s="12">
-        <v>3.4555359999999999</v>
+        <v>3.512381</v>
       </c>
       <c r="W24" s="12">
-        <v>3.4626570000000001</v>
+        <v>3.51159</v>
       </c>
       <c r="X24" s="12">
-        <v>3.5142709999999999</v>
+        <v>3.5312649999999999</v>
       </c>
       <c r="Y24" s="12">
-        <v>3.5277379999999998</v>
+        <v>3.5530629999999999</v>
       </c>
       <c r="Z24" s="12">
-        <v>3.547793</v>
+        <v>3.5772370000000002</v>
       </c>
       <c r="AA24" s="12">
-        <v>3.5718540000000001</v>
+        <v>3.5887220000000002</v>
       </c>
       <c r="AB24" s="12">
-        <v>3.5904240000000001</v>
+        <v>3.6160000000000001</v>
       </c>
       <c r="AC24" s="12">
-        <v>3.605369</v>
+        <v>3.6205400000000001</v>
       </c>
       <c r="AD24" s="12">
-        <v>3.6134550000000001</v>
+        <v>3.6194670000000002</v>
       </c>
       <c r="AE24" s="12">
-        <v>3.6216249999999999</v>
+        <v>3.6261420000000002</v>
       </c>
       <c r="AF24" s="12">
-        <v>3.630547</v>
+        <v>3.6361699999999999</v>
       </c>
       <c r="AG24" s="12">
-        <v>3.618544</v>
+        <v>3.6435019999999998</v>
       </c>
       <c r="AH24" s="12">
-        <v>3.6370659999999999</v>
+        <v>3.6591070000000001</v>
       </c>
       <c r="AI24" s="12">
-        <v>3.6570909999999999</v>
+        <v>3.6589610000000001</v>
       </c>
       <c r="AJ24" s="12">
-        <v>3.6631390000000001</v>
-      </c>
-      <c r="AK24" s="12">
-        <v>3.6741839999999999</v>
-      </c>
-      <c r="AL24" s="11">
-        <v>1.1717999999999999E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>69</v>
+        <v>3.6580010000000001</v>
+      </c>
+      <c r="AK24" s="11">
+        <v>7.3559999999999997E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="12">
-        <v>0.187223</v>
+        <v>0.18759999999999999</v>
       </c>
       <c r="D25" s="12">
-        <v>0.18398700000000001</v>
+        <v>0.18393699999999999</v>
       </c>
       <c r="E25" s="12">
-        <v>0.17996699999999999</v>
+        <v>0.179536</v>
       </c>
       <c r="F25" s="12">
-        <v>0.17585700000000001</v>
+        <v>0.17471500000000001</v>
       </c>
       <c r="G25" s="12">
-        <v>0.17135800000000001</v>
+        <v>0.17014499999999999</v>
       </c>
       <c r="H25" s="12">
-        <v>0.16713500000000001</v>
+        <v>0.16588900000000001</v>
       </c>
       <c r="I25" s="12">
-        <v>0.16317300000000001</v>
+        <v>0.16184200000000001</v>
       </c>
       <c r="J25" s="12">
-        <v>0.15925400000000001</v>
+        <v>0.158169</v>
       </c>
       <c r="K25" s="12">
-        <v>0.155554</v>
+        <v>0.154694</v>
       </c>
       <c r="L25" s="12">
-        <v>0.152001</v>
+        <v>0.15123600000000001</v>
       </c>
       <c r="M25" s="12">
-        <v>0.14858199999999999</v>
+        <v>0.14786199999999999</v>
       </c>
       <c r="N25" s="12">
-        <v>0.14529800000000001</v>
+        <v>0.14463000000000001</v>
       </c>
       <c r="O25" s="12">
-        <v>0.14224100000000001</v>
+        <v>0.14146700000000001</v>
       </c>
       <c r="P25" s="12">
-        <v>0.13925299999999999</v>
+        <v>0.13847699999999999</v>
       </c>
       <c r="Q25" s="12">
-        <v>0.136321</v>
+        <v>0.135569</v>
       </c>
       <c r="R25" s="12">
-        <v>0.133407</v>
+        <v>0.13267499999999999</v>
       </c>
       <c r="S25" s="12">
-        <v>0.130525</v>
+        <v>0.12983</v>
       </c>
       <c r="T25" s="12">
-        <v>0.12768399999999999</v>
+        <v>0.127058</v>
       </c>
       <c r="U25" s="12">
-        <v>0.12489500000000001</v>
+        <v>0.12428599999999999</v>
       </c>
       <c r="V25" s="12">
-        <v>0.122113</v>
+        <v>0.121568</v>
       </c>
       <c r="W25" s="12">
-        <v>0.11938500000000001</v>
+        <v>0.118909</v>
       </c>
       <c r="X25" s="12">
-        <v>0.116713</v>
+        <v>0.11631</v>
       </c>
       <c r="Y25" s="12">
-        <v>0.11411200000000001</v>
+        <v>0.11375399999999999</v>
       </c>
       <c r="Z25" s="12">
-        <v>0.11154799999999999</v>
+        <v>0.111233</v>
       </c>
       <c r="AA25" s="12">
-        <v>0.10902000000000001</v>
+        <v>0.108741</v>
       </c>
       <c r="AB25" s="12">
-        <v>0.10652</v>
+        <v>0.106319</v>
       </c>
       <c r="AC25" s="12">
-        <v>0.104077</v>
+        <v>0.103892</v>
       </c>
       <c r="AD25" s="12">
-        <v>0.101627</v>
+        <v>0.10152700000000001</v>
       </c>
       <c r="AE25" s="12">
-        <v>9.9227999999999997E-2</v>
+        <v>9.9191000000000001E-2</v>
       </c>
       <c r="AF25" s="12">
-        <v>9.6863000000000005E-2</v>
+        <v>9.6895999999999996E-2</v>
       </c>
       <c r="AG25" s="12">
-        <v>9.4553999999999999E-2</v>
+        <v>9.4624E-2</v>
       </c>
       <c r="AH25" s="12">
-        <v>9.2266000000000001E-2</v>
+        <v>9.2385999999999996E-2</v>
       </c>
       <c r="AI25" s="12">
-        <v>9.0005000000000002E-2</v>
+        <v>9.0173000000000003E-2</v>
       </c>
       <c r="AJ25" s="12">
-        <v>8.7794999999999998E-2</v>
-      </c>
-      <c r="AK25" s="12">
-        <v>8.5613999999999996E-2</v>
-      </c>
-      <c r="AL25" s="11">
-        <v>-2.2915999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>68</v>
+        <v>8.7984000000000007E-2</v>
+      </c>
+      <c r="AK25" s="11">
+        <v>-2.2780999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="18" t="s">
+        <v>67</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C26" s="12">
-        <v>0.31937599999999999</v>
+        <v>0.32794400000000001</v>
       </c>
       <c r="D26" s="12">
-        <v>0.32138499999999998</v>
+        <v>0.35622900000000002</v>
       </c>
       <c r="E26" s="12">
-        <v>0.32115700000000003</v>
+        <v>0.356458</v>
       </c>
       <c r="F26" s="12">
-        <v>0.32155899999999998</v>
+        <v>0.357128</v>
       </c>
       <c r="G26" s="12">
-        <v>0.32477499999999998</v>
+        <v>0.35691499999999998</v>
       </c>
       <c r="H26" s="12">
-        <v>0.32603799999999999</v>
+        <v>0.356514</v>
       </c>
       <c r="I26" s="12">
-        <v>0.32636399999999999</v>
+        <v>0.35617300000000002</v>
       </c>
       <c r="J26" s="12">
-        <v>0.326484</v>
+        <v>0.355626</v>
       </c>
       <c r="K26" s="12">
-        <v>0.32617800000000002</v>
+        <v>0.354933</v>
       </c>
       <c r="L26" s="12">
-        <v>0.32556299999999999</v>
+        <v>0.35466500000000001</v>
       </c>
       <c r="M26" s="12">
-        <v>0.32522299999999998</v>
+        <v>0.35484900000000003</v>
       </c>
       <c r="N26" s="12">
-        <v>0.32511899999999999</v>
+        <v>0.35460599999999998</v>
       </c>
       <c r="O26" s="12">
-        <v>0.32509199999999999</v>
+        <v>0.35442299999999999</v>
       </c>
       <c r="P26" s="12">
-        <v>0.32511600000000002</v>
+        <v>0.35414299999999999</v>
       </c>
       <c r="Q26" s="12">
-        <v>0.32495099999999999</v>
+        <v>0.35393799999999997</v>
       </c>
       <c r="R26" s="12">
-        <v>0.32499299999999998</v>
+        <v>0.35374499999999998</v>
       </c>
       <c r="S26" s="12">
-        <v>0.324847</v>
+        <v>0.35343799999999997</v>
       </c>
       <c r="T26" s="12">
-        <v>0.324762</v>
+        <v>0.35320099999999999</v>
       </c>
       <c r="U26" s="12">
-        <v>0.32475599999999999</v>
+        <v>0.352906</v>
       </c>
       <c r="V26" s="12">
-        <v>0.32457999999999998</v>
+        <v>0.35296499999999997</v>
       </c>
       <c r="W26" s="12">
-        <v>0.324494</v>
+        <v>0.35273399999999999</v>
       </c>
       <c r="X26" s="12">
-        <v>0.32481599999999999</v>
+        <v>0.35268899999999997</v>
       </c>
       <c r="Y26" s="12">
-        <v>0.32475500000000002</v>
+        <v>0.35267300000000001</v>
       </c>
       <c r="Z26" s="12">
-        <v>0.32477499999999998</v>
+        <v>0.35265099999999999</v>
       </c>
       <c r="AA26" s="12">
-        <v>0.32478699999999999</v>
+        <v>0.35263899999999998</v>
       </c>
       <c r="AB26" s="12">
-        <v>0.32487500000000002</v>
+        <v>0.35277500000000001</v>
       </c>
       <c r="AC26" s="12">
-        <v>0.32492700000000002</v>
+        <v>0.352659</v>
       </c>
       <c r="AD26" s="12">
-        <v>0.32488499999999998</v>
+        <v>0.35250700000000001</v>
       </c>
       <c r="AE26" s="12">
-        <v>0.32482</v>
+        <v>0.35242899999999999</v>
       </c>
       <c r="AF26" s="12">
-        <v>0.324791</v>
+        <v>0.35233900000000001</v>
       </c>
       <c r="AG26" s="12">
-        <v>0.32456699999999999</v>
+        <v>0.352215</v>
       </c>
       <c r="AH26" s="12">
-        <v>0.32460899999999998</v>
+        <v>0.35218500000000003</v>
       </c>
       <c r="AI26" s="12">
-        <v>0.32460899999999998</v>
+        <v>0.35194999999999999</v>
       </c>
       <c r="AJ26" s="12">
-        <v>0.32444699999999999</v>
-      </c>
-      <c r="AK26" s="12">
-        <v>0.32453500000000002</v>
-      </c>
-      <c r="AL26" s="11">
-        <v>2.9599999999999998E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
-        <v>67</v>
+        <v>0.351885</v>
+      </c>
+      <c r="AK26" s="11">
+        <v>-3.8299999999999999E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="18" t="s">
+        <v>66</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="12">
-        <v>1.0548E-2</v>
+        <v>1.1279000000000001E-2</v>
       </c>
       <c r="D27" s="12">
-        <v>1.0887000000000001E-2</v>
+        <v>1.1669000000000001E-2</v>
       </c>
       <c r="E27" s="12">
-        <v>1.1433E-2</v>
+        <v>1.225E-2</v>
       </c>
       <c r="F27" s="12">
-        <v>1.1986E-2</v>
+        <v>1.2845000000000001E-2</v>
       </c>
       <c r="G27" s="12">
-        <v>1.2586999999999999E-2</v>
+        <v>1.2775E-2</v>
       </c>
       <c r="H27" s="12">
-        <v>1.2481000000000001E-2</v>
+        <v>1.2619999999999999E-2</v>
       </c>
       <c r="I27" s="12">
-        <v>1.2323000000000001E-2</v>
+        <v>1.2402E-2</v>
       </c>
       <c r="J27" s="12">
-        <v>1.2099E-2</v>
+        <v>1.2033E-2</v>
       </c>
       <c r="K27" s="12">
-        <v>5.3435000000000003E-2</v>
+        <v>1.1625E-2</v>
       </c>
       <c r="L27" s="12">
-        <v>5.1581000000000002E-2</v>
+        <v>1.1448E-2</v>
       </c>
       <c r="M27" s="12">
-        <v>5.0778999999999998E-2</v>
+        <v>1.1294E-2</v>
       </c>
       <c r="N27" s="12">
-        <v>5.0088000000000001E-2</v>
+        <v>1.1145E-2</v>
       </c>
       <c r="O27" s="12">
-        <v>4.9430000000000002E-2</v>
+        <v>5.0021000000000003E-2</v>
       </c>
       <c r="P27" s="12">
-        <v>5.4178999999999998E-2</v>
+        <v>4.9322999999999999E-2</v>
       </c>
       <c r="Q27" s="12">
-        <v>5.3501E-2</v>
+        <v>5.3989000000000002E-2</v>
       </c>
       <c r="R27" s="12">
-        <v>5.2873999999999997E-2</v>
+        <v>5.3255999999999998E-2</v>
       </c>
       <c r="S27" s="12">
-        <v>5.2224E-2</v>
+        <v>5.2526000000000003E-2</v>
       </c>
       <c r="T27" s="12">
-        <v>5.1542999999999999E-2</v>
+        <v>5.1721000000000003E-2</v>
       </c>
       <c r="U27" s="12">
-        <v>5.0837E-2</v>
+        <v>5.0944000000000003E-2</v>
       </c>
       <c r="V27" s="12">
-        <v>5.0118000000000003E-2</v>
+        <v>5.0809E-2</v>
       </c>
       <c r="W27" s="12">
-        <v>5.0070000000000003E-2</v>
+        <v>5.0708999999999997E-2</v>
       </c>
       <c r="X27" s="12">
-        <v>5.0028000000000003E-2</v>
+        <v>5.0615E-2</v>
       </c>
       <c r="Y27" s="12">
-        <v>4.9986000000000003E-2</v>
+        <v>5.0562000000000003E-2</v>
       </c>
       <c r="Z27" s="12">
-        <v>4.9945999999999997E-2</v>
+        <v>5.0491000000000001E-2</v>
       </c>
       <c r="AA27" s="12">
-        <v>4.9902000000000002E-2</v>
+        <v>5.0407E-2</v>
       </c>
       <c r="AB27" s="12">
-        <v>4.9827000000000003E-2</v>
+        <v>5.0331000000000001E-2</v>
       </c>
       <c r="AC27" s="12">
-        <v>4.9769000000000001E-2</v>
+        <v>5.0282E-2</v>
       </c>
       <c r="AD27" s="12">
-        <v>4.9708000000000002E-2</v>
+        <v>5.0236000000000003E-2</v>
       </c>
       <c r="AE27" s="12">
-        <v>4.9675999999999998E-2</v>
+        <v>5.0134999999999999E-2</v>
       </c>
       <c r="AF27" s="12">
-        <v>4.9506000000000001E-2</v>
+        <v>5.0141999999999999E-2</v>
       </c>
       <c r="AG27" s="12">
-        <v>4.9359E-2</v>
+        <v>5.0229999999999997E-2</v>
       </c>
       <c r="AH27" s="12">
-        <v>4.9244999999999997E-2</v>
+        <v>5.0219E-2</v>
       </c>
       <c r="AI27" s="12">
-        <v>4.9273999999999998E-2</v>
+        <v>5.0101E-2</v>
       </c>
       <c r="AJ27" s="12">
-        <v>4.9370999999999998E-2</v>
-      </c>
-      <c r="AK27" s="12">
-        <v>4.9374000000000001E-2</v>
-      </c>
-      <c r="AL27" s="11">
-        <v>4.6878999999999997E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>66</v>
+        <v>5.0067E-2</v>
+      </c>
+      <c r="AK27" s="11">
+        <v>4.6566000000000003E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="18" t="s">
+        <v>65</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="12">
-        <v>0.42265000000000003</v>
+        <v>0.430923</v>
       </c>
       <c r="D28" s="12">
-        <v>0.42264699999999999</v>
+        <v>0.43077500000000002</v>
       </c>
       <c r="E28" s="12">
-        <v>0.42266500000000001</v>
+        <v>0.43082100000000001</v>
       </c>
       <c r="F28" s="12">
-        <v>0.42256199999999999</v>
+        <v>0.43076599999999998</v>
       </c>
       <c r="G28" s="12">
-        <v>0.422402</v>
+        <v>0.430589</v>
       </c>
       <c r="H28" s="12">
-        <v>0.42200599999999999</v>
+        <v>0.43025000000000002</v>
       </c>
       <c r="I28" s="12">
-        <v>0.421682</v>
+        <v>0.42981200000000003</v>
       </c>
       <c r="J28" s="12">
-        <v>0.42138700000000001</v>
+        <v>0.42939899999999998</v>
       </c>
       <c r="K28" s="12">
-        <v>0.42094999999999999</v>
+        <v>0.42898999999999998</v>
       </c>
       <c r="L28" s="12">
-        <v>0.42053099999999999</v>
+        <v>0.42875600000000003</v>
       </c>
       <c r="M28" s="12">
-        <v>0.42030099999999998</v>
+        <v>0.42855100000000002</v>
       </c>
       <c r="N28" s="12">
-        <v>0.42008499999999999</v>
+        <v>0.428346</v>
       </c>
       <c r="O28" s="12">
-        <v>0.419854</v>
+        <v>0.42808400000000002</v>
       </c>
       <c r="P28" s="12">
-        <v>0.41960399999999998</v>
+        <v>0.42792799999999998</v>
       </c>
       <c r="Q28" s="12">
-        <v>0.41940899999999998</v>
+        <v>0.42767699999999997</v>
       </c>
       <c r="R28" s="12">
-        <v>0.419128</v>
+        <v>0.42745899999999998</v>
       </c>
       <c r="S28" s="12">
-        <v>0.41889999999999999</v>
+        <v>0.427261</v>
       </c>
       <c r="T28" s="12">
-        <v>0.41871599999999998</v>
+        <v>0.42702600000000002</v>
       </c>
       <c r="U28" s="12">
-        <v>0.418493</v>
+        <v>0.42677500000000002</v>
       </c>
       <c r="V28" s="12">
-        <v>0.41825400000000001</v>
+        <v>0.42662800000000001</v>
       </c>
       <c r="W28" s="12">
-        <v>0.41811399999999999</v>
+        <v>0.42647200000000002</v>
       </c>
       <c r="X28" s="12">
-        <v>0.41796299999999997</v>
+        <v>0.42631400000000003</v>
       </c>
       <c r="Y28" s="12">
-        <v>0.41781299999999999</v>
+        <v>0.42613800000000002</v>
       </c>
       <c r="Z28" s="12">
-        <v>0.41764600000000002</v>
+        <v>0.42594399999999999</v>
       </c>
       <c r="AA28" s="12">
-        <v>0.41745100000000002</v>
+        <v>0.42581799999999997</v>
       </c>
       <c r="AB28" s="12">
-        <v>0.41733300000000001</v>
+        <v>0.42569200000000001</v>
       </c>
       <c r="AC28" s="12">
-        <v>0.41721399999999997</v>
+        <v>0.42553200000000002</v>
       </c>
       <c r="AD28" s="12">
-        <v>0.41706599999999999</v>
+        <v>0.42538399999999998</v>
       </c>
       <c r="AE28" s="12">
-        <v>0.41689700000000002</v>
+        <v>0.42522900000000002</v>
       </c>
       <c r="AF28" s="12">
-        <v>0.416769</v>
+        <v>0.42503200000000002</v>
       </c>
       <c r="AG28" s="12">
-        <v>0.41665099999999999</v>
+        <v>0.42480200000000001</v>
       </c>
       <c r="AH28" s="12">
-        <v>0.41647800000000001</v>
+        <v>0.42456100000000002</v>
       </c>
       <c r="AI28" s="12">
-        <v>0.41622999999999999</v>
+        <v>0.42430899999999999</v>
       </c>
       <c r="AJ28" s="12">
-        <v>0.41596300000000003</v>
-      </c>
-      <c r="AK28" s="12">
-        <v>0.41596300000000003</v>
-      </c>
-      <c r="AL28" s="11">
-        <v>-4.8299999999999998E-4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>65</v>
+        <v>0.42430000000000001</v>
+      </c>
+      <c r="AK28" s="11">
+        <v>-4.73E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="12">
-        <v>1.36117</v>
+        <v>1.630412</v>
       </c>
       <c r="D29" s="12">
-        <v>1.562613</v>
+        <v>1.910622</v>
       </c>
       <c r="E29" s="12">
-        <v>1.52993</v>
+        <v>1.935675</v>
       </c>
       <c r="F29" s="12">
-        <v>1.597866</v>
+        <v>2.0274510000000001</v>
       </c>
       <c r="G29" s="12">
-        <v>1.9498180000000001</v>
+        <v>2.0549940000000002</v>
       </c>
       <c r="H29" s="12">
-        <v>2.1247549999999999</v>
+        <v>2.0677530000000002</v>
       </c>
       <c r="I29" s="12">
-        <v>2.2037879999999999</v>
+        <v>2.1140219999999998</v>
       </c>
       <c r="J29" s="12">
-        <v>2.265272</v>
+        <v>2.1615150000000001</v>
       </c>
       <c r="K29" s="12">
-        <v>2.2955739999999998</v>
+        <v>2.2011660000000002</v>
       </c>
       <c r="L29" s="12">
-        <v>2.2958470000000002</v>
+        <v>2.2310289999999999</v>
       </c>
       <c r="M29" s="12">
-        <v>2.299687</v>
+        <v>2.2999700000000001</v>
       </c>
       <c r="N29" s="12">
-        <v>2.3240799999999999</v>
+        <v>2.3267180000000001</v>
       </c>
       <c r="O29" s="12">
-        <v>2.3556379999999999</v>
+        <v>2.3711340000000001</v>
       </c>
       <c r="P29" s="12">
-        <v>2.3884729999999998</v>
+        <v>2.389227</v>
       </c>
       <c r="Q29" s="12">
-        <v>2.405478</v>
+        <v>2.4240309999999998</v>
       </c>
       <c r="R29" s="12">
-        <v>2.4514269999999998</v>
+        <v>2.4563600000000001</v>
       </c>
       <c r="S29" s="12">
-        <v>2.4690059999999998</v>
+        <v>2.4742690000000001</v>
       </c>
       <c r="T29" s="12">
-        <v>2.4901580000000001</v>
+        <v>2.5030809999999999</v>
       </c>
       <c r="U29" s="12">
-        <v>2.5233590000000001</v>
+        <v>2.528991</v>
       </c>
       <c r="V29" s="12">
-        <v>2.54047</v>
+        <v>2.5604110000000002</v>
       </c>
       <c r="W29" s="12">
-        <v>2.5505939999999998</v>
+        <v>2.5627659999999999</v>
       </c>
       <c r="X29" s="12">
-        <v>2.6047509999999998</v>
+        <v>2.585337</v>
       </c>
       <c r="Y29" s="12">
-        <v>2.6210710000000002</v>
+        <v>2.6099359999999998</v>
       </c>
       <c r="Z29" s="12">
-        <v>2.643878</v>
+        <v>2.6369189999999998</v>
       </c>
       <c r="AA29" s="12">
-        <v>2.6706940000000001</v>
+        <v>2.6511179999999999</v>
       </c>
       <c r="AB29" s="12">
-        <v>2.6918700000000002</v>
+        <v>2.6808839999999998</v>
       </c>
       <c r="AC29" s="12">
-        <v>2.709381</v>
+        <v>2.6881750000000002</v>
       </c>
       <c r="AD29" s="12">
-        <v>2.7201689999999998</v>
+        <v>2.689813</v>
       </c>
       <c r="AE29" s="12">
-        <v>2.7310050000000001</v>
+        <v>2.699157</v>
       </c>
       <c r="AF29" s="12">
-        <v>2.7426179999999998</v>
+        <v>2.7117610000000001</v>
       </c>
       <c r="AG29" s="12">
-        <v>2.7334130000000001</v>
+        <v>2.7216309999999999</v>
       </c>
       <c r="AH29" s="12">
-        <v>2.7544680000000001</v>
+        <v>2.7397559999999999</v>
       </c>
       <c r="AI29" s="12">
-        <v>2.7769729999999999</v>
+        <v>2.7424270000000002</v>
       </c>
       <c r="AJ29" s="12">
-        <v>2.7855629999999998</v>
-      </c>
-      <c r="AK29" s="12">
-        <v>2.7986970000000002</v>
-      </c>
-      <c r="AL29" s="11">
-        <v>1.7817E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.7437649999999998</v>
+      </c>
+      <c r="AK29" s="11">
+        <v>1.1374E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
-        <v>64</v>
+    <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="18" t="s">
+        <v>63</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="12">
-        <v>1.347431</v>
+        <v>1.6689259999999999</v>
       </c>
       <c r="D32" s="12">
-        <v>1.612967</v>
+        <v>2.1811099999999999</v>
       </c>
       <c r="E32" s="12">
-        <v>1.6547799999999999</v>
+        <v>2.1898490000000002</v>
       </c>
       <c r="F32" s="12">
-        <v>1.765136</v>
+        <v>2.3478469999999998</v>
       </c>
       <c r="G32" s="12">
-        <v>2.2065800000000002</v>
+        <v>2.3218000000000001</v>
       </c>
       <c r="H32" s="12">
-        <v>2.391966</v>
+        <v>2.290349</v>
       </c>
       <c r="I32" s="12">
-        <v>2.4581789999999999</v>
+        <v>2.3247390000000001</v>
       </c>
       <c r="J32" s="12">
-        <v>2.5047060000000001</v>
+        <v>2.3626290000000001</v>
       </c>
       <c r="K32" s="12">
-        <v>2.5474160000000001</v>
+        <v>2.4006189999999998</v>
       </c>
       <c r="L32" s="12">
-        <v>2.5641720000000001</v>
+        <v>2.4525459999999999</v>
       </c>
       <c r="M32" s="12">
-        <v>2.5744129999999998</v>
+        <v>2.5205229999999998</v>
       </c>
       <c r="N32" s="12">
-        <v>2.610268</v>
+        <v>2.5721129999999999</v>
       </c>
       <c r="O32" s="12">
-        <v>2.6482890000000001</v>
+        <v>2.6674989999999998</v>
       </c>
       <c r="P32" s="12">
-        <v>2.7088510000000001</v>
+        <v>2.6839119999999999</v>
       </c>
       <c r="Q32" s="12">
-        <v>2.7409910000000002</v>
+        <v>2.7195459999999998</v>
       </c>
       <c r="R32" s="12">
-        <v>2.7979340000000001</v>
+        <v>2.773644</v>
       </c>
       <c r="S32" s="12">
-        <v>2.8295370000000002</v>
+        <v>2.8037290000000001</v>
       </c>
       <c r="T32" s="12">
-        <v>2.8730159999999998</v>
+        <v>2.8252280000000001</v>
       </c>
       <c r="U32" s="12">
-        <v>2.9111009999999999</v>
+        <v>2.8628260000000001</v>
       </c>
       <c r="V32" s="12">
-        <v>2.9324340000000002</v>
+        <v>2.9073980000000001</v>
       </c>
       <c r="W32" s="12">
-        <v>2.9550450000000001</v>
+        <v>2.9131529999999999</v>
       </c>
       <c r="X32" s="12">
-        <v>3.029766</v>
+        <v>2.9409160000000001</v>
       </c>
       <c r="Y32" s="12">
-        <v>3.0565310000000001</v>
+        <v>2.9666709999999998</v>
       </c>
       <c r="Z32" s="12">
-        <v>3.088069</v>
+        <v>2.9828290000000002</v>
       </c>
       <c r="AA32" s="12">
-        <v>3.118716</v>
+        <v>2.99844</v>
       </c>
       <c r="AB32" s="12">
-        <v>3.1535319999999998</v>
+        <v>3.0302129999999998</v>
       </c>
       <c r="AC32" s="12">
-        <v>3.1648239999999999</v>
+        <v>3.0451220000000001</v>
       </c>
       <c r="AD32" s="12">
-        <v>3.1827209999999999</v>
+        <v>3.040022</v>
       </c>
       <c r="AE32" s="12">
-        <v>3.1970860000000001</v>
+        <v>3.0622159999999998</v>
       </c>
       <c r="AF32" s="12">
-        <v>3.209695</v>
+        <v>3.0605769999999999</v>
       </c>
       <c r="AG32" s="12">
-        <v>3.2063220000000001</v>
+        <v>3.0688</v>
       </c>
       <c r="AH32" s="12">
-        <v>3.2305100000000002</v>
+        <v>3.0883630000000002</v>
       </c>
       <c r="AI32" s="12">
-        <v>3.2655319999999999</v>
+        <v>3.083701</v>
       </c>
       <c r="AJ32" s="12">
-        <v>3.2806739999999999</v>
-      </c>
-      <c r="AK32" s="12">
-        <v>3.2952170000000001</v>
-      </c>
-      <c r="AL32" s="11">
-        <v>2.1884000000000001E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
-        <v>63</v>
+        <v>3.0825879999999999</v>
+      </c>
+      <c r="AK32" s="11">
+        <v>1.0869E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="18" t="s">
+        <v>62</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="12">
-        <v>4.3959999999999999E-2</v>
+        <v>4.4047999999999997E-2</v>
       </c>
       <c r="D33" s="12">
         <v>4.3200000000000002E-2</v>
       </c>
       <c r="E33" s="12">
-        <v>4.2258999999999998E-2</v>
+        <v>4.2160999999999997E-2</v>
       </c>
       <c r="F33" s="12">
-        <v>4.1294999999999998E-2</v>
+        <v>4.1026E-2</v>
       </c>
       <c r="G33" s="12">
-        <v>4.0243000000000001E-2</v>
+        <v>3.9960000000000002E-2</v>
       </c>
       <c r="H33" s="12">
-        <v>3.9272000000000001E-2</v>
+        <v>3.8968000000000003E-2</v>
       </c>
       <c r="I33" s="12">
-        <v>3.8346999999999999E-2</v>
+        <v>3.8029E-2</v>
       </c>
       <c r="J33" s="12">
-        <v>3.7422999999999998E-2</v>
+        <v>3.7150000000000002E-2</v>
       </c>
       <c r="K33" s="12">
-        <v>3.6535999999999999E-2</v>
+        <v>3.6316000000000001E-2</v>
       </c>
       <c r="L33" s="12">
-        <v>3.5684E-2</v>
+        <v>3.5506999999999997E-2</v>
       </c>
       <c r="M33" s="12">
-        <v>3.4883999999999998E-2</v>
+        <v>3.4717999999999999E-2</v>
       </c>
       <c r="N33" s="12">
-        <v>3.4116E-2</v>
+        <v>3.3954999999999999E-2</v>
       </c>
       <c r="O33" s="12">
-        <v>3.3396000000000002E-2</v>
+        <v>3.3216000000000002E-2</v>
       </c>
       <c r="P33" s="12">
-        <v>3.2697999999999998E-2</v>
+        <v>3.2513E-2</v>
       </c>
       <c r="Q33" s="12">
-        <v>3.2010999999999998E-2</v>
+        <v>3.1828000000000002E-2</v>
       </c>
       <c r="R33" s="12">
-        <v>3.1327000000000001E-2</v>
+        <v>3.1151999999999999E-2</v>
       </c>
       <c r="S33" s="12">
-        <v>3.0653E-2</v>
+        <v>3.0485000000000002E-2</v>
       </c>
       <c r="T33" s="12">
-        <v>2.9987E-2</v>
+        <v>2.9832000000000001E-2</v>
       </c>
       <c r="U33" s="12">
-        <v>2.9329000000000001E-2</v>
+        <v>2.9184999999999999E-2</v>
       </c>
       <c r="V33" s="12">
-        <v>2.8680000000000001E-2</v>
+        <v>2.8545000000000001E-2</v>
       </c>
       <c r="W33" s="12">
-        <v>2.8038E-2</v>
+        <v>2.792E-2</v>
       </c>
       <c r="X33" s="12">
-        <v>2.7408999999999999E-2</v>
+        <v>2.7309E-2</v>
       </c>
       <c r="Y33" s="12">
-        <v>2.6797999999999999E-2</v>
+        <v>2.6709E-2</v>
       </c>
       <c r="Z33" s="12">
-        <v>2.6196000000000001E-2</v>
+        <v>2.6117999999999999E-2</v>
       </c>
       <c r="AA33" s="12">
-        <v>2.5603000000000001E-2</v>
+        <v>2.5534999999999999E-2</v>
       </c>
       <c r="AB33" s="12">
-        <v>2.5017999999999999E-2</v>
+        <v>2.4962000000000002E-2</v>
       </c>
       <c r="AC33" s="12">
-        <v>2.4441000000000001E-2</v>
+        <v>2.4396000000000001E-2</v>
       </c>
       <c r="AD33" s="12">
-        <v>2.3868E-2</v>
+        <v>2.3838999999999999E-2</v>
       </c>
       <c r="AE33" s="12">
-        <v>2.3303999999999998E-2</v>
+        <v>2.3289000000000001E-2</v>
       </c>
       <c r="AF33" s="12">
-        <v>2.2747E-2</v>
+        <v>2.2749999999999999E-2</v>
       </c>
       <c r="AG33" s="12">
-        <v>2.2202E-2</v>
+        <v>2.2218000000000002E-2</v>
       </c>
       <c r="AH33" s="12">
-        <v>2.1663999999999999E-2</v>
+        <v>2.1690999999999998E-2</v>
       </c>
       <c r="AI33" s="12">
-        <v>2.1132000000000001E-2</v>
+        <v>2.1170999999999999E-2</v>
       </c>
       <c r="AJ33" s="12">
-        <v>2.0612999999999999E-2</v>
-      </c>
-      <c r="AK33" s="12">
-        <v>2.0101000000000001E-2</v>
-      </c>
-      <c r="AL33" s="11">
-        <v>-2.2918000000000001E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
-        <v>62</v>
+        <v>2.0656999999999998E-2</v>
+      </c>
+      <c r="AK33" s="11">
+        <v>-2.2792E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="18" t="s">
+        <v>61</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="12">
-        <v>0.110388</v>
+        <v>7.2192000000000006E-2</v>
       </c>
       <c r="D34" s="12">
-        <v>0.110388</v>
+        <v>7.2192000000000006E-2</v>
       </c>
       <c r="E34" s="12">
-        <v>0.110388</v>
+        <v>7.2192000000000006E-2</v>
       </c>
       <c r="F34" s="12">
-        <v>0.110331</v>
+        <v>7.2359000000000007E-2</v>
       </c>
       <c r="G34" s="12">
-        <v>0.11028200000000001</v>
+        <v>7.2541999999999995E-2</v>
       </c>
       <c r="H34" s="12">
-        <v>0.110231</v>
+        <v>7.2667999999999996E-2</v>
       </c>
       <c r="I34" s="12">
-        <v>0.110175</v>
+        <v>7.2815000000000005E-2</v>
       </c>
       <c r="J34" s="12">
-        <v>0.110113</v>
+        <v>7.2943999999999995E-2</v>
       </c>
       <c r="K34" s="12">
-        <v>0.11006199999999999</v>
+        <v>7.3065000000000005E-2</v>
       </c>
       <c r="L34" s="12">
-        <v>0.110004</v>
+        <v>7.3177000000000006E-2</v>
       </c>
       <c r="M34" s="12">
-        <v>0.109955</v>
+        <v>7.3275999999999994E-2</v>
       </c>
       <c r="N34" s="12">
-        <v>0.109907</v>
+        <v>7.3382000000000003E-2</v>
       </c>
       <c r="O34" s="12">
-        <v>0.109849</v>
+        <v>7.3483999999999994E-2</v>
       </c>
       <c r="P34" s="12">
-        <v>0.109796</v>
+        <v>7.3582999999999996E-2</v>
       </c>
       <c r="Q34" s="12">
-        <v>0.109754</v>
+        <v>7.3679999999999995E-2</v>
       </c>
       <c r="R34" s="12">
-        <v>0.109708</v>
+        <v>7.3774000000000006E-2</v>
       </c>
       <c r="S34" s="12">
-        <v>0.109656</v>
+        <v>7.3871000000000006E-2</v>
       </c>
       <c r="T34" s="12">
-        <v>0.10960399999999999</v>
+        <v>7.3979000000000003E-2</v>
       </c>
       <c r="U34" s="12">
-        <v>0.10954700000000001</v>
+        <v>7.4088000000000001E-2</v>
       </c>
       <c r="V34" s="12">
-        <v>0.10949200000000001</v>
+        <v>7.4192999999999995E-2</v>
       </c>
       <c r="W34" s="12">
-        <v>0.109435</v>
+        <v>7.4299000000000004E-2</v>
       </c>
       <c r="X34" s="12">
-        <v>0.10938000000000001</v>
+        <v>7.4395000000000003E-2</v>
       </c>
       <c r="Y34" s="12">
-        <v>0.10932699999999999</v>
+        <v>7.4487999999999999E-2</v>
       </c>
       <c r="Z34" s="12">
-        <v>0.109278</v>
+        <v>7.4581999999999996E-2</v>
       </c>
       <c r="AA34" s="12">
-        <v>0.109235</v>
+        <v>7.4671000000000001E-2</v>
       </c>
       <c r="AB34" s="12">
-        <v>0.10919</v>
+        <v>7.4770000000000003E-2</v>
       </c>
       <c r="AC34" s="12">
-        <v>0.109139</v>
+        <v>7.4873999999999996E-2</v>
       </c>
       <c r="AD34" s="12">
-        <v>0.109084</v>
+        <v>7.4978000000000003E-2</v>
       </c>
       <c r="AE34" s="12">
-        <v>0.109025</v>
+        <v>7.5079000000000007E-2</v>
       </c>
       <c r="AF34" s="12">
-        <v>0.10897</v>
+        <v>7.5165999999999997E-2</v>
       </c>
       <c r="AG34" s="12">
-        <v>0.108934</v>
+        <v>7.5230000000000005E-2</v>
       </c>
       <c r="AH34" s="12">
-        <v>0.10890900000000001</v>
+        <v>7.5287000000000007E-2</v>
       </c>
       <c r="AI34" s="12">
-        <v>0.10888200000000001</v>
+        <v>7.5336E-2</v>
       </c>
       <c r="AJ34" s="12">
-        <v>0.10886</v>
-      </c>
-      <c r="AK34" s="12">
-        <v>0.10884199999999999</v>
-      </c>
-      <c r="AL34" s="11">
-        <v>-4.2700000000000002E-4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
-        <v>61</v>
+        <v>7.5378000000000001E-2</v>
+      </c>
+      <c r="AK34" s="11">
+        <v>1.351E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="12">
-        <v>2.0430000000000001E-3</v>
+        <v>2.2079999999999999E-3</v>
       </c>
       <c r="D35" s="12">
-        <v>2.1450000000000002E-3</v>
+        <v>2.3180000000000002E-3</v>
       </c>
       <c r="E35" s="12">
-        <v>2.2520000000000001E-3</v>
+        <v>2.434E-3</v>
       </c>
       <c r="F35" s="12">
-        <v>2.3700000000000001E-3</v>
+        <v>2.555E-3</v>
       </c>
       <c r="G35" s="12">
-        <v>2.4910000000000002E-3</v>
+        <v>2.555E-3</v>
       </c>
       <c r="H35" s="12">
-        <v>2.493E-3</v>
+        <v>2.5560000000000001E-3</v>
       </c>
       <c r="I35" s="12">
-        <v>2.4940000000000001E-3</v>
+        <v>2.5569999999999998E-3</v>
       </c>
       <c r="J35" s="12">
-        <v>2.4940000000000001E-3</v>
+        <v>2.5590000000000001E-3</v>
       </c>
       <c r="K35" s="12">
-        <v>1.1409000000000001E-2</v>
+        <v>2.5590000000000001E-3</v>
       </c>
       <c r="L35" s="12">
-        <v>1.1410999999999999E-2</v>
+        <v>2.5609999999999999E-3</v>
       </c>
       <c r="M35" s="12">
-        <v>1.1413E-2</v>
+        <v>2.5609999999999999E-3</v>
       </c>
       <c r="N35" s="12">
-        <v>1.1417E-2</v>
+        <v>2.562E-3</v>
       </c>
       <c r="O35" s="12">
-        <v>1.1417999999999999E-2</v>
+        <v>1.1715E-2</v>
       </c>
       <c r="P35" s="12">
-        <v>1.2689000000000001E-2</v>
+        <v>1.1721000000000001E-2</v>
       </c>
       <c r="Q35" s="12">
-        <v>1.2694E-2</v>
+        <v>1.3029000000000001E-2</v>
       </c>
       <c r="R35" s="12">
-        <v>1.2697999999999999E-2</v>
+        <v>1.3034E-2</v>
       </c>
       <c r="S35" s="12">
-        <v>1.2701E-2</v>
+        <v>1.304E-2</v>
       </c>
       <c r="T35" s="12">
-        <v>1.2704999999999999E-2</v>
+        <v>1.3044E-2</v>
       </c>
       <c r="U35" s="12">
-        <v>1.2708000000000001E-2</v>
+        <v>1.3050000000000001E-2</v>
       </c>
       <c r="V35" s="12">
-        <v>1.2713E-2</v>
+        <v>1.3056999999999999E-2</v>
       </c>
       <c r="W35" s="12">
-        <v>1.2716999999999999E-2</v>
+        <v>1.3063999999999999E-2</v>
       </c>
       <c r="X35" s="12">
-        <v>1.2722000000000001E-2</v>
+        <v>1.3070999999999999E-2</v>
       </c>
       <c r="Y35" s="12">
-        <v>1.2727E-2</v>
+        <v>1.3077999999999999E-2</v>
       </c>
       <c r="Z35" s="12">
-        <v>1.2732E-2</v>
+        <v>1.3088000000000001E-2</v>
       </c>
       <c r="AA35" s="12">
-        <v>1.274E-2</v>
+        <v>1.3098E-2</v>
       </c>
       <c r="AB35" s="12">
-        <v>1.2747E-2</v>
+        <v>1.3106E-2</v>
       </c>
       <c r="AC35" s="12">
-        <v>1.2753E-2</v>
+        <v>1.3112E-2</v>
       </c>
       <c r="AD35" s="12">
-        <v>1.2756999999999999E-2</v>
+        <v>1.3117E-2</v>
       </c>
       <c r="AE35" s="12">
-        <v>1.2760000000000001E-2</v>
+        <v>1.3125E-2</v>
       </c>
       <c r="AF35" s="12">
-        <v>1.2763999999999999E-2</v>
+        <v>1.3133000000000001E-2</v>
       </c>
       <c r="AG35" s="12">
-        <v>1.277E-2</v>
+        <v>1.3138E-2</v>
       </c>
       <c r="AH35" s="12">
-        <v>1.2774000000000001E-2</v>
+        <v>1.3140000000000001E-2</v>
       </c>
       <c r="AI35" s="12">
-        <v>1.2774000000000001E-2</v>
+        <v>1.3141999999999999E-2</v>
       </c>
       <c r="AJ35" s="12">
-        <v>1.2774000000000001E-2</v>
-      </c>
-      <c r="AK35" s="12">
-        <v>1.2775E-2</v>
-      </c>
-      <c r="AL35" s="11">
-        <v>5.5557000000000002E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
-        <v>60</v>
+        <v>1.3143999999999999E-2</v>
+      </c>
+      <c r="AK35" s="11">
+        <v>5.5722000000000001E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="18" t="s">
+        <v>59</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C36" s="12">
-        <v>6.7611000000000004E-2</v>
+        <v>6.7849999999999994E-2</v>
       </c>
       <c r="D36" s="12">
-        <v>6.7611000000000004E-2</v>
+        <v>6.7849999999999994E-2</v>
       </c>
       <c r="E36" s="12">
-        <v>6.7611000000000004E-2</v>
+        <v>6.7849999999999994E-2</v>
       </c>
       <c r="F36" s="12">
-        <v>6.7627000000000007E-2</v>
+        <v>6.8018999999999996E-2</v>
       </c>
       <c r="G36" s="12">
-        <v>6.7677000000000001E-2</v>
+        <v>6.8158999999999997E-2</v>
       </c>
       <c r="H36" s="12">
-        <v>6.769E-2</v>
+        <v>6.8168000000000006E-2</v>
       </c>
       <c r="I36" s="12">
-        <v>6.7694000000000004E-2</v>
+        <v>6.8141999999999994E-2</v>
       </c>
       <c r="J36" s="12">
-        <v>6.7708000000000004E-2</v>
+        <v>6.8131999999999998E-2</v>
       </c>
       <c r="K36" s="12">
-        <v>6.7724999999999994E-2</v>
+        <v>6.8148E-2</v>
       </c>
       <c r="L36" s="12">
-        <v>6.7743999999999999E-2</v>
+        <v>6.8167000000000005E-2</v>
       </c>
       <c r="M36" s="12">
-        <v>6.7764000000000005E-2</v>
+        <v>6.8187999999999999E-2</v>
       </c>
       <c r="N36" s="12">
-        <v>6.7780000000000007E-2</v>
+        <v>6.8211999999999995E-2</v>
       </c>
       <c r="O36" s="12">
-        <v>6.7801E-2</v>
+        <v>6.8233000000000002E-2</v>
       </c>
       <c r="P36" s="12">
-        <v>6.7827999999999999E-2</v>
+        <v>6.8255999999999997E-2</v>
       </c>
       <c r="Q36" s="12">
-        <v>6.7859000000000003E-2</v>
+        <v>6.8279999999999993E-2</v>
       </c>
       <c r="R36" s="12">
-        <v>6.7893999999999996E-2</v>
+        <v>6.8301000000000001E-2</v>
       </c>
       <c r="S36" s="12">
-        <v>6.7924999999999999E-2</v>
+        <v>6.8321999999999994E-2</v>
       </c>
       <c r="T36" s="12">
-        <v>6.7957000000000004E-2</v>
+        <v>6.8344000000000002E-2</v>
       </c>
       <c r="U36" s="12">
-        <v>6.7990999999999996E-2</v>
+        <v>6.8371000000000001E-2</v>
       </c>
       <c r="V36" s="12">
-        <v>6.8029999999999993E-2</v>
+        <v>6.8399000000000001E-2</v>
       </c>
       <c r="W36" s="12">
-        <v>6.8071000000000007E-2</v>
+        <v>6.8422999999999998E-2</v>
       </c>
       <c r="X36" s="12">
-        <v>6.8109000000000003E-2</v>
+        <v>6.8448999999999996E-2</v>
       </c>
       <c r="Y36" s="12">
-        <v>6.8148E-2</v>
+        <v>6.8472000000000005E-2</v>
       </c>
       <c r="Z36" s="12">
-        <v>6.8185999999999997E-2</v>
+        <v>6.8496000000000001E-2</v>
       </c>
       <c r="AA36" s="12">
-        <v>6.8222000000000005E-2</v>
+        <v>6.8515999999999994E-2</v>
       </c>
       <c r="AB36" s="12">
-        <v>6.8256999999999998E-2</v>
+        <v>6.8537000000000001E-2</v>
       </c>
       <c r="AC36" s="12">
-        <v>6.8293000000000006E-2</v>
+        <v>6.8559999999999996E-2</v>
       </c>
       <c r="AD36" s="12">
-        <v>6.8332000000000004E-2</v>
+        <v>6.8584000000000006E-2</v>
       </c>
       <c r="AE36" s="12">
-        <v>6.8371000000000001E-2</v>
+        <v>6.8609000000000003E-2</v>
       </c>
       <c r="AF36" s="12">
-        <v>6.8411E-2</v>
+        <v>6.8627999999999995E-2</v>
       </c>
       <c r="AG36" s="12">
-        <v>6.8446999999999994E-2</v>
+        <v>6.8638000000000005E-2</v>
       </c>
       <c r="AH36" s="12">
-        <v>6.8473000000000006E-2</v>
+        <v>6.8645999999999999E-2</v>
       </c>
       <c r="AI36" s="12">
-        <v>6.8497000000000002E-2</v>
+        <v>6.8650000000000003E-2</v>
       </c>
       <c r="AJ36" s="12">
-        <v>6.8518999999999997E-2</v>
-      </c>
-      <c r="AK36" s="12">
-        <v>6.8536E-2</v>
-      </c>
-      <c r="AL36" s="11">
-        <v>4.1199999999999999E-4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
-        <v>59</v>
+        <v>6.8651000000000004E-2</v>
+      </c>
+      <c r="AK36" s="11">
+        <v>3.6699999999999998E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A37" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="12">
-        <v>1.123429</v>
+        <v>1.4826280000000001</v>
       </c>
       <c r="D37" s="12">
-        <v>1.3896230000000001</v>
+        <v>1.9955499999999999</v>
       </c>
       <c r="E37" s="12">
-        <v>1.432269</v>
+        <v>2.0052129999999999</v>
       </c>
       <c r="F37" s="12">
-        <v>1.5435140000000001</v>
+        <v>2.163888</v>
       </c>
       <c r="G37" s="12">
-        <v>1.9858880000000001</v>
+        <v>2.138585</v>
       </c>
       <c r="H37" s="12">
-        <v>2.1722809999999999</v>
+        <v>2.10799</v>
       </c>
       <c r="I37" s="12">
-        <v>2.2394699999999998</v>
+        <v>2.1431960000000001</v>
       </c>
       <c r="J37" s="12">
-        <v>2.2869679999999999</v>
+        <v>2.1818439999999999</v>
       </c>
       <c r="K37" s="12">
-        <v>2.3216839999999999</v>
+        <v>2.2205300000000001</v>
       </c>
       <c r="L37" s="12">
-        <v>2.3393290000000002</v>
+        <v>2.2731340000000002</v>
       </c>
       <c r="M37" s="12">
-        <v>2.3503970000000001</v>
+        <v>2.34178</v>
       </c>
       <c r="N37" s="12">
-        <v>2.3870480000000001</v>
+        <v>2.3940009999999998</v>
       </c>
       <c r="O37" s="12">
-        <v>2.4258250000000001</v>
+        <v>2.4808500000000002</v>
       </c>
       <c r="P37" s="12">
-        <v>2.48584</v>
+        <v>2.4978389999999999</v>
       </c>
       <c r="Q37" s="12">
-        <v>2.5186730000000002</v>
+        <v>2.5327289999999998</v>
       </c>
       <c r="R37" s="12">
-        <v>2.5763069999999999</v>
+        <v>2.587383</v>
       </c>
       <c r="S37" s="12">
-        <v>2.6086019999999999</v>
+        <v>2.6180110000000001</v>
       </c>
       <c r="T37" s="12">
-        <v>2.6527630000000002</v>
+        <v>2.6400290000000002</v>
       </c>
       <c r="U37" s="12">
-        <v>2.6915260000000001</v>
+        <v>2.6781320000000002</v>
       </c>
       <c r="V37" s="12">
-        <v>2.7135189999999998</v>
+        <v>2.7232029999999998</v>
       </c>
       <c r="W37" s="12">
-        <v>2.7367840000000001</v>
+        <v>2.7294459999999998</v>
       </c>
       <c r="X37" s="12">
-        <v>2.8121459999999998</v>
+        <v>2.7576930000000002</v>
       </c>
       <c r="Y37" s="12">
-        <v>2.839531</v>
+        <v>2.7839230000000001</v>
       </c>
       <c r="Z37" s="12">
-        <v>2.8716780000000002</v>
+        <v>2.8005450000000001</v>
       </c>
       <c r="AA37" s="12">
-        <v>2.9029159999999998</v>
+        <v>2.8166199999999999</v>
       </c>
       <c r="AB37" s="12">
-        <v>2.9383189999999999</v>
+        <v>2.8488370000000001</v>
       </c>
       <c r="AC37" s="12">
-        <v>2.950199</v>
+        <v>2.8641800000000002</v>
       </c>
       <c r="AD37" s="12">
-        <v>2.9686789999999998</v>
+        <v>2.859505</v>
       </c>
       <c r="AE37" s="12">
-        <v>2.9836260000000001</v>
+        <v>2.8821140000000001</v>
       </c>
       <c r="AF37" s="12">
-        <v>2.9968029999999999</v>
+        <v>2.8809</v>
       </c>
       <c r="AG37" s="12">
-        <v>2.9939689999999999</v>
+        <v>2.8895749999999998</v>
       </c>
       <c r="AH37" s="12">
-        <v>3.0186890000000002</v>
+        <v>2.9096000000000002</v>
       </c>
       <c r="AI37" s="12">
-        <v>3.0542470000000002</v>
+        <v>2.905402</v>
       </c>
       <c r="AJ37" s="12">
-        <v>3.069909</v>
-      </c>
-      <c r="AK37" s="12">
-        <v>3.0849630000000001</v>
-      </c>
-      <c r="AL37" s="11">
-        <v>2.4461E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2.904757</v>
+      </c>
+      <c r="AK37" s="11">
+        <v>1.1801000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
-        <v>58</v>
+    <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A40" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C40" s="12">
-        <v>2.146309</v>
+        <v>2.5561250000000002</v>
       </c>
       <c r="D40" s="12">
-        <v>2.5011920000000001</v>
+        <v>3.053194</v>
       </c>
       <c r="E40" s="12">
-        <v>2.5947909999999998</v>
+        <v>3.1093220000000001</v>
       </c>
       <c r="F40" s="12">
-        <v>2.7019329999999999</v>
+        <v>3.1820940000000002</v>
       </c>
       <c r="G40" s="12">
-        <v>3.1511499999999999</v>
+        <v>3.2227399999999999</v>
       </c>
       <c r="H40" s="12">
-        <v>3.3697119999999998</v>
+        <v>3.249409</v>
       </c>
       <c r="I40" s="12">
-        <v>3.4809030000000001</v>
+        <v>3.326149</v>
       </c>
       <c r="J40" s="12">
-        <v>3.580565</v>
+        <v>3.4634930000000002</v>
       </c>
       <c r="K40" s="12">
-        <v>3.6220509999999999</v>
+        <v>3.5350820000000001</v>
       </c>
       <c r="L40" s="12">
-        <v>3.652717</v>
+        <v>3.5934140000000001</v>
       </c>
       <c r="M40" s="12">
-        <v>3.6612119999999999</v>
+        <v>3.690089</v>
       </c>
       <c r="N40" s="12">
-        <v>3.6998030000000002</v>
+        <v>3.7170130000000001</v>
       </c>
       <c r="O40" s="12">
-        <v>3.7390240000000001</v>
+        <v>3.7808139999999999</v>
       </c>
       <c r="P40" s="12">
-        <v>3.7886890000000002</v>
+        <v>3.8088920000000002</v>
       </c>
       <c r="Q40" s="12">
-        <v>3.8192699999999999</v>
+        <v>3.839604</v>
       </c>
       <c r="R40" s="12">
-        <v>3.8672909999999998</v>
+        <v>3.881459</v>
       </c>
       <c r="S40" s="12">
-        <v>3.8915769999999998</v>
+        <v>3.9272559999999999</v>
       </c>
       <c r="T40" s="12">
-        <v>3.9283950000000001</v>
+        <v>3.9365100000000002</v>
       </c>
       <c r="U40" s="12">
-        <v>3.9684879999999998</v>
+        <v>3.9683630000000001</v>
       </c>
       <c r="V40" s="12">
-        <v>3.9883769999999998</v>
+        <v>4.0191369999999997</v>
       </c>
       <c r="W40" s="12">
-        <v>4.0047499999999996</v>
+        <v>4.0065169999999997</v>
       </c>
       <c r="X40" s="12">
-        <v>4.0721239999999996</v>
+        <v>4.0299199999999997</v>
       </c>
       <c r="Y40" s="12">
-        <v>4.0904720000000001</v>
+        <v>4.0515540000000003</v>
       </c>
       <c r="Z40" s="12">
-        <v>4.120609</v>
+        <v>4.0763280000000002</v>
       </c>
       <c r="AA40" s="12">
-        <v>4.1459530000000004</v>
+        <v>4.0819660000000004</v>
       </c>
       <c r="AB40" s="12">
-        <v>4.1737510000000002</v>
+        <v>4.1058110000000001</v>
       </c>
       <c r="AC40" s="12">
-        <v>4.1757759999999999</v>
+        <v>4.1077370000000002</v>
       </c>
       <c r="AD40" s="12">
-        <v>4.1824919999999999</v>
+        <v>4.0970279999999999</v>
       </c>
       <c r="AE40" s="12">
-        <v>4.1824459999999997</v>
+        <v>4.105423</v>
       </c>
       <c r="AF40" s="12">
-        <v>4.1901099999999998</v>
+        <v>4.0916100000000002</v>
       </c>
       <c r="AG40" s="12">
-        <v>4.1777059999999997</v>
+        <v>4.078252</v>
       </c>
       <c r="AH40" s="12">
-        <v>4.1927000000000003</v>
+        <v>4.0841139999999996</v>
       </c>
       <c r="AI40" s="12">
-        <v>4.2085270000000001</v>
+        <v>4.0752800000000002</v>
       </c>
       <c r="AJ40" s="12">
-        <v>4.1945670000000002</v>
-      </c>
-      <c r="AK40" s="12">
-        <v>4.2022320000000004</v>
-      </c>
-      <c r="AL40" s="11">
-        <v>1.5847E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19" t="s">
-        <v>57</v>
+        <v>4.0714680000000003</v>
+      </c>
+      <c r="AK40" s="11">
+        <v>9.0349999999999996E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A41" s="18" t="s">
+        <v>56</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="12">
-        <v>4.3000000000000002E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
       <c r="D41" s="12">
-        <v>4.1E-5</v>
+        <v>9.2E-5</v>
       </c>
       <c r="E41" s="12">
-        <v>1.0900000000000001E-4</v>
+        <v>9.5000000000000005E-5</v>
       </c>
       <c r="F41" s="12">
-        <v>1.18E-4</v>
+        <v>1.07E-4</v>
       </c>
       <c r="G41" s="12">
-        <v>1.25E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="H41" s="12">
-        <v>1.2799999999999999E-4</v>
+        <v>1.07E-4</v>
       </c>
       <c r="I41" s="12">
-        <v>1.2999999999999999E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="J41" s="12">
-        <v>1.3100000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="K41" s="12">
-        <v>6.0499999999999996E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="L41" s="12">
-        <v>6.0999999999999997E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="M41" s="12">
-        <v>6.1600000000000001E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="N41" s="12">
-        <v>6.2200000000000005E-4</v>
+        <v>1.06E-4</v>
       </c>
       <c r="O41" s="12">
-        <v>6.2699999999999995E-4</v>
+        <v>4.8200000000000001E-4</v>
       </c>
       <c r="P41" s="12">
-        <v>7.0500000000000001E-4</v>
+        <v>4.8200000000000001E-4</v>
       </c>
       <c r="Q41" s="12">
-        <v>7.1199999999999996E-4</v>
+        <v>5.3499999999999999E-4</v>
       </c>
       <c r="R41" s="12">
-        <v>7.2000000000000005E-4</v>
+        <v>5.3399999999999997E-4</v>
       </c>
       <c r="S41" s="12">
-        <v>7.27E-4</v>
+        <v>5.3300000000000005E-4</v>
       </c>
       <c r="T41" s="12">
-        <v>7.3499999999999998E-4</v>
+        <v>5.3300000000000005E-4</v>
       </c>
       <c r="U41" s="12">
-        <v>7.4200000000000004E-4</v>
+        <v>5.3200000000000003E-4</v>
       </c>
       <c r="V41" s="12">
-        <v>7.5000000000000002E-4</v>
+        <v>5.31E-4</v>
       </c>
       <c r="W41" s="12">
-        <v>7.5699999999999997E-4</v>
+        <v>5.2899999999999996E-4</v>
       </c>
       <c r="X41" s="12">
-        <v>7.6400000000000003E-4</v>
+        <v>5.2800000000000004E-4</v>
       </c>
       <c r="Y41" s="12">
-        <v>7.7200000000000001E-4</v>
+        <v>5.2700000000000002E-4</v>
       </c>
       <c r="Z41" s="12">
-        <v>7.7899999999999996E-4</v>
+        <v>5.2599999999999999E-4</v>
       </c>
       <c r="AA41" s="12">
-        <v>7.8700000000000005E-4</v>
+        <v>5.2499999999999997E-4</v>
       </c>
       <c r="AB41" s="12">
-        <v>7.94E-4</v>
+        <v>5.2400000000000005E-4</v>
       </c>
       <c r="AC41" s="12">
-        <v>8.0099999999999995E-4</v>
+        <v>5.22E-4</v>
       </c>
       <c r="AD41" s="12">
-        <v>8.0900000000000004E-4</v>
+        <v>5.2099999999999998E-4</v>
       </c>
       <c r="AE41" s="12">
-        <v>8.1700000000000002E-4</v>
+        <v>5.2099999999999998E-4</v>
       </c>
       <c r="AF41" s="12">
-        <v>8.2399999999999997E-4</v>
+        <v>5.2099999999999998E-4</v>
       </c>
       <c r="AG41" s="12">
-        <v>8.3100000000000003E-4</v>
+        <v>5.1999999999999995E-4</v>
       </c>
       <c r="AH41" s="12">
-        <v>8.3900000000000001E-4</v>
+        <v>5.1999999999999995E-4</v>
       </c>
       <c r="AI41" s="12">
-        <v>8.4800000000000001E-4</v>
+        <v>5.1999999999999995E-4</v>
       </c>
       <c r="AJ41" s="12">
-        <v>8.5599999999999999E-4</v>
-      </c>
-      <c r="AK41" s="12">
-        <v>8.6499999999999999E-4</v>
-      </c>
-      <c r="AL41" s="11">
-        <v>9.7075999999999996E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19" t="s">
-        <v>56</v>
+        <v>5.1999999999999995E-4</v>
+      </c>
+      <c r="AK41" s="11">
+        <v>5.5530000000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A42" s="18" t="s">
+        <v>55</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C42" s="12">
-        <v>0.98677000000000004</v>
+        <v>1.0044930000000001</v>
       </c>
       <c r="D42" s="12">
-        <v>0.98500900000000002</v>
+        <v>1.006248</v>
       </c>
       <c r="E42" s="12">
-        <v>0.99166900000000002</v>
+        <v>1.0029410000000001</v>
       </c>
       <c r="F42" s="12">
-        <v>0.98994899999999997</v>
+        <v>1.000529</v>
       </c>
       <c r="G42" s="12">
-        <v>0.98977599999999999</v>
+        <v>0.99968100000000004</v>
       </c>
       <c r="H42" s="12">
-        <v>0.98916800000000005</v>
+        <v>0.998861</v>
       </c>
       <c r="I42" s="12">
-        <v>0.98852799999999996</v>
+        <v>0.99772000000000005</v>
       </c>
       <c r="J42" s="12">
-        <v>0.98777700000000002</v>
+        <v>0.99710100000000002</v>
       </c>
       <c r="K42" s="12">
-        <v>0.98743999999999998</v>
+        <v>0.99644500000000003</v>
       </c>
       <c r="L42" s="12">
-        <v>0.98734299999999997</v>
+        <v>0.99641599999999997</v>
       </c>
       <c r="M42" s="12">
-        <v>0.987232</v>
+        <v>0.99667799999999995</v>
       </c>
       <c r="N42" s="12">
-        <v>0.98722500000000002</v>
+        <v>0.99674200000000002</v>
       </c>
       <c r="O42" s="12">
-        <v>0.98724699999999999</v>
+        <v>0.99658199999999997</v>
       </c>
       <c r="P42" s="12">
-        <v>0.98729299999999998</v>
+        <v>0.99663800000000002</v>
       </c>
       <c r="Q42" s="12">
-        <v>0.987344</v>
+        <v>0.99662899999999999</v>
       </c>
       <c r="R42" s="12">
-        <v>0.98739900000000003</v>
+        <v>0.99660000000000004</v>
       </c>
       <c r="S42" s="12">
-        <v>0.98749100000000001</v>
+        <v>0.99677300000000002</v>
       </c>
       <c r="T42" s="12">
-        <v>0.98755300000000001</v>
+        <v>0.99651900000000004</v>
       </c>
       <c r="U42" s="12">
-        <v>0.987591</v>
+        <v>0.99641599999999997</v>
       </c>
       <c r="V42" s="12">
-        <v>0.98763000000000001</v>
+        <v>0.996282</v>
       </c>
       <c r="W42" s="12">
-        <v>0.98769099999999999</v>
+        <v>0.99618899999999999</v>
       </c>
       <c r="X42" s="12">
-        <v>0.98777099999999995</v>
+        <v>0.99604599999999999</v>
       </c>
       <c r="Y42" s="12">
-        <v>0.98787800000000003</v>
+        <v>0.995892</v>
       </c>
       <c r="Z42" s="12">
-        <v>0.98798699999999995</v>
+        <v>0.99577599999999999</v>
       </c>
       <c r="AA42" s="12">
-        <v>0.98811499999999997</v>
+        <v>0.99565599999999999</v>
       </c>
       <c r="AB42" s="12">
-        <v>0.98827399999999999</v>
+        <v>0.99552499999999999</v>
       </c>
       <c r="AC42" s="12">
-        <v>0.98839100000000002</v>
+        <v>0.99548700000000001</v>
       </c>
       <c r="AD42" s="12">
-        <v>0.98848400000000003</v>
+        <v>0.99536999999999998</v>
       </c>
       <c r="AE42" s="12">
-        <v>0.98856500000000003</v>
+        <v>0.99534699999999998</v>
       </c>
       <c r="AF42" s="12">
-        <v>0.98865899999999995</v>
+        <v>0.99531199999999997</v>
       </c>
       <c r="AG42" s="12">
-        <v>0.98873699999999998</v>
+        <v>0.99530099999999999</v>
       </c>
       <c r="AH42" s="12">
-        <v>0.98882300000000001</v>
+        <v>0.99529299999999998</v>
       </c>
       <c r="AI42" s="12">
-        <v>0.98895200000000005</v>
+        <v>0.995259</v>
       </c>
       <c r="AJ42" s="12">
-        <v>0.98905200000000004</v>
-      </c>
-      <c r="AK42" s="12">
-        <v>0.98916499999999996</v>
-      </c>
-      <c r="AL42" s="11">
-        <v>1.2799999999999999E-4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19" t="s">
-        <v>55</v>
+        <v>0.99521400000000004</v>
+      </c>
+      <c r="AK42" s="11">
+        <v>-3.4499999999999998E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A43" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="12">
-        <v>1.1594960000000001</v>
+        <v>1.551587</v>
       </c>
       <c r="D43" s="12">
-        <v>1.5161420000000001</v>
+        <v>2.0468540000000002</v>
       </c>
       <c r="E43" s="12">
-        <v>1.603013</v>
+        <v>2.1062850000000002</v>
       </c>
       <c r="F43" s="12">
-        <v>1.7118660000000001</v>
+        <v>2.1814580000000001</v>
       </c>
       <c r="G43" s="12">
-        <v>2.1612480000000001</v>
+        <v>2.2229519999999998</v>
       </c>
       <c r="H43" s="12">
-        <v>2.3804159999999999</v>
+        <v>2.2504409999999999</v>
       </c>
       <c r="I43" s="12">
-        <v>2.492245</v>
+        <v>2.3283239999999998</v>
       </c>
       <c r="J43" s="12">
-        <v>2.592657</v>
+        <v>2.4662860000000002</v>
       </c>
       <c r="K43" s="12">
-        <v>2.634007</v>
+        <v>2.5385309999999999</v>
       </c>
       <c r="L43" s="12">
-        <v>2.6647639999999999</v>
+        <v>2.596892</v>
       </c>
       <c r="M43" s="12">
-        <v>2.6733639999999999</v>
+        <v>2.6933050000000001</v>
       </c>
       <c r="N43" s="12">
-        <v>2.7119559999999998</v>
+        <v>2.7201650000000002</v>
       </c>
       <c r="O43" s="12">
-        <v>2.75115</v>
+        <v>2.7837499999999999</v>
       </c>
       <c r="P43" s="12">
-        <v>2.800691</v>
+        <v>2.8117719999999999</v>
       </c>
       <c r="Q43" s="12">
-        <v>2.831213</v>
+        <v>2.8424399999999999</v>
       </c>
       <c r="R43" s="12">
-        <v>2.8791720000000001</v>
+        <v>2.884325</v>
       </c>
       <c r="S43" s="12">
-        <v>2.903359</v>
+        <v>2.9299490000000001</v>
       </c>
       <c r="T43" s="12">
-        <v>2.9401069999999998</v>
+        <v>2.9394589999999998</v>
       </c>
       <c r="U43" s="12">
-        <v>2.9801549999999999</v>
+        <v>2.9714149999999999</v>
       </c>
       <c r="V43" s="12">
-        <v>2.999997</v>
+        <v>3.0223239999999998</v>
       </c>
       <c r="W43" s="12">
-        <v>3.016302</v>
+        <v>3.0097990000000001</v>
       </c>
       <c r="X43" s="12">
-        <v>3.0835889999999999</v>
+        <v>3.0333459999999999</v>
       </c>
       <c r="Y43" s="12">
-        <v>3.101823</v>
+        <v>3.0551349999999999</v>
       </c>
       <c r="Z43" s="12">
-        <v>3.1318429999999999</v>
+        <v>3.0800260000000002</v>
       </c>
       <c r="AA43" s="12">
-        <v>3.1570510000000001</v>
+        <v>3.085785</v>
       </c>
       <c r="AB43" s="12">
-        <v>3.1846839999999998</v>
+        <v>3.1097630000000001</v>
       </c>
       <c r="AC43" s="12">
-        <v>3.1865830000000002</v>
+        <v>3.1117279999999998</v>
       </c>
       <c r="AD43" s="12">
-        <v>3.1931989999999999</v>
+        <v>3.1011359999999999</v>
       </c>
       <c r="AE43" s="12">
-        <v>3.1930649999999998</v>
+        <v>3.1095549999999998</v>
       </c>
       <c r="AF43" s="12">
-        <v>3.200628</v>
+        <v>3.095777</v>
       </c>
       <c r="AG43" s="12">
-        <v>3.1881379999999999</v>
+        <v>3.0824310000000001</v>
       </c>
       <c r="AH43" s="12">
-        <v>3.2030379999999998</v>
+        <v>3.088301</v>
       </c>
       <c r="AI43" s="12">
-        <v>3.2187269999999999</v>
+        <v>3.0795020000000002</v>
       </c>
       <c r="AJ43" s="12">
-        <v>3.2046589999999999</v>
-      </c>
-      <c r="AK43" s="12">
-        <v>3.212202</v>
-      </c>
-      <c r="AL43" s="11">
-        <v>2.3012000000000001E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19" t="s">
-        <v>54</v>
+        <v>3.0757340000000002</v>
+      </c>
+      <c r="AK43" s="11">
+        <v>1.2808E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A45" s="18" t="s">
+        <v>53</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C45" s="9">
-        <v>1.05982</v>
+        <v>1.3146310000000001</v>
       </c>
       <c r="D45" s="9">
-        <v>1.248381</v>
+        <v>1.772119</v>
       </c>
       <c r="E45" s="9">
-        <v>1.259371</v>
+        <v>1.744229</v>
       </c>
       <c r="F45" s="9">
-        <v>1.339372</v>
+        <v>1.7444310000000001</v>
       </c>
       <c r="G45" s="9">
-        <v>1.6657360000000001</v>
+        <v>1.7722309999999999</v>
       </c>
       <c r="H45" s="9">
-        <v>1.841971</v>
+        <v>1.771387</v>
       </c>
       <c r="I45" s="9">
-        <v>1.917832</v>
+        <v>1.8145450000000001</v>
       </c>
       <c r="J45" s="9">
-        <v>1.97489</v>
+        <v>1.8886419999999999</v>
       </c>
       <c r="K45" s="9">
-        <v>2.012111</v>
+        <v>1.9460219999999999</v>
       </c>
       <c r="L45" s="9">
-        <v>2.0403609999999999</v>
+        <v>2.0206050000000002</v>
       </c>
       <c r="M45" s="9">
-        <v>2.0825019999999999</v>
+        <v>2.0832259999999998</v>
       </c>
       <c r="N45" s="9">
-        <v>2.1108730000000002</v>
+        <v>2.1290119999999999</v>
       </c>
       <c r="O45" s="9">
-        <v>2.1501809999999999</v>
+        <v>2.172561</v>
       </c>
       <c r="P45" s="9">
-        <v>2.1858230000000001</v>
+        <v>2.2138710000000001</v>
       </c>
       <c r="Q45" s="9">
-        <v>2.2100369999999998</v>
+        <v>2.252942</v>
       </c>
       <c r="R45" s="9">
-        <v>2.25874</v>
+        <v>2.2897750000000001</v>
       </c>
       <c r="S45" s="9">
-        <v>2.2818450000000001</v>
+        <v>2.32437</v>
       </c>
       <c r="T45" s="9">
-        <v>2.3135750000000002</v>
+        <v>2.3567269999999998</v>
       </c>
       <c r="U45" s="9">
-        <v>2.3509289999999998</v>
+        <v>2.3868450000000001</v>
       </c>
       <c r="V45" s="9">
-        <v>2.3777539999999999</v>
+        <v>2.4147249999999998</v>
       </c>
       <c r="W45" s="9">
-        <v>2.3884820000000002</v>
+        <v>2.4403670000000002</v>
       </c>
       <c r="X45" s="9">
-        <v>2.4470070000000002</v>
+        <v>2.4637699999999998</v>
       </c>
       <c r="Y45" s="9">
-        <v>2.4743889999999999</v>
+        <v>2.4849350000000001</v>
       </c>
       <c r="Z45" s="9">
-        <v>2.4967990000000002</v>
+        <v>2.5038610000000001</v>
       </c>
       <c r="AA45" s="9">
-        <v>2.5256799999999999</v>
+        <v>2.5205489999999999</v>
       </c>
       <c r="AB45" s="9">
-        <v>2.5525329999999999</v>
+        <v>2.534999</v>
       </c>
       <c r="AC45" s="9">
-        <v>2.5659619999999999</v>
+        <v>2.5472100000000002</v>
       </c>
       <c r="AD45" s="9">
-        <v>2.5824479999999999</v>
+        <v>2.5571839999999999</v>
       </c>
       <c r="AE45" s="9">
-        <v>2.6049790000000002</v>
+        <v>2.564918</v>
       </c>
       <c r="AF45" s="9">
-        <v>2.6200369999999999</v>
+        <v>2.570414</v>
       </c>
       <c r="AG45" s="9">
-        <v>2.6284369999999999</v>
+        <v>2.5736720000000002</v>
       </c>
       <c r="AH45" s="9">
-        <v>2.6461070000000002</v>
+        <v>2.5746920000000002</v>
       </c>
       <c r="AI45" s="9">
-        <v>2.6691029999999998</v>
+        <v>2.5734729999999999</v>
       </c>
       <c r="AJ45" s="9">
-        <v>2.6903320000000002</v>
-      </c>
-      <c r="AK45" s="9">
-        <v>2.7037749999999998</v>
-      </c>
-      <c r="AL45" s="8">
-        <v>2.3695000000000001E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19" t="s">
-        <v>53</v>
+        <v>2.5700159999999999</v>
+      </c>
+      <c r="AK45" s="8">
+        <v>1.1684999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A46" s="18" t="s">
+        <v>52</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="9">
-        <v>1.0497650000000001</v>
+        <v>1.2330840000000001</v>
       </c>
       <c r="D46" s="9">
-        <v>1.1830000000000001</v>
+        <v>1.6300950000000001</v>
       </c>
       <c r="E46" s="9">
-        <v>1.1778519999999999</v>
+        <v>1.616287</v>
       </c>
       <c r="F46" s="9">
-        <v>1.2575879999999999</v>
+        <v>1.6600710000000001</v>
       </c>
       <c r="G46" s="9">
-        <v>1.5936680000000001</v>
+        <v>1.696013</v>
       </c>
       <c r="H46" s="9">
-        <v>1.755781</v>
+        <v>1.6789970000000001</v>
       </c>
       <c r="I46" s="9">
-        <v>1.8316429999999999</v>
+        <v>1.7166300000000001</v>
       </c>
       <c r="J46" s="9">
-        <v>1.8887</v>
+        <v>1.790645</v>
       </c>
       <c r="K46" s="9">
-        <v>1.9127730000000001</v>
+        <v>1.855129</v>
       </c>
       <c r="L46" s="9">
-        <v>1.9642459999999999</v>
+        <v>1.9056420000000001</v>
       </c>
       <c r="M46" s="9">
-        <v>1.986837</v>
+        <v>1.960426</v>
       </c>
       <c r="N46" s="9">
-        <v>2.023685</v>
+        <v>2.0012400000000001</v>
       </c>
       <c r="O46" s="9">
-        <v>2.055348</v>
+        <v>2.046656</v>
       </c>
       <c r="P46" s="9">
-        <v>2.0986340000000001</v>
+        <v>2.0796380000000001</v>
       </c>
       <c r="Q46" s="9">
-        <v>2.122849</v>
+        <v>2.1240429999999999</v>
       </c>
       <c r="R46" s="9">
-        <v>2.1544379999999999</v>
+        <v>2.1510289999999999</v>
       </c>
       <c r="S46" s="9">
-        <v>2.181756</v>
+        <v>2.2150799999999999</v>
       </c>
       <c r="T46" s="9">
-        <v>2.2116210000000001</v>
+        <v>2.2299129999999998</v>
       </c>
       <c r="U46" s="9">
-        <v>2.237565</v>
+        <v>2.266613</v>
       </c>
       <c r="V46" s="9">
-        <v>2.266454</v>
+        <v>2.3123200000000002</v>
       </c>
       <c r="W46" s="9">
-        <v>2.2815080000000001</v>
+        <v>2.3045390000000001</v>
       </c>
       <c r="X46" s="9">
-        <v>2.3402799999999999</v>
+        <v>2.332713</v>
       </c>
       <c r="Y46" s="9">
-        <v>2.3667799999999999</v>
+        <v>2.3507349999999998</v>
       </c>
       <c r="Z46" s="9">
-        <v>2.3852699999999998</v>
+        <v>2.3853390000000001</v>
       </c>
       <c r="AA46" s="9">
-        <v>2.4093520000000002</v>
+        <v>2.3996249999999999</v>
       </c>
       <c r="AB46" s="9">
-        <v>2.438234</v>
+        <v>2.4319959999999998</v>
       </c>
       <c r="AC46" s="9">
-        <v>2.4524710000000001</v>
+        <v>2.438777</v>
       </c>
       <c r="AD46" s="9">
-        <v>2.4689580000000002</v>
+        <v>2.4518949999999999</v>
       </c>
       <c r="AE46" s="9">
-        <v>2.4914879999999999</v>
+        <v>2.4650089999999998</v>
       </c>
       <c r="AF46" s="9">
-        <v>2.5129130000000002</v>
+        <v>2.4735849999999999</v>
       </c>
       <c r="AG46" s="9">
-        <v>2.5255610000000002</v>
+        <v>2.4808819999999998</v>
       </c>
       <c r="AH46" s="9">
-        <v>2.5409929999999998</v>
+        <v>2.488035</v>
       </c>
       <c r="AI46" s="9">
-        <v>2.562376</v>
+        <v>2.4894910000000001</v>
       </c>
       <c r="AJ46" s="9">
-        <v>2.5891959999999998</v>
-      </c>
-      <c r="AK46" s="9">
-        <v>2.60792</v>
-      </c>
-      <c r="AL46" s="8">
-        <v>2.4244000000000002E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
+        <v>2.4886469999999998</v>
+      </c>
+      <c r="AK46" s="8">
+        <v>1.3310000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="48" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
-      <c r="R48" s="17"/>
-      <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
-      <c r="U48" s="17"/>
-      <c r="V48" s="17"/>
-      <c r="W48" s="17"/>
-      <c r="X48" s="17"/>
-      <c r="Y48" s="17"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="17"/>
-      <c r="AB48" s="17"/>
-      <c r="AC48" s="17"/>
-      <c r="AD48" s="17"/>
-      <c r="AE48" s="17"/>
-      <c r="AF48" s="17"/>
-      <c r="AG48" s="17"/>
-      <c r="AH48" s="17"/>
-      <c r="AI48" s="17"/>
-      <c r="AJ48" s="17"/>
-      <c r="AK48" s="17"/>
-      <c r="AL48" s="17"/>
-    </row>
-    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="21" t="s">
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
+      <c r="W48" s="21"/>
+      <c r="X48" s="21"/>
+      <c r="Y48" s="21"/>
+      <c r="Z48" s="21"/>
+      <c r="AA48" s="21"/>
+      <c r="AB48" s="21"/>
+      <c r="AC48" s="21"/>
+      <c r="AD48" s="21"/>
+      <c r="AE48" s="21"/>
+      <c r="AF48" s="21"/>
+      <c r="AG48" s="21"/>
+      <c r="AH48" s="21"/>
+      <c r="AI48" s="21"/>
+      <c r="AJ48" s="21"/>
+      <c r="AK48" s="21"/>
+    </row>
+    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="21" t="s">
+    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="20" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+    <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="20" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="21" t="s">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="21" t="s">
+    <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="20" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="21" t="s">
+    <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="21" t="s">
+    <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="20" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="20" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B48:AL48"/>
+    <mergeCell ref="B48:AK48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4359,128 +4280,125 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ17"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AJ10" sqref="AJ10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:AI13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="34.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B1" s="1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C1" s="1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D1" s="1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E1" s="1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F1" s="1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G1" s="1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1" s="1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I1" s="1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="J1" s="1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="K1" s="1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="L1" s="1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="M1" s="1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="N1" s="1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="O1" s="1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="P1" s="1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="Q1" s="1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="R1" s="1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="S1" s="1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="T1" s="1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="U1" s="1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="V1" s="1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="W1" s="1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="X1" s="1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="Y1" s="1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="Z1" s="1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="AA1" s="1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="AB1" s="1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AC1" s="1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AD1" s="1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AE1" s="1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AF1" s="1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AG1" s="1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AH1" s="1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AI1" s="1">
-        <v>2049</v>
-      </c>
-      <c r="AJ1" s="1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -4620,14 +4538,10 @@
         <f>About!$C$15</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="AJ2">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3">
         <f>About!$C$15</f>
@@ -4765,12 +4679,8 @@
         <f>About!$C$15</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="AJ3">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -4910,12 +4820,8 @@
         <f>About!$C$15</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="AJ4">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -5055,12 +4961,8 @@
         <f>About!$C$15</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="AJ5">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -5166,11 +5068,8 @@
       <c r="AI6">
         <v>0</v>
       </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -5276,11 +5175,8 @@
       <c r="AI7">
         <v>0</v>
       </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -5386,11 +5282,8 @@
       <c r="AI8">
         <v>0</v>
       </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -5530,737 +5423,713 @@
         <f>About!$C$15</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="AJ9">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="5">
-        <f>SUM('AEO Table 59'!C25:C26)/('AEO Table 59'!C24-SUM('AEO Table 59'!C25:C26))</f>
-        <v>0.28232710217352169</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(B$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(B$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(B$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.24874108190964744</v>
       </c>
       <c r="C10" s="5">
-        <f>SUM('AEO Table 59'!D25:D26)/('AEO Table 59'!D24-SUM('AEO Table 59'!D25:D26))</f>
-        <v>0.25317373920858527</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(C$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(C$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(C$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.22955846948554334</v>
       </c>
       <c r="D10" s="5">
-        <f>SUM('AEO Table 59'!E25:E26)/('AEO Table 59'!E24-SUM('AEO Table 59'!E25:E26))</f>
-        <v>0.25515101864585504</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(D$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(D$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(D$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.22532628536211935</v>
       </c>
       <c r="E10" s="5">
-        <f>SUM('AEO Table 59'!F25:F26)/('AEO Table 59'!F24-SUM('AEO Table 59'!F25:F26))</f>
-        <v>0.24474135449698997</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(E$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(E$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(E$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.21522868728399963</v>
       </c>
       <c r="F10" s="5">
-        <f>SUM('AEO Table 59'!G25:G26)/('AEO Table 59'!G24-SUM('AEO Table 59'!G25:G26))</f>
-        <v>0.2080389700135189</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(F$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(F$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(F$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.21096264465006401</v>
       </c>
       <c r="G10" s="5">
-        <f>SUM('AEO Table 59'!H25:H26)/('AEO Table 59'!H24-SUM('AEO Table 59'!H25:H26))</f>
-        <v>0.19270276120820148</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(G$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(G$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(G$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.20807703904568706</v>
       </c>
       <c r="H10" s="5">
-        <f>SUM('AEO Table 59'!I25:I26)/('AEO Table 59'!I24-SUM('AEO Table 59'!I25:I26))</f>
-        <v>0.18558582875911792</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(H$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(H$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(H$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.2026476438981549</v>
       </c>
       <c r="I10" s="5">
-        <f>SUM('AEO Table 59'!J25:J26)/('AEO Table 59'!J24-SUM('AEO Table 59'!J25:J26))</f>
-        <v>0.17998582310300631</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(I$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(I$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(I$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.19738972787382916</v>
       </c>
       <c r="J10" s="5">
-        <f>SUM('AEO Table 59'!K25:K26)/('AEO Table 59'!K24-SUM('AEO Table 59'!K25:K26))</f>
-        <v>0.17391304347826089</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(J$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(J$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(J$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.19291038886266501</v>
       </c>
       <c r="K10" s="5">
-        <f>SUM('AEO Table 59'!L25:L26)/('AEO Table 59'!L24-SUM('AEO Table 59'!L25:L26))</f>
-        <v>0.17253284006994321</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(K$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(K$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(K$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.18938864164550293</v>
       </c>
       <c r="L10" s="5">
-        <f>SUM('AEO Table 59'!M25:M26)/('AEO Table 59'!M24-SUM('AEO Table 59'!M25:M26))</f>
-        <v>0.17100132526433104</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(L$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(L$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(L$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.18348348940220804</v>
       </c>
       <c r="M10" s="5">
-        <f>SUM('AEO Table 59'!N25:N26)/('AEO Table 59'!N24-SUM('AEO Table 59'!N25:N26))</f>
-        <v>0.16835167336374812</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(M$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(M$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(M$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.18047660173182867</v>
       </c>
       <c r="N10" s="5">
-        <f>SUM('AEO Table 59'!O25:O26)/('AEO Table 59'!O24-SUM('AEO Table 59'!O25:O26))</f>
-        <v>0.16543211974273281</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(N$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(N$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(N$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.1740429637527775</v>
       </c>
       <c r="O10" s="5">
-        <f>SUM('AEO Table 59'!P25:P26)/('AEO Table 59'!P24-SUM('AEO Table 59'!P25:P26))</f>
-        <v>0.16223886411238694</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(O$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(O$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(O$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.17185555648972586</v>
       </c>
       <c r="P10" s="5">
-        <f>SUM('AEO Table 59'!Q25:Q26)/('AEO Table 59'!Q24-SUM('AEO Table 59'!Q25:Q26))</f>
-        <v>0.16025358638237794</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(P$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(P$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(P$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.1684645714952385</v>
       </c>
       <c r="Q10" s="5">
-        <f>SUM('AEO Table 59'!R25:R26)/('AEO Table 59'!R24-SUM('AEO Table 59'!R25:R26))</f>
-        <v>0.15680221985969894</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Q$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(Q$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Q$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.16561369198481754</v>
       </c>
       <c r="R10" s="5">
-        <f>SUM('AEO Table 59'!S25:S26)/('AEO Table 59'!S24-SUM('AEO Table 59'!S25:S26))</f>
-        <v>0.15488158686860787</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(R$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(R$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(R$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.16359473212423867</v>
       </c>
       <c r="S10" s="5">
-        <f>SUM('AEO Table 59'!T25:T26)/('AEO Table 59'!T24-SUM('AEO Table 59'!T25:T26))</f>
-        <v>0.15283184767551328</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(S$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(S$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(S$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.1610619391862978</v>
       </c>
       <c r="T10" s="5">
-        <f>SUM('AEO Table 59'!U25:U26)/('AEO Table 59'!U24-SUM('AEO Table 59'!U25:U26))</f>
-        <v>0.15024982549138918</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(T$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(T$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(T$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.15870896803849788</v>
       </c>
       <c r="U10" s="5">
-        <f>SUM('AEO Table 59'!V25:V26)/('AEO Table 59'!V24-SUM('AEO Table 59'!V25:V26))</f>
-        <v>0.14846005590853362</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(U$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(U$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(U$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.1562069596635513</v>
       </c>
       <c r="V10" s="5">
-        <f>SUM('AEO Table 59'!W25:W26)/('AEO Table 59'!W24-SUM('AEO Table 59'!W25:W26))</f>
-        <v>0.14703929868310953</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(V$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(V$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(V$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.15514842857457711</v>
       </c>
       <c r="W10" s="5">
-        <f>SUM('AEO Table 59'!X25:X26)/('AEO Table 59'!X24-SUM('AEO Table 59'!X25:X26))</f>
-        <v>0.14369218112031534</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(W$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(W$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(W$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.15315423284587293</v>
       </c>
       <c r="X10" s="5">
-        <f>SUM('AEO Table 59'!Y25:Y26)/('AEO Table 59'!Y24-SUM('AEO Table 59'!Y25:Y26))</f>
-        <v>0.14208006744211721</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(X$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(X$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(X$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.15111176050561195</v>
       </c>
       <c r="Y10" s="5">
-        <f>SUM('AEO Table 59'!Z25:Z26)/('AEO Table 59'!Z24-SUM('AEO Table 59'!Z25:Z26))</f>
-        <v>0.14023050198137857</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.14899820225975016</v>
       </c>
       <c r="Z10" s="5">
-        <f>SUM('AEO Table 59'!AA25:AA26)/('AEO Table 59'!AA24-SUM('AEO Table 59'!AA25:AA26))</f>
-        <v>0.13824107796983282</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.14753103434162301</v>
       </c>
       <c r="AA10" s="5">
-        <f>SUM('AEO Table 59'!AB25:AB26)/('AEO Table 59'!AB24-SUM('AEO Table 59'!AB25:AB26))</f>
-        <v>0.13655936681809508</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.14542529932788623</v>
       </c>
       <c r="AB10" s="5">
-        <f>SUM('AEO Table 59'!AC25:AC26)/('AEO Table 59'!AC24-SUM('AEO Table 59'!AC25:AC26))</f>
-        <v>0.13506130435261693</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.14429601367134967</v>
       </c>
       <c r="AC10" s="5">
-        <f>SUM('AEO Table 59'!AD25:AD26)/('AEO Table 59'!AD24-SUM('AEO Table 59'!AD25:AD26))</f>
-        <v>0.1338310725984117</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.14343503716553155</v>
       </c>
       <c r="AD10" s="5">
-        <f>SUM('AEO Table 59'!AE25:AE26)/('AEO Table 59'!AE24-SUM('AEO Table 59'!AE25:AE26))</f>
-        <v>0.13261541473434416</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.1422639376888867</v>
       </c>
       <c r="AE10" s="5">
-        <f>SUM('AEO Table 59'!AF25:AF26)/('AEO Table 59'!AF24-SUM('AEO Table 59'!AF25:AF26))</f>
-        <v>0.13140170145903898</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.14096145669742244</v>
       </c>
       <c r="AF10" s="5">
-        <f>SUM('AEO Table 59'!AG25:AG26)/('AEO Table 59'!AG24-SUM('AEO Table 59'!AG25:AG26))</f>
-        <v>0.13099893324515077</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13978295491266987</v>
       </c>
       <c r="AG10" s="5">
-        <f>SUM('AEO Table 59'!AH25:AH26)/('AEO Table 59'!AH24-SUM('AEO Table 59'!AH25:AH26))</f>
-        <v>0.12945660676649304</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13830020880151911</v>
       </c>
       <c r="AH10" s="5">
-        <f>SUM('AEO Table 59'!AI25:AI26)/('AEO Table 59'!AI24-SUM('AEO Table 59'!AI25:AI26))</f>
-        <v>0.12786952690797806</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AH$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AH$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AH$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13744024411549477</v>
       </c>
       <c r="AI10" s="5">
-        <f>SUM('AEO Table 59'!AJ25:AJ26)/('AEO Table 59'!AJ24-SUM('AEO Table 59'!AJ25:AJ26))</f>
-        <v>0.12680869310839438</v>
-      </c>
-      <c r="AJ10" s="5">
-        <f>SUM('AEO Table 59'!AK25:AK26)/('AEO Table 59'!AK24-SUM('AEO Table 59'!AK25:AK26))</f>
-        <v>0.12565704718239848</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+        <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AI$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AI$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AI$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13668457353520613</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="5">
-        <f>SUM('AEO Table 59'!C17:C18)/('AEO Table 59'!C16-SUM('AEO Table 59'!C17:C18))</f>
-        <v>0.29365642126056524</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(B$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(B$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(B$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.25329993605370371</v>
       </c>
       <c r="C11" s="5">
-        <f>SUM('AEO Table 59'!D17:D18)/('AEO Table 59'!D16-SUM('AEO Table 59'!D17:D18))</f>
-        <v>0.2516471487482424</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(C$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(C$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(C$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.22496581516875422</v>
       </c>
       <c r="D11" s="5">
-        <f>SUM('AEO Table 59'!E17:E18)/('AEO Table 59'!E16-SUM('AEO Table 59'!E17:E18))</f>
-        <v>0.23834898358743459</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(D$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(D$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(D$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.2275105948898497</v>
       </c>
       <c r="E11" s="5">
-        <f>SUM('AEO Table 59'!F17:F18)/('AEO Table 59'!F16-SUM('AEO Table 59'!F17:F18))</f>
-        <v>0.23181113383918578</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(E$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(E$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(E$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.20933759085807688</v>
       </c>
       <c r="F11" s="5">
-        <f>SUM('AEO Table 59'!G17:G18)/('AEO Table 59'!G16-SUM('AEO Table 59'!G17:G18))</f>
-        <v>0.19601285447043929</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(F$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(F$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(F$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.20610440669831731</v>
       </c>
       <c r="G11" s="5">
-        <f>SUM('AEO Table 59'!H17:H18)/('AEO Table 59'!H16-SUM('AEO Table 59'!H17:H18))</f>
-        <v>0.18263717825140122</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(G$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(G$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(G$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.20546016681151641</v>
       </c>
       <c r="H11" s="5">
-        <f>SUM('AEO Table 59'!I17:I18)/('AEO Table 59'!I16-SUM('AEO Table 59'!I17:I18))</f>
-        <v>0.17706095596133187</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(H$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(H$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(H$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.20041065300359545</v>
       </c>
       <c r="I11" s="5">
-        <f>SUM('AEO Table 59'!J17:J18)/('AEO Table 59'!J16-SUM('AEO Table 59'!J17:J18))</f>
-        <v>0.17175338548260924</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(I$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(I$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(I$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.19343604321113675</v>
       </c>
       <c r="J11" s="5">
-        <f>SUM('AEO Table 59'!K17:K18)/('AEO Table 59'!K16-SUM('AEO Table 59'!K17:K18))</f>
-        <v>0.16467971846137969</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(J$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(J$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(J$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.18794277996853398</v>
       </c>
       <c r="K11" s="5">
-        <f>SUM('AEO Table 59'!L17:L18)/('AEO Table 59'!L16-SUM('AEO Table 59'!L17:L18))</f>
-        <v>0.16074563089014224</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(K$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(K$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(K$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.18455869032910713</v>
       </c>
       <c r="L11" s="5">
-        <f>SUM('AEO Table 59'!M17:M18)/('AEO Table 59'!M16-SUM('AEO Table 59'!M17:M18))</f>
-        <v>0.15833608355023468</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(L$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(L$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(L$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.17707168873563942</v>
       </c>
       <c r="M11" s="5">
-        <f>SUM('AEO Table 59'!N17:N18)/('AEO Table 59'!N16-SUM('AEO Table 59'!N17:N18))</f>
-        <v>0.15469835640767707</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(M$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(M$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(M$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.17364384508385031</v>
       </c>
       <c r="N11" s="5">
-        <f>SUM('AEO Table 59'!O17:O18)/('AEO Table 59'!O16-SUM('AEO Table 59'!O17:O18))</f>
-        <v>0.15110134202535075</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(N$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(N$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(N$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.16589803923527241</v>
       </c>
       <c r="O11" s="5">
-        <f>SUM('AEO Table 59'!P17:P18)/('AEO Table 59'!P16-SUM('AEO Table 59'!P17:P18))</f>
-        <v>0.14731053676970338</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(O$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(O$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(O$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.16305002734494489</v>
       </c>
       <c r="P11" s="5">
-        <f>SUM('AEO Table 59'!Q17:Q18)/('AEO Table 59'!Q16-SUM('AEO Table 59'!Q17:Q18))</f>
-        <v>0.1445769525508859</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(P$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(P$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(P$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.15970444373796189</v>
       </c>
       <c r="Q11" s="5">
-        <f>SUM('AEO Table 59'!R17:R18)/('AEO Table 59'!R16-SUM('AEO Table 59'!R17:R18))</f>
-        <v>0.14104438598164579</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Q$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(Q$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Q$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.15630345832245324</v>
       </c>
       <c r="R11" s="5">
-        <f>SUM('AEO Table 59'!S17:S18)/('AEO Table 59'!S16-SUM('AEO Table 59'!S17:S18))</f>
-        <v>0.13906850193021927</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(R$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(R$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(R$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.15326078055067954</v>
       </c>
       <c r="S11" s="5">
-        <f>SUM('AEO Table 59'!T17:T18)/('AEO Table 59'!T16-SUM('AEO Table 59'!T17:T18))</f>
-        <v>0.1361915755730066</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(S$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(S$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(S$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.15146076163517408</v>
       </c>
       <c r="T11" s="5">
-        <f>SUM('AEO Table 59'!U17:U18)/('AEO Table 59'!U16-SUM('AEO Table 59'!U17:U18))</f>
-        <v>0.13322430729569959</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(T$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(T$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(T$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.14864160102868906</v>
       </c>
       <c r="U11" s="5">
-        <f>SUM('AEO Table 59'!V17:V18)/('AEO Table 59'!V16-SUM('AEO Table 59'!V17:V18))</f>
-        <v>0.13122312614930254</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(U$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(U$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(U$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.14552966098037221</v>
       </c>
       <c r="V11" s="5">
-        <f>SUM('AEO Table 59'!W17:W18)/('AEO Table 59'!W16-SUM('AEO Table 59'!W17:W18))</f>
-        <v>0.12941570926237658</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(V$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(V$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(V$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.14475334637892595</v>
       </c>
       <c r="W11" s="5">
-        <f>SUM('AEO Table 59'!X17:X18)/('AEO Table 59'!X16-SUM('AEO Table 59'!X17:X18))</f>
-        <v>0.1258989978940227</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(W$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(W$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(W$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.14263548607478424</v>
       </c>
       <c r="X11" s="5">
-        <f>SUM('AEO Table 59'!Y17:Y18)/('AEO Table 59'!Y16-SUM('AEO Table 59'!Y17:Y18))</f>
-        <v>0.12408965103418337</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(X$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(X$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(X$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.1406885676383087</v>
       </c>
       <c r="Y11" s="5">
-        <f>SUM('AEO Table 59'!Z17:Z18)/('AEO Table 59'!Z16-SUM('AEO Table 59'!Z17:Z18))</f>
-        <v>0.12212098851374867</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.1389008055674722</v>
       </c>
       <c r="Z11" s="5">
-        <f>SUM('AEO Table 59'!AA17:AA18)/('AEO Table 59'!AA16-SUM('AEO Table 59'!AA17:AA18))</f>
-        <v>0.12027604038135181</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13775866175851983</v>
       </c>
       <c r="AA11" s="5">
-        <f>SUM('AEO Table 59'!AB17:AB18)/('AEO Table 59'!AB16-SUM('AEO Table 59'!AB17:AB18))</f>
-        <v>0.118414689510876</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13586561410874093</v>
       </c>
       <c r="AB11" s="5">
-        <f>SUM('AEO Table 59'!AC17:AC18)/('AEO Table 59'!AC16-SUM('AEO Table 59'!AC17:AC18))</f>
-        <v>0.11740809301303955</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13487735528180161</v>
       </c>
       <c r="AC11" s="5">
-        <f>SUM('AEO Table 59'!AD17:AD18)/('AEO Table 59'!AD16-SUM('AEO Table 59'!AD17:AD18))</f>
-        <v>0.11628417355551469</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13455250786840786</v>
       </c>
       <c r="AD11" s="5">
-        <f>SUM('AEO Table 59'!AE17:AE18)/('AEO Table 59'!AE16-SUM('AEO Table 59'!AE17:AE18))</f>
-        <v>0.1153627191837029</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13337656704735265</v>
       </c>
       <c r="AE11" s="5">
-        <f>SUM('AEO Table 59'!AF17:AF18)/('AEO Table 59'!AF16-SUM('AEO Table 59'!AF17:AF18))</f>
-        <v>0.11414957716730689</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13315240597245692</v>
       </c>
       <c r="AF11" s="5">
-        <f>SUM('AEO Table 59'!AG17:AG18)/('AEO Table 59'!AG16-SUM('AEO Table 59'!AG17:AG18))</f>
-        <v>0.11360053288853157</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13297949822828375</v>
       </c>
       <c r="AG11" s="5">
-        <f>SUM('AEO Table 59'!AH17:AH18)/('AEO Table 59'!AH16-SUM('AEO Table 59'!AH17:AH18))</f>
-        <v>0.11229069139726079</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13192122379945706</v>
       </c>
       <c r="AH11" s="5">
-        <f>SUM('AEO Table 59'!AI17:AI18)/('AEO Table 59'!AI16-SUM('AEO Table 59'!AI17:AI18))</f>
-        <v>0.11109795776729181</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AH$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AH$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AH$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13132769419615201</v>
       </c>
       <c r="AI11" s="5">
-        <f>SUM('AEO Table 59'!AJ17:AJ18)/('AEO Table 59'!AJ16-SUM('AEO Table 59'!AJ17:AJ18))</f>
-        <v>0.11090765580264345</v>
-      </c>
-      <c r="AJ11" s="5">
-        <f>SUM('AEO Table 59'!AK17:AK18)/('AEO Table 59'!AK16-SUM('AEO Table 59'!AK17:AK18))</f>
-        <v>0.10984488220485197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+        <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AI$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AI$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AI$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>0.13048493111107098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="5">
-        <f t="shared" ref="B12:D12" si="0">B10</f>
-        <v>0.28232710217352169</v>
+        <f t="shared" ref="B12:AI12" si="0">B10</f>
+        <v>0.24874108190964744</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" ref="C12:AJ12" si="1">C10</f>
-        <v>0.25317373920858527</v>
+        <f t="shared" ref="C12:AI12" si="1">C10</f>
+        <v>0.22955846948554334</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="1"/>
-        <v>0.25515101864585504</v>
+        <v>0.22532628536211935</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="1"/>
-        <v>0.24474135449698997</v>
+        <v>0.21522868728399963</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>0.2080389700135189</v>
+        <v>0.21096264465006401</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="1"/>
-        <v>0.19270276120820148</v>
+        <v>0.20807703904568706</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="1"/>
-        <v>0.18558582875911792</v>
+        <v>0.2026476438981549</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="1"/>
-        <v>0.17998582310300631</v>
+        <v>0.19738972787382916</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="1"/>
-        <v>0.17391304347826089</v>
+        <v>0.19291038886266501</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" si="1"/>
-        <v>0.17253284006994321</v>
+        <v>0.18938864164550293</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="1"/>
-        <v>0.17100132526433104</v>
+        <v>0.18348348940220804</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" si="1"/>
-        <v>0.16835167336374812</v>
+        <v>0.18047660173182867</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="1"/>
-        <v>0.16543211974273281</v>
+        <v>0.1740429637527775</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="1"/>
-        <v>0.16223886411238694</v>
+        <v>0.17185555648972586</v>
       </c>
       <c r="P12" s="5">
         <f t="shared" si="1"/>
-        <v>0.16025358638237794</v>
+        <v>0.1684645714952385</v>
       </c>
       <c r="Q12" s="5">
         <f t="shared" si="1"/>
-        <v>0.15680221985969894</v>
+        <v>0.16561369198481754</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" si="1"/>
-        <v>0.15488158686860787</v>
+        <v>0.16359473212423867</v>
       </c>
       <c r="S12" s="5">
         <f t="shared" si="1"/>
-        <v>0.15283184767551328</v>
+        <v>0.1610619391862978</v>
       </c>
       <c r="T12" s="5">
         <f t="shared" si="1"/>
-        <v>0.15024982549138918</v>
+        <v>0.15870896803849788</v>
       </c>
       <c r="U12" s="5">
         <f t="shared" si="1"/>
-        <v>0.14846005590853362</v>
+        <v>0.1562069596635513</v>
       </c>
       <c r="V12" s="5">
         <f t="shared" si="1"/>
-        <v>0.14703929868310953</v>
+        <v>0.15514842857457711</v>
       </c>
       <c r="W12" s="5">
         <f t="shared" si="1"/>
-        <v>0.14369218112031534</v>
+        <v>0.15315423284587293</v>
       </c>
       <c r="X12" s="5">
         <f t="shared" si="1"/>
-        <v>0.14208006744211721</v>
+        <v>0.15111176050561195</v>
       </c>
       <c r="Y12" s="5">
         <f t="shared" si="1"/>
-        <v>0.14023050198137857</v>
+        <v>0.14899820225975016</v>
       </c>
       <c r="Z12" s="5">
         <f t="shared" si="1"/>
-        <v>0.13824107796983282</v>
+        <v>0.14753103434162301</v>
       </c>
       <c r="AA12" s="5">
         <f t="shared" si="1"/>
-        <v>0.13655936681809508</v>
+        <v>0.14542529932788623</v>
       </c>
       <c r="AB12" s="5">
         <f t="shared" si="1"/>
-        <v>0.13506130435261693</v>
+        <v>0.14429601367134967</v>
       </c>
       <c r="AC12" s="5">
         <f t="shared" si="1"/>
-        <v>0.1338310725984117</v>
+        <v>0.14343503716553155</v>
       </c>
       <c r="AD12" s="5">
         <f t="shared" si="1"/>
-        <v>0.13261541473434416</v>
+        <v>0.1422639376888867</v>
       </c>
       <c r="AE12" s="5">
         <f t="shared" si="1"/>
-        <v>0.13140170145903898</v>
+        <v>0.14096145669742244</v>
       </c>
       <c r="AF12" s="5">
         <f t="shared" si="1"/>
-        <v>0.13099893324515077</v>
+        <v>0.13978295491266987</v>
       </c>
       <c r="AG12" s="5">
         <f t="shared" si="1"/>
-        <v>0.12945660676649304</v>
+        <v>0.13830020880151911</v>
       </c>
       <c r="AH12" s="5">
         <f t="shared" si="1"/>
-        <v>0.12786952690797806</v>
+        <v>0.13744024411549477</v>
       </c>
       <c r="AI12" s="5">
         <f t="shared" si="1"/>
-        <v>0.12680869310839438</v>
-      </c>
-      <c r="AJ12" s="5">
-        <f t="shared" si="1"/>
-        <v>0.12565704718239848</v>
-      </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+        <v>0.13668457353520613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="5">
-        <f t="shared" ref="B13:D13" si="2">B11</f>
-        <v>0.29365642126056524</v>
+        <f t="shared" ref="B13:AI13" si="2">B11</f>
+        <v>0.25329993605370371</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ref="C13:AJ13" si="3">C11</f>
-        <v>0.2516471487482424</v>
+        <f t="shared" ref="C13:AI13" si="3">C11</f>
+        <v>0.22496581516875422</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" si="3"/>
-        <v>0.23834898358743459</v>
+        <v>0.2275105948898497</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" si="3"/>
-        <v>0.23181113383918578</v>
+        <v>0.20933759085807688</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="3"/>
-        <v>0.19601285447043929</v>
+        <v>0.20610440669831731</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="3"/>
-        <v>0.18263717825140122</v>
+        <v>0.20546016681151641</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" si="3"/>
-        <v>0.17706095596133187</v>
+        <v>0.20041065300359545</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="3"/>
-        <v>0.17175338548260924</v>
+        <v>0.19343604321113675</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="3"/>
-        <v>0.16467971846137969</v>
+        <v>0.18794277996853398</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" si="3"/>
-        <v>0.16074563089014224</v>
+        <v>0.18455869032910713</v>
       </c>
       <c r="L13" s="5">
         <f t="shared" si="3"/>
-        <v>0.15833608355023468</v>
+        <v>0.17707168873563942</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="3"/>
-        <v>0.15469835640767707</v>
+        <v>0.17364384508385031</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="3"/>
-        <v>0.15110134202535075</v>
+        <v>0.16589803923527241</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="3"/>
-        <v>0.14731053676970338</v>
+        <v>0.16305002734494489</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="3"/>
-        <v>0.1445769525508859</v>
+        <v>0.15970444373796189</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="3"/>
-        <v>0.14104438598164579</v>
+        <v>0.15630345832245324</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="3"/>
-        <v>0.13906850193021927</v>
+        <v>0.15326078055067954</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" si="3"/>
-        <v>0.1361915755730066</v>
+        <v>0.15146076163517408</v>
       </c>
       <c r="T13" s="5">
         <f t="shared" si="3"/>
-        <v>0.13322430729569959</v>
+        <v>0.14864160102868906</v>
       </c>
       <c r="U13" s="5">
         <f t="shared" si="3"/>
-        <v>0.13122312614930254</v>
+        <v>0.14552966098037221</v>
       </c>
       <c r="V13" s="5">
         <f t="shared" si="3"/>
-        <v>0.12941570926237658</v>
+        <v>0.14475334637892595</v>
       </c>
       <c r="W13" s="5">
         <f t="shared" si="3"/>
-        <v>0.1258989978940227</v>
+        <v>0.14263548607478424</v>
       </c>
       <c r="X13" s="5">
         <f t="shared" si="3"/>
-        <v>0.12408965103418337</v>
+        <v>0.1406885676383087</v>
       </c>
       <c r="Y13" s="5">
         <f t="shared" si="3"/>
-        <v>0.12212098851374867</v>
+        <v>0.1389008055674722</v>
       </c>
       <c r="Z13" s="5">
         <f t="shared" si="3"/>
-        <v>0.12027604038135181</v>
+        <v>0.13775866175851983</v>
       </c>
       <c r="AA13" s="5">
         <f t="shared" si="3"/>
-        <v>0.118414689510876</v>
+        <v>0.13586561410874093</v>
       </c>
       <c r="AB13" s="5">
         <f t="shared" si="3"/>
-        <v>0.11740809301303955</v>
+        <v>0.13487735528180161</v>
       </c>
       <c r="AC13" s="5">
         <f t="shared" si="3"/>
-        <v>0.11628417355551469</v>
+        <v>0.13455250786840786</v>
       </c>
       <c r="AD13" s="5">
         <f t="shared" si="3"/>
-        <v>0.1153627191837029</v>
+        <v>0.13337656704735265</v>
       </c>
       <c r="AE13" s="5">
         <f t="shared" si="3"/>
-        <v>0.11414957716730689</v>
+        <v>0.13315240597245692</v>
       </c>
       <c r="AF13" s="5">
         <f t="shared" si="3"/>
-        <v>0.11360053288853157</v>
+        <v>0.13297949822828375</v>
       </c>
       <c r="AG13" s="5">
         <f t="shared" si="3"/>
-        <v>0.11229069139726079</v>
+        <v>0.13192122379945706</v>
       </c>
       <c r="AH13" s="5">
         <f t="shared" si="3"/>
-        <v>0.11109795776729181</v>
+        <v>0.13132769419615201</v>
       </c>
       <c r="AI13" s="5">
         <f t="shared" si="3"/>
-        <v>0.11090765580264345</v>
-      </c>
-      <c r="AJ13" s="5">
-        <f t="shared" si="3"/>
-        <v>0.10984488220485197</v>
-      </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+        <v>0.13048493111107098</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="5">
-        <f>SUM('AEO Table 59'!C33:C34)/('AEO Table 59'!C32-SUM('AEO Table 59'!C33:C34))</f>
-        <v>0.12936903803004482</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(B$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(B$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(B$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>7.4863816637749048E-2</v>
       </c>
       <c r="C14" s="5">
-        <f>SUM('AEO Table 59'!D33:D34)/('AEO Table 59'!D32-SUM('AEO Table 59'!D33:D34))</f>
-        <v>0.10524202417603652</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(C$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(C$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(C$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>5.586048047216513E-2</v>
       </c>
       <c r="D14" s="5">
-        <f>SUM('AEO Table 59'!E33:E34)/('AEO Table 59'!E32-SUM('AEO Table 59'!E33:E34))</f>
-        <v>0.10162016279517194</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(D$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(D$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(D$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>5.5096709413075234E-2</v>
       </c>
       <c r="E14" s="5">
-        <f>SUM('AEO Table 59'!F33:F34)/('AEO Table 59'!F32-SUM('AEO Table 59'!F33:F34))</f>
-        <v>9.3972767444887223E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(E$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(E$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(E$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>5.0743758452817735E-2</v>
       </c>
       <c r="F14" s="5">
-        <f>SUM('AEO Table 59'!G33:G34)/('AEO Table 59'!G32-SUM('AEO Table 59'!G33:G34))</f>
-        <v>7.3210590183628355E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(F$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(F$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(F$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>5.0922057594765389E-2</v>
       </c>
       <c r="G14" s="5">
-        <f>SUM('AEO Table 59'!H33:H34)/('AEO Table 59'!H32-SUM('AEO Table 59'!H33:H34))</f>
-        <v>6.6669104462370177E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(G$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(G$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(G$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>5.1239424375766791E-2</v>
       </c>
       <c r="H14" s="5">
-        <f>SUM('AEO Table 59'!I33:I34)/('AEO Table 59'!I32-SUM('AEO Table 59'!I33:I34))</f>
-        <v>6.4304786381700826E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(H$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(H$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(H$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>5.0067415121313338E-2</v>
       </c>
       <c r="I14" s="5">
-        <f>SUM('AEO Table 59'!J33:J34)/('AEO Table 59'!J32-SUM('AEO Table 59'!J33:J34))</f>
-        <v>6.2590309566132263E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(I$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(I$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(I$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>4.8875600157156272E-2</v>
       </c>
       <c r="J14" s="5">
-        <f>SUM('AEO Table 59'!K33:K34)/('AEO Table 59'!K32-SUM('AEO Table 59'!K33:K34))</f>
-        <v>6.1061688141291842E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(J$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(J$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(J$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>4.7738820672492341E-2</v>
       </c>
       <c r="K14" s="5">
-        <f>SUM('AEO Table 59'!L33:L34)/('AEO Table 59'!L32-SUM('AEO Table 59'!L33:L34))</f>
-        <v>6.0239389634167514E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(K$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(K$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(K$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>4.636962415022728E-2</v>
       </c>
       <c r="L14" s="5">
-        <f>SUM('AEO Table 59'!M33:M34)/('AEO Table 59'!M32-SUM('AEO Table 59'!M33:M34))</f>
-        <v>5.9614977769765404E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(L$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(L$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(L$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>4.4763814238087916E-2</v>
       </c>
       <c r="M14" s="5">
-        <f>SUM('AEO Table 59'!N33:N34)/('AEO Table 59'!N32-SUM('AEO Table 59'!N33:N34))</f>
-        <v>5.8397685550300164E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(M$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(M$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(M$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>4.3548379244199069E-2</v>
       </c>
       <c r="N14" s="5">
-        <f>SUM('AEO Table 59'!O33:O34)/('AEO Table 59'!O32-SUM('AEO Table 59'!O33:O34))</f>
-        <v>5.7182628329083239E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(N$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(N$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(N$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>4.1666682937630012E-2</v>
       </c>
       <c r="O14" s="5">
-        <f>SUM('AEO Table 59'!P33:P34)/('AEO Table 59'!P32-SUM('AEO Table 59'!P33:P34))</f>
-        <v>5.5523841772598281E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(O$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(O$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(O$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>4.1157320770760987E-2</v>
       </c>
       <c r="P14" s="5">
-        <f>SUM('AEO Table 59'!Q33:Q34)/('AEO Table 59'!Q32-SUM('AEO Table 59'!Q33:Q34))</f>
-        <v>5.4541236506560023E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(P$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(P$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(P$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>4.036207583822423E-2</v>
       </c>
       <c r="Q14" s="5">
-        <f>SUM('AEO Table 59'!R33:R34)/('AEO Table 59'!R32-SUM('AEO Table 59'!R33:R34))</f>
-        <v>5.3082559781158403E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Q$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(Q$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Q$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.9317005393600973E-2</v>
       </c>
       <c r="R14" s="5">
-        <f>SUM('AEO Table 59'!S33:S34)/('AEO Table 59'!S32-SUM('AEO Table 59'!S33:S34))</f>
-        <v>5.2174453040054622E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(R$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(R$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(R$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.8659347930056348E-2</v>
       </c>
       <c r="S14" s="5">
-        <f>SUM('AEO Table 59'!T33:T34)/('AEO Table 59'!T32-SUM('AEO Table 59'!T33:T34))</f>
-        <v>5.1068165396892178E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(S$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(S$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(S$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.814593647353566E-2</v>
       </c>
       <c r="T14" s="5">
-        <f>SUM('AEO Table 59'!U33:U34)/('AEO Table 59'!U32-SUM('AEO Table 59'!U33:U34))</f>
-        <v>5.0095500906311721E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(T$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(T$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(T$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.7423814654039989E-2</v>
       </c>
       <c r="U14" s="5">
-        <f>SUM('AEO Table 59'!V33:V34)/('AEO Table 59'!V32-SUM('AEO Table 59'!V33:V34))</f>
-        <v>4.9448476914476881E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(U$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(U$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(U$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.6631178110715736E-2</v>
       </c>
       <c r="V14" s="5">
-        <f>SUM('AEO Table 59'!W33:W34)/('AEO Table 59'!W32-SUM('AEO Table 59'!W33:W34))</f>
-        <v>4.8791299743183136E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(V$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(V$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(V$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.636478124352973E-2</v>
       </c>
       <c r="W14" s="5">
-        <f>SUM('AEO Table 59'!X33:X34)/('AEO Table 59'!X32-SUM('AEO Table 59'!X33:X34))</f>
-        <v>4.728312738054951E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(W$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(W$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(W$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.5821206729191056E-2</v>
       </c>
       <c r="X14" s="5">
-        <f>SUM('AEO Table 59'!Y33:Y34)/('AEO Table 59'!Y32-SUM('AEO Table 59'!Y33:Y34))</f>
-        <v>4.6611669747288559E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(X$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(X$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(X$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.5315972156788021E-2</v>
       </c>
       <c r="Y14" s="5">
-        <f>SUM('AEO Table 59'!Z33:Z34)/('AEO Table 59'!Z32-SUM('AEO Table 59'!Z33:Z34))</f>
-        <v>4.5883028319156541E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.493944927517123E-2</v>
       </c>
       <c r="Z14" s="5">
-        <f>SUM('AEO Table 59'!AA33:AA34)/('AEO Table 59'!AA32-SUM('AEO Table 59'!AA33:AA34))</f>
-        <v>4.5188844852235927E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.4574847993640266E-2</v>
       </c>
       <c r="AA14" s="5">
-        <f>SUM('AEO Table 59'!AB33:AB34)/('AEO Table 59'!AB32-SUM('AEO Table 59'!AB33:AB34))</f>
-        <v>4.44496847638743E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.4032638327974145E-2</v>
       </c>
       <c r="AB14" s="5">
-        <f>SUM('AEO Table 59'!AC33:AC34)/('AEO Table 59'!AC32-SUM('AEO Table 59'!AC33:AC34))</f>
-        <v>4.4067716092798866E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.3698230596784902E-2</v>
       </c>
       <c r="AC14" s="5">
-        <f>SUM('AEO Table 59'!AD33:AD34)/('AEO Table 59'!AD32-SUM('AEO Table 59'!AD33:AD34))</f>
-        <v>4.3594121390833213E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.3597454104695182E-2</v>
       </c>
       <c r="AD14" s="5">
-        <f>SUM('AEO Table 59'!AE33:AE34)/('AEO Table 59'!AE32-SUM('AEO Table 59'!AE33:AE34))</f>
-        <v>4.317764834210347E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.318928636016423E-2</v>
       </c>
       <c r="AE14" s="5">
-        <f>SUM('AEO Table 59'!AF33:AF34)/('AEO Table 59'!AF32-SUM('AEO Table 59'!AF33:AF34))</f>
-        <v>4.2793353298821502E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.3050018209980825E-2</v>
       </c>
       <c r="AF14" s="5">
-        <f>SUM('AEO Table 59'!AG33:AG34)/('AEO Table 59'!AG32-SUM('AEO Table 59'!AG33:AG34))</f>
-        <v>4.2643274260483754E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.2795845123701269E-2</v>
       </c>
       <c r="AG14" s="5">
-        <f>SUM('AEO Table 59'!AH33:AH34)/('AEO Table 59'!AH32-SUM('AEO Table 59'!AH33:AH34))</f>
-        <v>4.2121178591693953E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.2419096839758174E-2</v>
       </c>
       <c r="AH14" s="5">
-        <f>SUM('AEO Table 59'!AI33:AI34)/('AEO Table 59'!AI32-SUM('AEO Table 59'!AI33:AI34))</f>
-        <v>4.1464919034111758E-2</v>
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AH$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AH$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AH$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.2306907418801725E-2</v>
       </c>
       <c r="AI14" s="5">
-        <f>SUM('AEO Table 59'!AJ33:AJ34)/('AEO Table 59'!AJ32-SUM('AEO Table 59'!AJ33:AJ34))</f>
-        <v>4.1086874496422163E-2</v>
-      </c>
-      <c r="AJ14" s="5">
-        <f>SUM('AEO Table 59'!AK33:AK34)/('AEO Table 59'!AK32-SUM('AEO Table 59'!AK33:AK34))</f>
-        <v>4.0723891867854772E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+        <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AI$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AI$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AI$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
+        <v>3.2155799679429761E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -6400,12 +6269,8 @@
         <f>About!$C$15</f>
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="AJ15">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>51</v>
       </c>
@@ -6511,13 +6376,10 @@
       <c r="AI16">
         <v>0</v>
       </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17">
         <f>About!$C$15</f>
@@ -6652,10 +6514,6 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="AI17">
-        <f>About!$C$15</f>
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="AJ17">
         <f>About!$C$15</f>
         <v>6.8000000000000005E-2</v>
       </c>

--- a/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
+++ b/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Desktop\eps-1.4.2-us-2019\InputData\fuels\BSoFPtiT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\fuels\BSoFPtiT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="22995" windowHeight="10800" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="22995" windowHeight="10800"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t>Source:</t>
   </si>
@@ -113,9 +113,6 @@
     <t>heat</t>
   </si>
   <si>
-    <t>Year</t>
-  </si>
-  <si>
     <t>Petroleum Gasoline, Petroleum Diesel, Jet Fuel</t>
   </si>
   <si>
@@ -321,6 +318,27 @@
   </si>
   <si>
     <t>Modeling System run ref2019.d111618a.  Projections:  EIA, AEO2019 National Energy Modeling System run ref2019.d111618a.</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy fuel oil</t>
+  </si>
+  <si>
+    <t>LPG propane or butane</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Based on AEO Table 59, crude oil and heavy fuel oil (residual oil) do not appear to be taxed.</t>
+  </si>
+  <si>
+    <t>Share of Price That is Tax (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -918,11 +936,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -932,7 +948,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -940,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -955,50 +971,50 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B7" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="7">
         <v>6.8000000000000005E-2</v>
@@ -1006,37 +1022,42 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1053,10 +1074,10 @@
   <dimension ref="A1:AK56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:AM93"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1067,7 +1088,7 @@
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B1" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C1" s="14">
         <v>2017</v>
@@ -1175,10 +1196,10 @@
     <row r="2" spans="1:37" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -1186,23 +1207,23 @@
     </row>
     <row r="4" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -1210,26 +1231,26 @@
     </row>
     <row r="6" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
     </row>
     <row r="10" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B11" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
@@ -1339,7 +1360,7 @@
         <v>2</v>
       </c>
       <c r="AK12" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -1460,7 +1481,7 @@
     </row>
     <row r="16" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>5</v>
@@ -1573,7 +1594,7 @@
     </row>
     <row r="17" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>6</v>
@@ -1686,7 +1707,7 @@
     </row>
     <row r="18" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>7</v>
@@ -1799,7 +1820,7 @@
     </row>
     <row r="19" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>8</v>
@@ -1912,7 +1933,7 @@
     </row>
     <row r="20" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>9</v>
@@ -2025,7 +2046,7 @@
     </row>
     <row r="21" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>10</v>
@@ -2143,7 +2164,7 @@
     </row>
     <row r="24" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>5</v>
@@ -2256,7 +2277,7 @@
     </row>
     <row r="25" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>6</v>
@@ -2369,7 +2390,7 @@
     </row>
     <row r="26" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>12</v>
@@ -2482,7 +2503,7 @@
     </row>
     <row r="27" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>8</v>
@@ -2595,7 +2616,7 @@
     </row>
     <row r="28" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>9</v>
@@ -2708,7 +2729,7 @@
     </row>
     <row r="29" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>10</v>
@@ -2826,7 +2847,7 @@
     </row>
     <row r="32" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>5</v>
@@ -2939,7 +2960,7 @@
     </row>
     <row r="33" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>6</v>
@@ -3052,7 +3073,7 @@
     </row>
     <row r="34" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>7</v>
@@ -3165,7 +3186,7 @@
     </row>
     <row r="35" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>8</v>
@@ -3278,7 +3299,7 @@
     </row>
     <row r="36" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>9</v>
@@ -3391,7 +3412,7 @@
     </row>
     <row r="37" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>10</v>
@@ -3509,7 +3530,7 @@
     </row>
     <row r="40" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>5</v>
@@ -3622,7 +3643,7 @@
     </row>
     <row r="41" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>8</v>
@@ -3735,7 +3756,7 @@
     </row>
     <row r="42" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>9</v>
@@ -3848,7 +3869,7 @@
     </row>
     <row r="43" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>10</v>
@@ -3961,10 +3982,10 @@
     </row>
     <row r="45" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C45" s="9">
         <v>1.3146310000000001</v>
@@ -4074,7 +4095,7 @@
     </row>
     <row r="46" spans="1:37" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>15</v>
@@ -4233,37 +4254,37 @@
     </row>
     <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4280,10 +4301,10 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AI17"/>
+  <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:AI13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4293,7 +4314,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1">
         <v>2017</v>
@@ -4541,7 +4562,7 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3">
         <f>About!$C$15</f>
@@ -5178,7 +5199,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -5711,7 +5732,7 @@
         <v>26</v>
       </c>
       <c r="B12" s="5">
-        <f t="shared" ref="B12:AI12" si="0">B10</f>
+        <f t="shared" ref="B12" si="0">B10</f>
         <v>0.24874108190964744</v>
       </c>
       <c r="C12" s="5">
@@ -5852,7 +5873,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="5">
-        <f t="shared" ref="B13:AI13" si="2">B11</f>
+        <f t="shared" ref="B13" si="2">B11</f>
         <v>0.25329993605370371</v>
       </c>
       <c r="C13" s="5">
@@ -6272,7 +6293,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -6379,7 +6400,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B17">
         <f>About!$C$15</f>
@@ -6514,6 +6535,643 @@
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="AI17">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="T20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="U20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="V20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Y20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AA20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AB20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AC20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AD20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AE20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AF20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AG20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AH20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AI20">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="T21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="U21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="V21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Y21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AA21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AB21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AC21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AD21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AE21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AF21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AG21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AH21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AI21">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="C22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="D22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="F22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="G22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="H22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="K22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="L22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="M22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="N22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="O22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="P22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Q22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="R22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="S22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="T22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="U22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="V22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="W22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="X22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Y22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="Z22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AA22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AB22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AC22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AD22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AE22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AF22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AG22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AH22">
+        <f>About!$C$15</f>
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AI22">
         <f>About!$C$15</f>
         <v>6.8000000000000005E-2</v>
       </c>

--- a/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
+++ b/InputData/fuels/BSoFPtiT/BAU Share of Fuel Price that is Tax.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\United States\Model\InputData\fuels\BSoFPtiT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\fuels\BSoFPtiT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFAE2C3-49C8-43E4-BE49-5A62A346FB59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4341F104-6CFC-4053-8AEE-CF9CB1CE144B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="15" windowWidth="15518" windowHeight="10185" activeTab="2" xr2:uid="{7CF39A5E-DFC7-46A6-BB22-6455CF62E28A}"/>
+    <workbookView xWindow="3450" yWindow="435" windowWidth="23955" windowHeight="16500" xr2:uid="{7CF39A5E-DFC7-46A6-BB22-6455CF62E28A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="AEO Table 59" sheetId="4" r:id="rId2"/>
-    <sheet name="BSoFPtiT" sheetId="3" r:id="rId3"/>
+    <sheet name="BSoFPtiT-carbontax" sheetId="5" r:id="rId3"/>
+    <sheet name="BSoFPtiT-othertaxes" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Source:</t>
   </si>
@@ -335,6 +336,18 @@
   </si>
   <si>
     <t>Modeling System run ref2020.d112119a.  Projections:  EIA, AEO2020 National Energy Modeling System run ref2020.d112119a.</t>
+  </si>
+  <si>
+    <t>Carbon Tax Notes</t>
+  </si>
+  <si>
+    <t>The BAU tax amount must be split between BAU carbon tax and BAU other taxes (such as sales or</t>
+  </si>
+  <si>
+    <t>excise taxes) in regions which possess a BAU carbon tax.  In a region without a BAU carbon tax,</t>
+  </si>
+  <si>
+    <t>the carbon tax blue tab should contain only zeroes.</t>
   </si>
 </sst>
 </file>
@@ -345,7 +358,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +556,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -998,7 +1019,7 @@
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1012,9 +1033,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="13" applyFont="1"/>
@@ -1048,6 +1066,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="56">
     <cellStyle name="20% - Accent1" xfId="32" builtinId="30" customBuiltin="1"/>
@@ -1441,24 +1463,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="79.59765625" customWidth="1"/>
-    <col min="3" max="3" width="18.1328125" customWidth="1"/>
+    <col min="2" max="2" width="79.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,52 +1486,52 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>39</v>
       </c>
@@ -1519,7 +1539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>40</v>
       </c>
@@ -1527,48 +1547,68 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A27" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1590,3470 +1630,3470 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1328125" customWidth="1"/>
-    <col min="2" max="2" width="42.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="12">
         <v>2019</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="12">
         <v>2020</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="12">
         <v>2021</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="12">
         <v>2022</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="12">
         <v>2023</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="12">
         <v>2024</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="12">
         <v>2025</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="12">
         <v>2026</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="12">
         <v>2027</v>
       </c>
-      <c r="L1" s="13">
+      <c r="L1" s="12">
         <v>2028</v>
       </c>
-      <c r="M1" s="13">
+      <c r="M1" s="12">
         <v>2029</v>
       </c>
-      <c r="N1" s="13">
+      <c r="N1" s="12">
         <v>2030</v>
       </c>
-      <c r="O1" s="13">
+      <c r="O1" s="12">
         <v>2031</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="12">
         <v>2032</v>
       </c>
-      <c r="Q1" s="13">
+      <c r="Q1" s="12">
         <v>2033</v>
       </c>
-      <c r="R1" s="13">
+      <c r="R1" s="12">
         <v>2034</v>
       </c>
-      <c r="S1" s="13">
+      <c r="S1" s="12">
         <v>2035</v>
       </c>
-      <c r="T1" s="13">
+      <c r="T1" s="12">
         <v>2036</v>
       </c>
-      <c r="U1" s="13">
+      <c r="U1" s="12">
         <v>2037</v>
       </c>
-      <c r="V1" s="13">
+      <c r="V1" s="12">
         <v>2038</v>
       </c>
-      <c r="W1" s="13">
+      <c r="W1" s="12">
         <v>2039</v>
       </c>
-      <c r="X1" s="13">
+      <c r="X1" s="12">
         <v>2040</v>
       </c>
-      <c r="Y1" s="13">
+      <c r="Y1" s="12">
         <v>2041</v>
       </c>
-      <c r="Z1" s="13">
+      <c r="Z1" s="12">
         <v>2042</v>
       </c>
-      <c r="AA1" s="13">
+      <c r="AA1" s="12">
         <v>2043</v>
       </c>
-      <c r="AB1" s="13">
+      <c r="AB1" s="12">
         <v>2044</v>
       </c>
-      <c r="AC1" s="13">
+      <c r="AC1" s="12">
         <v>2045</v>
       </c>
-      <c r="AD1" s="13">
+      <c r="AD1" s="12">
         <v>2046</v>
       </c>
-      <c r="AE1" s="13">
+      <c r="AE1" s="12">
         <v>2047</v>
       </c>
-      <c r="AF1" s="13">
+      <c r="AF1" s="12">
         <v>2048</v>
       </c>
-      <c r="AG1" s="13">
+      <c r="AG1" s="12">
         <v>2049</v>
       </c>
-      <c r="AH1" s="13">
+      <c r="AH1" s="12">
         <v>2050</v>
       </c>
-      <c r="AI1" s="11"/>
-    </row>
-    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
-      <c r="AE2" s="11"/>
-      <c r="AF2" s="11"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="11"/>
-      <c r="AI2" s="11"/>
-    </row>
-    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="24" t="s">
+      <c r="AI1" s="10"/>
+    </row>
+    <row r="2" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10"/>
+      <c r="AI2" s="10"/>
+    </row>
+    <row r="3" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
-      <c r="AE3" s="11"/>
-      <c r="AF3" s="11"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="11"/>
-      <c r="AI3" s="11"/>
-    </row>
-    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="24" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+    </row>
+    <row r="4" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="11"/>
-      <c r="AG4" s="11"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="11"/>
-    </row>
-    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="24" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="10"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="10"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="10"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="10"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="10"/>
+    </row>
+    <row r="5" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
-      <c r="X5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="11"/>
-      <c r="AA5" s="11"/>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="11"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
-      <c r="AI5" s="11"/>
-    </row>
-    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="24" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+      <c r="AC5" s="10"/>
+      <c r="AD5" s="10"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="10"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="10"/>
+    </row>
+    <row r="6" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24" t="s">
+      <c r="D6" s="23"/>
+      <c r="E6" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="11"/>
-    </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="14" t="s">
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="10"/>
+    </row>
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-      <c r="R10" s="11"/>
-      <c r="S10" s="11"/>
-      <c r="T10" s="11"/>
-      <c r="U10" s="11"/>
-      <c r="V10" s="11"/>
-      <c r="W10" s="11"/>
-      <c r="X10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="11"/>
-      <c r="AB10" s="11"/>
-      <c r="AC10" s="11"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="11"/>
-      <c r="AG10" s="11"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="11"/>
-    </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+    </row>
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="11"/>
-      <c r="T11" s="11"/>
-      <c r="U11" s="11"/>
-      <c r="V11" s="11"/>
-      <c r="W11" s="11"/>
-      <c r="X11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="11"/>
-      <c r="AA11" s="11"/>
-      <c r="AB11" s="11"/>
-      <c r="AC11" s="11"/>
-      <c r="AD11" s="11"/>
-      <c r="AE11" s="11"/>
-      <c r="AF11" s="11"/>
-      <c r="AG11" s="11"/>
-      <c r="AH11" s="11"/>
-      <c r="AI11" s="11"/>
-    </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+    </row>
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="16" t="s">
+      <c r="H12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="K12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="L12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N12" s="16" t="s">
+      <c r="N12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="16" t="s">
+      <c r="O12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P12" s="16" t="s">
+      <c r="P12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Q12" s="16" t="s">
+      <c r="Q12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="R12" s="16" t="s">
+      <c r="R12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="16" t="s">
+      <c r="S12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="T12" s="16" t="s">
+      <c r="T12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U12" s="16" t="s">
+      <c r="U12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="V12" s="16" t="s">
+      <c r="V12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="W12" s="16" t="s">
+      <c r="W12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="X12" s="16" t="s">
+      <c r="X12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Y12" s="16" t="s">
+      <c r="Y12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z12" s="16" t="s">
+      <c r="Z12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AA12" s="16" t="s">
+      <c r="AA12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AB12" s="16" t="s">
+      <c r="AB12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AC12" s="16" t="s">
+      <c r="AC12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AD12" s="16" t="s">
+      <c r="AD12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AE12" s="16" t="s">
+      <c r="AE12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AF12" s="16" t="s">
+      <c r="AF12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AG12" s="16" t="s">
+      <c r="AG12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AH12" s="16" t="s">
+      <c r="AH12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AI12" s="16" t="s">
+      <c r="AI12" s="15" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13" t="s">
+    <row r="13" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="12">
         <v>2019</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>2020</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>2021</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F13" s="12">
         <v>2022</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>2023</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>2024</v>
       </c>
-      <c r="I13" s="13">
+      <c r="I13" s="12">
         <v>2025</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="12">
         <v>2026</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="12">
         <v>2027</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="12">
         <v>2028</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>2029</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="12">
         <v>2030</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="12">
         <v>2031</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="12">
         <v>2032</v>
       </c>
-      <c r="Q13" s="13">
+      <c r="Q13" s="12">
         <v>2033</v>
       </c>
-      <c r="R13" s="13">
+      <c r="R13" s="12">
         <v>2034</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="12">
         <v>2035</v>
       </c>
-      <c r="T13" s="13">
+      <c r="T13" s="12">
         <v>2036</v>
       </c>
-      <c r="U13" s="13">
+      <c r="U13" s="12">
         <v>2037</v>
       </c>
-      <c r="V13" s="13">
+      <c r="V13" s="12">
         <v>2038</v>
       </c>
-      <c r="W13" s="13">
+      <c r="W13" s="12">
         <v>2039</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="12">
         <v>2040</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Y13" s="12">
         <v>2041</v>
       </c>
-      <c r="Z13" s="13">
+      <c r="Z13" s="12">
         <v>2042</v>
       </c>
-      <c r="AA13" s="13">
+      <c r="AA13" s="12">
         <v>2043</v>
       </c>
-      <c r="AB13" s="13">
+      <c r="AB13" s="12">
         <v>2044</v>
       </c>
-      <c r="AC13" s="13">
+      <c r="AC13" s="12">
         <v>2045</v>
       </c>
-      <c r="AD13" s="13">
+      <c r="AD13" s="12">
         <v>2046</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AE13" s="12">
         <v>2047</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="AF13" s="12">
         <v>2048</v>
       </c>
-      <c r="AG13" s="13">
+      <c r="AG13" s="12">
         <v>2049</v>
       </c>
-      <c r="AH13" s="13">
+      <c r="AH13" s="12">
         <v>2050</v>
       </c>
-      <c r="AI13" s="13">
+      <c r="AI13" s="12">
         <v>2050</v>
       </c>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="11"/>
-      <c r="AC14" s="11"/>
-      <c r="AD14" s="11"/>
-      <c r="AE14" s="11"/>
-      <c r="AF14" s="11"/>
-      <c r="AG14" s="11"/>
-      <c r="AH14" s="11"/>
-      <c r="AI14" s="11"/>
-    </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="11"/>
-      <c r="B15" s="17" t="s">
+    <row r="14" spans="1:35" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+    </row>
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
-      <c r="X15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="11"/>
-      <c r="AA15" s="11"/>
-      <c r="AB15" s="11"/>
-      <c r="AC15" s="11"/>
-      <c r="AD15" s="11"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="11"/>
-      <c r="AG15" s="11"/>
-      <c r="AH15" s="11"/>
-      <c r="AI15" s="11"/>
-    </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+    </row>
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <v>3.0399669999999999</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>2.9344049999999999</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>2.9493360000000002</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="18">
         <v>2.9949479999999999</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="18">
         <v>3.0121190000000002</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="18">
         <v>3.0663870000000002</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="18">
         <v>3.0845769999999999</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="18">
         <v>3.1412900000000001</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="18">
         <v>3.1493359999999999</v>
       </c>
-      <c r="L16" s="19">
+      <c r="L16" s="18">
         <v>3.1974529999999999</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="18">
         <v>3.2269950000000001</v>
       </c>
-      <c r="N16" s="19">
+      <c r="N16" s="18">
         <v>3.2938559999999999</v>
       </c>
-      <c r="O16" s="19">
+      <c r="O16" s="18">
         <v>3.3310569999999999</v>
       </c>
-      <c r="P16" s="19">
+      <c r="P16" s="18">
         <v>3.3550689999999999</v>
       </c>
-      <c r="Q16" s="19">
+      <c r="Q16" s="18">
         <v>3.4091459999999998</v>
       </c>
-      <c r="R16" s="19">
+      <c r="R16" s="18">
         <v>3.4365450000000002</v>
       </c>
-      <c r="S16" s="19">
+      <c r="S16" s="18">
         <v>3.4674489999999998</v>
       </c>
-      <c r="T16" s="19">
+      <c r="T16" s="18">
         <v>3.5024649999999999</v>
       </c>
-      <c r="U16" s="19">
+      <c r="U16" s="18">
         <v>3.527104</v>
       </c>
-      <c r="V16" s="19">
+      <c r="V16" s="18">
         <v>3.5561530000000001</v>
       </c>
-      <c r="W16" s="19">
+      <c r="W16" s="18">
         <v>3.5872730000000002</v>
       </c>
-      <c r="X16" s="19">
+      <c r="X16" s="18">
         <v>3.5866609999999999</v>
       </c>
-      <c r="Y16" s="19">
+      <c r="Y16" s="18">
         <v>3.6097619999999999</v>
       </c>
-      <c r="Z16" s="19">
+      <c r="Z16" s="18">
         <v>3.662671</v>
       </c>
-      <c r="AA16" s="19">
+      <c r="AA16" s="18">
         <v>3.6861480000000002</v>
       </c>
-      <c r="AB16" s="19">
+      <c r="AB16" s="18">
         <v>3.7137150000000001</v>
       </c>
-      <c r="AC16" s="19">
+      <c r="AC16" s="18">
         <v>3.7645810000000002</v>
       </c>
-      <c r="AD16" s="19">
+      <c r="AD16" s="18">
         <v>3.7666650000000002</v>
       </c>
-      <c r="AE16" s="19">
+      <c r="AE16" s="18">
         <v>3.8030430000000002</v>
       </c>
-      <c r="AF16" s="19">
+      <c r="AF16" s="18">
         <v>3.8359009999999998</v>
       </c>
-      <c r="AG16" s="19">
+      <c r="AG16" s="18">
         <v>3.8594680000000001</v>
       </c>
-      <c r="AH16" s="19">
+      <c r="AH16" s="18">
         <v>3.8806039999999999</v>
       </c>
-      <c r="AI16" s="20">
+      <c r="AI16" s="19">
         <v>7.9070000000000008E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="14" t="s">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="18">
         <v>0.241841</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>0.236072</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="18">
         <v>0.23036100000000001</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <v>0.22468099999999999</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="18">
         <v>0.21934100000000001</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="18">
         <v>0.214445</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="18">
         <v>0.20968000000000001</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="18">
         <v>0.20488899999999999</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="18">
         <v>0.20011200000000001</v>
       </c>
-      <c r="L17" s="19">
+      <c r="L17" s="18">
         <v>0.19541</v>
       </c>
-      <c r="M17" s="19">
+      <c r="M17" s="18">
         <v>0.19083700000000001</v>
       </c>
-      <c r="N17" s="19">
+      <c r="N17" s="18">
         <v>0.18646399999999999</v>
       </c>
-      <c r="O17" s="19">
+      <c r="O17" s="18">
         <v>0.18235599999999999</v>
       </c>
-      <c r="P17" s="19">
+      <c r="P17" s="18">
         <v>0.178392</v>
       </c>
-      <c r="Q17" s="19">
+      <c r="Q17" s="18">
         <v>0.17453199999999999</v>
       </c>
-      <c r="R17" s="19">
+      <c r="R17" s="18">
         <v>0.17081499999999999</v>
       </c>
-      <c r="S17" s="19">
+      <c r="S17" s="18">
         <v>0.16718</v>
       </c>
-      <c r="T17" s="19">
+      <c r="T17" s="18">
         <v>0.163572</v>
       </c>
-      <c r="U17" s="19">
+      <c r="U17" s="18">
         <v>0.160054</v>
       </c>
-      <c r="V17" s="19">
+      <c r="V17" s="18">
         <v>0.15651799999999999</v>
       </c>
-      <c r="W17" s="19">
+      <c r="W17" s="18">
         <v>0.153115</v>
       </c>
-      <c r="X17" s="19">
+      <c r="X17" s="18">
         <v>0.14973400000000001</v>
       </c>
-      <c r="Y17" s="19">
+      <c r="Y17" s="18">
         <v>0.146423</v>
       </c>
-      <c r="Z17" s="19">
+      <c r="Z17" s="18">
         <v>0.14314199999999999</v>
       </c>
-      <c r="AA17" s="19">
+      <c r="AA17" s="18">
         <v>0.13997200000000001</v>
       </c>
-      <c r="AB17" s="19">
+      <c r="AB17" s="18">
         <v>0.136738</v>
       </c>
-      <c r="AC17" s="19">
+      <c r="AC17" s="18">
         <v>0.133577</v>
       </c>
-      <c r="AD17" s="19">
+      <c r="AD17" s="18">
         <v>0.13047300000000001</v>
       </c>
-      <c r="AE17" s="19">
+      <c r="AE17" s="18">
         <v>0.12743199999999999</v>
       </c>
-      <c r="AF17" s="19">
+      <c r="AF17" s="18">
         <v>0.12438299999999999</v>
       </c>
-      <c r="AG17" s="19">
+      <c r="AG17" s="18">
         <v>0.121369</v>
       </c>
-      <c r="AH17" s="19">
+      <c r="AH17" s="18">
         <v>0.118451</v>
       </c>
-      <c r="AI17" s="20">
+      <c r="AI17" s="19">
         <v>-2.2762000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>0.34922799999999998</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>0.349213</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="18">
         <v>0.352269</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <v>0.35440300000000002</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <v>0.35371599999999997</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="18">
         <v>0.35350500000000001</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="18">
         <v>0.35338999999999998</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="18">
         <v>0.35352</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="18">
         <v>0.35360799999999998</v>
       </c>
-      <c r="L18" s="19">
+      <c r="L18" s="18">
         <v>0.35381600000000002</v>
       </c>
-      <c r="M18" s="19">
+      <c r="M18" s="18">
         <v>0.35378900000000002</v>
       </c>
-      <c r="N18" s="19">
+      <c r="N18" s="18">
         <v>0.35377199999999998</v>
       </c>
-      <c r="O18" s="19">
+      <c r="O18" s="18">
         <v>0.35384199999999999</v>
       </c>
-      <c r="P18" s="19">
+      <c r="P18" s="18">
         <v>0.353827</v>
       </c>
-      <c r="Q18" s="19">
+      <c r="Q18" s="18">
         <v>0.35381400000000002</v>
       </c>
-      <c r="R18" s="19">
+      <c r="R18" s="18">
         <v>0.35378500000000002</v>
       </c>
-      <c r="S18" s="19">
+      <c r="S18" s="18">
         <v>0.35383500000000001</v>
       </c>
-      <c r="T18" s="19">
+      <c r="T18" s="18">
         <v>0.35396899999999998</v>
       </c>
-      <c r="U18" s="19">
+      <c r="U18" s="18">
         <v>0.35411399999999998</v>
       </c>
-      <c r="V18" s="19">
+      <c r="V18" s="18">
         <v>0.35413099999999997</v>
       </c>
-      <c r="W18" s="19">
+      <c r="W18" s="18">
         <v>0.35425600000000002</v>
       </c>
-      <c r="X18" s="19">
+      <c r="X18" s="18">
         <v>0.35418300000000003</v>
       </c>
-      <c r="Y18" s="19">
+      <c r="Y18" s="18">
         <v>0.35419600000000001</v>
       </c>
-      <c r="Z18" s="19">
+      <c r="Z18" s="18">
         <v>0.35428300000000001</v>
       </c>
-      <c r="AA18" s="19">
+      <c r="AA18" s="18">
         <v>0.35444599999999998</v>
       </c>
-      <c r="AB18" s="19">
+      <c r="AB18" s="18">
         <v>0.35439700000000002</v>
       </c>
-      <c r="AC18" s="19">
+      <c r="AC18" s="18">
         <v>0.35446800000000001</v>
       </c>
-      <c r="AD18" s="19">
+      <c r="AD18" s="18">
         <v>0.35448299999999999</v>
       </c>
-      <c r="AE18" s="19">
+      <c r="AE18" s="18">
         <v>0.354709</v>
       </c>
-      <c r="AF18" s="19">
+      <c r="AF18" s="18">
         <v>0.35484599999999999</v>
       </c>
-      <c r="AG18" s="19">
+      <c r="AG18" s="18">
         <v>0.35492099999999999</v>
       </c>
-      <c r="AH18" s="19">
+      <c r="AH18" s="18">
         <v>0.354931</v>
       </c>
-      <c r="AI18" s="20">
+      <c r="AI18" s="19">
         <v>5.2300000000000003E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="14" t="s">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="18">
         <v>1.0721E-2</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="18">
         <v>1.1242E-2</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="18">
         <v>1.172E-2</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="18">
         <v>1.2029E-2</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="18">
         <v>1.1764E-2</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="18">
         <v>1.1653E-2</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="18">
         <v>1.1585E-2</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="18">
         <v>1.1594999999999999E-2</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="18">
         <v>1.1575E-2</v>
       </c>
-      <c r="L19" s="19">
+      <c r="L19" s="18">
         <v>1.1604E-2</v>
       </c>
-      <c r="M19" s="19">
+      <c r="M19" s="18">
         <v>1.1560000000000001E-2</v>
       </c>
-      <c r="N19" s="19">
+      <c r="N19" s="18">
         <v>5.2753000000000001E-2</v>
       </c>
-      <c r="O19" s="19">
+      <c r="O19" s="18">
         <v>5.2711000000000001E-2</v>
       </c>
-      <c r="P19" s="19">
+      <c r="P19" s="18">
         <v>5.2644999999999997E-2</v>
       </c>
-      <c r="Q19" s="19">
+      <c r="Q19" s="18">
         <v>5.8391999999999999E-2</v>
       </c>
-      <c r="R19" s="19">
+      <c r="R19" s="18">
         <v>5.8333000000000003E-2</v>
       </c>
-      <c r="S19" s="19">
+      <c r="S19" s="18">
         <v>5.8340999999999997E-2</v>
       </c>
-      <c r="T19" s="19">
+      <c r="T19" s="18">
         <v>5.8587E-2</v>
       </c>
-      <c r="U19" s="19">
+      <c r="U19" s="18">
         <v>5.8647999999999999E-2</v>
       </c>
-      <c r="V19" s="19">
+      <c r="V19" s="18">
         <v>5.8769000000000002E-2</v>
       </c>
-      <c r="W19" s="19">
+      <c r="W19" s="18">
         <v>5.8872000000000001E-2</v>
       </c>
-      <c r="X19" s="19">
+      <c r="X19" s="18">
         <v>5.8927E-2</v>
       </c>
-      <c r="Y19" s="19">
+      <c r="Y19" s="18">
         <v>5.8991000000000002E-2</v>
       </c>
-      <c r="Z19" s="19">
+      <c r="Z19" s="18">
         <v>5.9198000000000001E-2</v>
       </c>
-      <c r="AA19" s="19">
+      <c r="AA19" s="18">
         <v>5.9381999999999997E-2</v>
       </c>
-      <c r="AB19" s="19">
+      <c r="AB19" s="18">
         <v>5.9544E-2</v>
       </c>
-      <c r="AC19" s="19">
+      <c r="AC19" s="18">
         <v>5.9729999999999998E-2</v>
       </c>
-      <c r="AD19" s="19">
+      <c r="AD19" s="18">
         <v>5.9951999999999998E-2</v>
       </c>
-      <c r="AE19" s="19">
+      <c r="AE19" s="18">
         <v>6.0282000000000002E-2</v>
       </c>
-      <c r="AF19" s="19">
+      <c r="AF19" s="18">
         <v>6.0565000000000001E-2</v>
       </c>
-      <c r="AG19" s="19">
+      <c r="AG19" s="18">
         <v>6.0838000000000003E-2</v>
       </c>
-      <c r="AH19" s="19">
+      <c r="AH19" s="18">
         <v>6.1107000000000002E-2</v>
       </c>
-      <c r="AI19" s="20">
+      <c r="AI19" s="19">
         <v>5.7747E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="18">
         <v>0.45923000000000003</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="18">
         <v>0.45921000000000001</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="18">
         <v>0.46189999999999998</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="18">
         <v>0.46362399999999998</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="18">
         <v>0.46290599999999998</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="18">
         <v>0.46270899999999998</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="18">
         <v>0.462615</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="18">
         <v>0.46277800000000002</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="18">
         <v>0.46285500000000002</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="18">
         <v>0.46306900000000001</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="18">
         <v>0.46302500000000002</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="18">
         <v>0.46295500000000001</v>
       </c>
-      <c r="O20" s="19">
+      <c r="O20" s="18">
         <v>0.463028</v>
       </c>
-      <c r="P20" s="19">
+      <c r="P20" s="18">
         <v>0.46301799999999999</v>
       </c>
-      <c r="Q20" s="19">
+      <c r="Q20" s="18">
         <v>0.46301599999999998</v>
       </c>
-      <c r="R20" s="19">
+      <c r="R20" s="18">
         <v>0.463009</v>
       </c>
-      <c r="S20" s="19">
+      <c r="S20" s="18">
         <v>0.46307900000000002</v>
       </c>
-      <c r="T20" s="19">
+      <c r="T20" s="18">
         <v>0.46323999999999999</v>
       </c>
-      <c r="U20" s="19">
+      <c r="U20" s="18">
         <v>0.46342100000000003</v>
       </c>
-      <c r="V20" s="19">
+      <c r="V20" s="18">
         <v>0.46343699999999999</v>
       </c>
-      <c r="W20" s="19">
+      <c r="W20" s="18">
         <v>0.46359099999999998</v>
       </c>
-      <c r="X20" s="19">
+      <c r="X20" s="18">
         <v>0.46351799999999999</v>
       </c>
-      <c r="Y20" s="19">
+      <c r="Y20" s="18">
         <v>0.46356000000000003</v>
       </c>
-      <c r="Z20" s="19">
+      <c r="Z20" s="18">
         <v>0.46368399999999999</v>
       </c>
-      <c r="AA20" s="19">
+      <c r="AA20" s="18">
         <v>0.46391399999999999</v>
       </c>
-      <c r="AB20" s="19">
+      <c r="AB20" s="18">
         <v>0.46387099999999998</v>
       </c>
-      <c r="AC20" s="19">
+      <c r="AC20" s="18">
         <v>0.46397300000000002</v>
       </c>
-      <c r="AD20" s="19">
+      <c r="AD20" s="18">
         <v>0.46402700000000002</v>
       </c>
-      <c r="AE20" s="19">
+      <c r="AE20" s="18">
         <v>0.46432899999999999</v>
       </c>
-      <c r="AF20" s="19">
+      <c r="AF20" s="18">
         <v>0.46451700000000001</v>
       </c>
-      <c r="AG20" s="19">
+      <c r="AG20" s="18">
         <v>0.46462900000000001</v>
       </c>
-      <c r="AH20" s="19">
+      <c r="AH20" s="18">
         <v>0.46466200000000002</v>
       </c>
-      <c r="AI20" s="20">
+      <c r="AI20" s="19">
         <v>3.79E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="18">
         <v>1.9789460000000001</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="18">
         <v>1.878668</v>
       </c>
-      <c r="E21" s="19">
+      <c r="E21" s="18">
         <v>1.893087</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="18">
         <v>1.9402109999999999</v>
       </c>
-      <c r="G21" s="19">
+      <c r="G21" s="18">
         <v>1.9643919999999999</v>
       </c>
-      <c r="H21" s="19">
+      <c r="H21" s="18">
         <v>2.024076</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I21" s="18">
         <v>2.0473059999999998</v>
       </c>
-      <c r="J21" s="19">
+      <c r="J21" s="18">
         <v>2.1085069999999999</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="18">
         <v>2.1211869999999999</v>
       </c>
-      <c r="L21" s="19">
+      <c r="L21" s="18">
         <v>2.1735540000000002</v>
       </c>
-      <c r="M21" s="19">
+      <c r="M21" s="18">
         <v>2.2077840000000002</v>
       </c>
-      <c r="N21" s="19">
+      <c r="N21" s="18">
         <v>2.237911</v>
       </c>
-      <c r="O21" s="19">
+      <c r="O21" s="18">
         <v>2.2791199999999998</v>
       </c>
-      <c r="P21" s="19">
+      <c r="P21" s="18">
         <v>2.3071869999999999</v>
       </c>
-      <c r="Q21" s="19">
+      <c r="Q21" s="18">
         <v>2.359391</v>
       </c>
-      <c r="R21" s="19">
+      <c r="R21" s="18">
         <v>2.390603</v>
       </c>
-      <c r="S21" s="19">
+      <c r="S21" s="18">
         <v>2.4250129999999999</v>
       </c>
-      <c r="T21" s="19">
+      <c r="T21" s="18">
         <v>2.463098</v>
       </c>
-      <c r="U21" s="19">
+      <c r="U21" s="18">
         <v>2.4908670000000002</v>
       </c>
-      <c r="V21" s="19">
+      <c r="V21" s="18">
         <v>2.5232990000000002</v>
       </c>
-      <c r="W21" s="19">
+      <c r="W21" s="18">
         <v>2.5574379999999999</v>
       </c>
-      <c r="X21" s="19">
+      <c r="X21" s="18">
         <v>2.5602999999999998</v>
       </c>
-      <c r="Y21" s="19">
+      <c r="Y21" s="18">
         <v>2.586592</v>
       </c>
-      <c r="Z21" s="19">
+      <c r="Z21" s="18">
         <v>2.6423649999999999</v>
       </c>
-      <c r="AA21" s="19">
+      <c r="AA21" s="18">
         <v>2.668434</v>
       </c>
-      <c r="AB21" s="19">
+      <c r="AB21" s="18">
         <v>2.699166</v>
       </c>
-      <c r="AC21" s="19">
+      <c r="AC21" s="18">
         <v>2.752834</v>
       </c>
-      <c r="AD21" s="19">
+      <c r="AD21" s="18">
         <v>2.7577310000000002</v>
       </c>
-      <c r="AE21" s="19">
+      <c r="AE21" s="18">
         <v>2.7962920000000002</v>
       </c>
-      <c r="AF21" s="19">
+      <c r="AF21" s="18">
         <v>2.8315899999999998</v>
       </c>
-      <c r="AG21" s="19">
+      <c r="AG21" s="18">
         <v>2.8577110000000001</v>
       </c>
-      <c r="AH21" s="19">
+      <c r="AH21" s="18">
         <v>2.881453</v>
       </c>
-      <c r="AI21" s="20">
+      <c r="AI21" s="19">
         <v>1.2194E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="11"/>
-      <c r="B23" s="17" t="s">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
-      <c r="AH23" s="11"/>
-      <c r="AI23" s="11"/>
-    </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="14" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="10"/>
+    </row>
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="18">
         <v>2.6656010000000001</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>2.6399789999999999</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="18">
         <v>2.6431900000000002</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="18">
         <v>2.6441300000000001</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="18">
         <v>2.633867</v>
       </c>
-      <c r="H24" s="19">
+      <c r="H24" s="18">
         <v>2.5992510000000002</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="18">
         <v>2.6286719999999999</v>
       </c>
-      <c r="J24" s="19">
+      <c r="J24" s="18">
         <v>2.650331</v>
       </c>
-      <c r="K24" s="19">
+      <c r="K24" s="18">
         <v>2.682016</v>
       </c>
-      <c r="L24" s="19">
+      <c r="L24" s="18">
         <v>2.6949529999999999</v>
       </c>
-      <c r="M24" s="19">
+      <c r="M24" s="18">
         <v>2.7298939999999998</v>
       </c>
-      <c r="N24" s="19">
+      <c r="N24" s="18">
         <v>2.8137409999999998</v>
       </c>
-      <c r="O24" s="19">
+      <c r="O24" s="18">
         <v>2.8327450000000001</v>
       </c>
-      <c r="P24" s="19">
+      <c r="P24" s="18">
         <v>2.8571800000000001</v>
       </c>
-      <c r="Q24" s="19">
+      <c r="Q24" s="18">
         <v>2.907378</v>
       </c>
-      <c r="R24" s="19">
+      <c r="R24" s="18">
         <v>2.9532949999999998</v>
       </c>
-      <c r="S24" s="19">
+      <c r="S24" s="18">
         <v>2.9834559999999999</v>
       </c>
-      <c r="T24" s="19">
+      <c r="T24" s="18">
         <v>3.0186090000000001</v>
       </c>
-      <c r="U24" s="19">
+      <c r="U24" s="18">
         <v>3.0274169999999998</v>
       </c>
-      <c r="V24" s="19">
+      <c r="V24" s="18">
         <v>3.060073</v>
       </c>
-      <c r="W24" s="19">
+      <c r="W24" s="18">
         <v>3.1005470000000002</v>
       </c>
-      <c r="X24" s="19">
+      <c r="X24" s="18">
         <v>3.11111</v>
       </c>
-      <c r="Y24" s="19">
+      <c r="Y24" s="18">
         <v>3.1328849999999999</v>
       </c>
-      <c r="Z24" s="19">
+      <c r="Z24" s="18">
         <v>3.1807620000000001</v>
       </c>
-      <c r="AA24" s="19">
+      <c r="AA24" s="18">
         <v>3.2061389999999999</v>
       </c>
-      <c r="AB24" s="19">
+      <c r="AB24" s="18">
         <v>3.230979</v>
       </c>
-      <c r="AC24" s="19">
+      <c r="AC24" s="18">
         <v>3.2721650000000002</v>
       </c>
-      <c r="AD24" s="19">
+      <c r="AD24" s="18">
         <v>3.2819690000000001</v>
       </c>
-      <c r="AE24" s="19">
+      <c r="AE24" s="18">
         <v>3.338524</v>
       </c>
-      <c r="AF24" s="19">
+      <c r="AF24" s="18">
         <v>3.3765939999999999</v>
       </c>
-      <c r="AG24" s="19">
+      <c r="AG24" s="18">
         <v>3.405497</v>
       </c>
-      <c r="AH24" s="19">
+      <c r="AH24" s="18">
         <v>3.430088</v>
       </c>
-      <c r="AI24" s="20">
+      <c r="AI24" s="19">
         <v>8.1670000000000006E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="14" t="s">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="18">
         <v>0.18388599999999999</v>
       </c>
-      <c r="D25" s="19">
+      <c r="D25" s="18">
         <v>0.17949599999999999</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="18">
         <v>0.17517199999999999</v>
       </c>
-      <c r="F25" s="19">
+      <c r="F25" s="18">
         <v>0.17091100000000001</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="18">
         <v>0.16687199999999999</v>
       </c>
-      <c r="H25" s="19">
+      <c r="H25" s="18">
         <v>0.16323499999999999</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I25" s="18">
         <v>0.15967200000000001</v>
       </c>
-      <c r="J25" s="19">
+      <c r="J25" s="18">
         <v>0.155976</v>
       </c>
-      <c r="K25" s="19">
+      <c r="K25" s="18">
         <v>0.15229400000000001</v>
       </c>
-      <c r="L25" s="19">
+      <c r="L25" s="18">
         <v>0.14871999999999999</v>
       </c>
-      <c r="M25" s="19">
+      <c r="M25" s="18">
         <v>0.14521999999999999</v>
       </c>
-      <c r="N25" s="19">
+      <c r="N25" s="18">
         <v>0.141877</v>
       </c>
-      <c r="O25" s="19">
+      <c r="O25" s="18">
         <v>0.138735</v>
       </c>
-      <c r="P25" s="19">
+      <c r="P25" s="18">
         <v>0.13569400000000001</v>
       </c>
-      <c r="Q25" s="19">
+      <c r="Q25" s="18">
         <v>0.13272400000000001</v>
       </c>
-      <c r="R25" s="19">
+      <c r="R25" s="18">
         <v>0.12989800000000001</v>
       </c>
-      <c r="S25" s="19">
+      <c r="S25" s="18">
         <v>0.12709999999999999</v>
       </c>
-      <c r="T25" s="19">
+      <c r="T25" s="18">
         <v>0.12436800000000001</v>
       </c>
-      <c r="U25" s="19">
+      <c r="U25" s="18">
         <v>0.121668</v>
       </c>
-      <c r="V25" s="19">
+      <c r="V25" s="18">
         <v>0.119008</v>
       </c>
-      <c r="W25" s="19">
+      <c r="W25" s="18">
         <v>0.116407</v>
       </c>
-      <c r="X25" s="19">
+      <c r="X25" s="18">
         <v>0.11386400000000001</v>
       </c>
-      <c r="Y25" s="19">
+      <c r="Y25" s="18">
         <v>0.111348</v>
       </c>
-      <c r="Z25" s="19">
+      <c r="Z25" s="18">
         <v>0.108878</v>
       </c>
-      <c r="AA25" s="19">
+      <c r="AA25" s="18">
         <v>0.106437</v>
       </c>
-      <c r="AB25" s="19">
+      <c r="AB25" s="18">
         <v>0.104045</v>
       </c>
-      <c r="AC25" s="19">
+      <c r="AC25" s="18">
         <v>0.101673</v>
       </c>
-      <c r="AD25" s="19">
+      <c r="AD25" s="18">
         <v>9.9340999999999999E-2</v>
       </c>
-      <c r="AE25" s="19">
+      <c r="AE25" s="18">
         <v>9.7019999999999995E-2</v>
       </c>
-      <c r="AF25" s="19">
+      <c r="AF25" s="18">
         <v>9.4728000000000007E-2</v>
       </c>
-      <c r="AG25" s="19">
+      <c r="AG25" s="18">
         <v>9.2473E-2</v>
       </c>
-      <c r="AH25" s="19">
+      <c r="AH25" s="18">
         <v>9.0249999999999997E-2</v>
       </c>
-      <c r="AI25" s="20">
+      <c r="AI25" s="19">
         <v>-2.2697999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="14" t="s">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="18">
         <v>0.36077300000000001</v>
       </c>
-      <c r="D26" s="19">
+      <c r="D26" s="18">
         <v>0.360487</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="18">
         <v>0.36016599999999999</v>
       </c>
-      <c r="F26" s="19">
+      <c r="F26" s="18">
         <v>0.35971700000000001</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="18">
         <v>0.35897200000000001</v>
       </c>
-      <c r="H26" s="19">
+      <c r="H26" s="18">
         <v>0.35766900000000001</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="18">
         <v>0.35686800000000002</v>
       </c>
-      <c r="J26" s="19">
+      <c r="J26" s="18">
         <v>0.35646600000000001</v>
       </c>
-      <c r="K26" s="19">
+      <c r="K26" s="18">
         <v>0.356242</v>
       </c>
-      <c r="L26" s="19">
+      <c r="L26" s="18">
         <v>0.35585899999999998</v>
       </c>
-      <c r="M26" s="19">
+      <c r="M26" s="18">
         <v>0.35565799999999997</v>
       </c>
-      <c r="N26" s="19">
+      <c r="N26" s="18">
         <v>0.355466</v>
       </c>
-      <c r="O26" s="19">
+      <c r="O26" s="18">
         <v>0.35510599999999998</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="18">
         <v>0.35477500000000001</v>
       </c>
-      <c r="Q26" s="19">
+      <c r="Q26" s="18">
         <v>0.35464099999999998</v>
       </c>
-      <c r="R26" s="19">
+      <c r="R26" s="18">
         <v>0.35454000000000002</v>
       </c>
-      <c r="S26" s="19">
+      <c r="S26" s="18">
         <v>0.35423399999999999</v>
       </c>
-      <c r="T26" s="19">
+      <c r="T26" s="18">
         <v>0.35435499999999998</v>
       </c>
-      <c r="U26" s="19">
+      <c r="U26" s="18">
         <v>0.35418300000000003</v>
       </c>
-      <c r="V26" s="19">
+      <c r="V26" s="18">
         <v>0.35424800000000001</v>
       </c>
-      <c r="W26" s="19">
+      <c r="W26" s="18">
         <v>0.35441899999999998</v>
       </c>
-      <c r="X26" s="19">
+      <c r="X26" s="18">
         <v>0.35428300000000001</v>
       </c>
-      <c r="Y26" s="19">
+      <c r="Y26" s="18">
         <v>0.35426099999999999</v>
       </c>
-      <c r="Z26" s="19">
+      <c r="Z26" s="18">
         <v>0.35450599999999999</v>
       </c>
-      <c r="AA26" s="19">
+      <c r="AA26" s="18">
         <v>0.35452400000000001</v>
       </c>
-      <c r="AB26" s="19">
+      <c r="AB26" s="18">
         <v>0.35455399999999998</v>
       </c>
-      <c r="AC26" s="19">
+      <c r="AC26" s="18">
         <v>0.35473500000000002</v>
       </c>
-      <c r="AD26" s="19">
+      <c r="AD26" s="18">
         <v>0.35460000000000003</v>
       </c>
-      <c r="AE26" s="19">
+      <c r="AE26" s="18">
         <v>0.35494300000000001</v>
       </c>
-      <c r="AF26" s="19">
+      <c r="AF26" s="18">
         <v>0.35508499999999998</v>
       </c>
-      <c r="AG26" s="19">
+      <c r="AG26" s="18">
         <v>0.355157</v>
       </c>
-      <c r="AH26" s="19">
+      <c r="AH26" s="18">
         <v>0.35515099999999999</v>
       </c>
-      <c r="AI26" s="20">
+      <c r="AI26" s="19">
         <v>-5.0699999999999996E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="14" t="s">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="18">
         <v>1.2562E-2</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D27" s="18">
         <v>1.3194000000000001E-2</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E27" s="18">
         <v>1.3109000000000001E-2</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="18">
         <v>1.299E-2</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="18">
         <v>1.2782E-2</v>
       </c>
-      <c r="H27" s="19">
+      <c r="H27" s="18">
         <v>1.2429000000000001E-2</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="18">
         <v>1.2034E-2</v>
       </c>
-      <c r="J27" s="19">
+      <c r="J27" s="18">
         <v>1.1851E-2</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="18">
         <v>1.17E-2</v>
       </c>
-      <c r="L27" s="19">
+      <c r="L27" s="18">
         <v>1.1556E-2</v>
       </c>
-      <c r="M27" s="19">
+      <c r="M27" s="18">
         <v>1.1409000000000001E-2</v>
       </c>
-      <c r="N27" s="19">
+      <c r="N27" s="18">
         <v>5.144E-2</v>
       </c>
-      <c r="O27" s="19">
+      <c r="O27" s="18">
         <v>5.0772999999999999E-2</v>
       </c>
-      <c r="P27" s="19">
+      <c r="P27" s="18">
         <v>5.0069000000000002E-2</v>
       </c>
-      <c r="Q27" s="19">
+      <c r="Q27" s="18">
         <v>5.4857000000000003E-2</v>
       </c>
-      <c r="R27" s="19">
+      <c r="R27" s="18">
         <v>5.4107000000000002E-2</v>
       </c>
-      <c r="S27" s="19">
+      <c r="S27" s="18">
         <v>5.3328E-2</v>
       </c>
-      <c r="T27" s="19">
+      <c r="T27" s="18">
         <v>5.3282999999999997E-2</v>
       </c>
-      <c r="U27" s="19">
+      <c r="U27" s="18">
         <v>5.3226000000000002E-2</v>
       </c>
-      <c r="V27" s="19">
+      <c r="V27" s="18">
         <v>5.3178000000000003E-2</v>
       </c>
-      <c r="W27" s="19">
+      <c r="W27" s="18">
         <v>5.3165999999999998E-2</v>
       </c>
-      <c r="X27" s="19">
+      <c r="X27" s="18">
         <v>5.3152999999999999E-2</v>
       </c>
-      <c r="Y27" s="19">
+      <c r="Y27" s="18">
         <v>5.3124999999999999E-2</v>
       </c>
-      <c r="Z27" s="19">
+      <c r="Z27" s="18">
         <v>5.3104999999999999E-2</v>
       </c>
-      <c r="AA27" s="19">
+      <c r="AA27" s="18">
         <v>5.3092E-2</v>
       </c>
-      <c r="AB27" s="19">
+      <c r="AB27" s="18">
         <v>5.3109999999999997E-2</v>
       </c>
-      <c r="AC27" s="19">
+      <c r="AC27" s="18">
         <v>5.3116999999999998E-2</v>
       </c>
-      <c r="AD27" s="19">
+      <c r="AD27" s="18">
         <v>5.3130999999999998E-2</v>
       </c>
-      <c r="AE27" s="19">
+      <c r="AE27" s="18">
         <v>5.3180999999999999E-2</v>
       </c>
-      <c r="AF27" s="19">
+      <c r="AF27" s="18">
         <v>5.3196E-2</v>
       </c>
-      <c r="AG27" s="19">
+      <c r="AG27" s="18">
         <v>5.3247000000000003E-2</v>
       </c>
-      <c r="AH27" s="19">
+      <c r="AH27" s="18">
         <v>5.3221999999999998E-2</v>
       </c>
-      <c r="AI27" s="20">
+      <c r="AI27" s="19">
         <v>4.7676000000000003E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="18">
         <v>0.27744099999999999</v>
       </c>
-      <c r="D28" s="19">
+      <c r="D28" s="18">
         <v>0.27742800000000001</v>
       </c>
-      <c r="E28" s="19">
+      <c r="E28" s="18">
         <v>0.27726400000000001</v>
       </c>
-      <c r="F28" s="19">
+      <c r="F28" s="18">
         <v>0.27699099999999999</v>
       </c>
-      <c r="G28" s="19">
+      <c r="G28" s="18">
         <v>0.27649699999999999</v>
       </c>
-      <c r="H28" s="19">
+      <c r="H28" s="18">
         <v>0.27569199999999999</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="18">
         <v>0.27477800000000002</v>
       </c>
-      <c r="J28" s="19">
+      <c r="J28" s="18">
         <v>0.27430500000000002</v>
       </c>
-      <c r="K28" s="19">
+      <c r="K28" s="18">
         <v>0.27390399999999998</v>
       </c>
-      <c r="L28" s="19">
+      <c r="L28" s="18">
         <v>0.27351999999999999</v>
       </c>
-      <c r="M28" s="19">
+      <c r="M28" s="18">
         <v>0.27312399999999998</v>
       </c>
-      <c r="N28" s="19">
+      <c r="N28" s="18">
         <v>0.27265899999999998</v>
       </c>
-      <c r="O28" s="19">
+      <c r="O28" s="18">
         <v>0.272258</v>
       </c>
-      <c r="P28" s="19">
+      <c r="P28" s="18">
         <v>0.271839</v>
       </c>
-      <c r="Q28" s="19">
+      <c r="Q28" s="18">
         <v>0.27142100000000002</v>
       </c>
-      <c r="R28" s="19">
+      <c r="R28" s="18">
         <v>0.271013</v>
       </c>
-      <c r="S28" s="19">
+      <c r="S28" s="18">
         <v>0.27057900000000001</v>
       </c>
-      <c r="T28" s="19">
+      <c r="T28" s="18">
         <v>0.27049200000000001</v>
       </c>
-      <c r="U28" s="19">
+      <c r="U28" s="18">
         <v>0.27039000000000002</v>
       </c>
-      <c r="V28" s="19">
+      <c r="V28" s="18">
         <v>0.27028099999999999</v>
       </c>
-      <c r="W28" s="19">
+      <c r="W28" s="18">
         <v>0.27020300000000003</v>
       </c>
-      <c r="X28" s="19">
+      <c r="X28" s="18">
         <v>0.27011099999999999</v>
       </c>
-      <c r="Y28" s="19">
+      <c r="Y28" s="18">
         <v>0.27002399999999999</v>
       </c>
-      <c r="Z28" s="19">
+      <c r="Z28" s="18">
         <v>0.26994600000000002</v>
       </c>
-      <c r="AA28" s="19">
+      <c r="AA28" s="18">
         <v>0.26986300000000002</v>
       </c>
-      <c r="AB28" s="19">
+      <c r="AB28" s="18">
         <v>0.26979599999999998</v>
       </c>
-      <c r="AC28" s="19">
+      <c r="AC28" s="18">
         <v>0.26972099999999999</v>
       </c>
-      <c r="AD28" s="19">
+      <c r="AD28" s="18">
         <v>0.269646</v>
       </c>
-      <c r="AE28" s="19">
+      <c r="AE28" s="18">
         <v>0.26958799999999999</v>
       </c>
-      <c r="AF28" s="19">
+      <c r="AF28" s="18">
         <v>0.26951000000000003</v>
       </c>
-      <c r="AG28" s="19">
+      <c r="AG28" s="18">
         <v>0.26944899999999999</v>
       </c>
-      <c r="AH28" s="19">
+      <c r="AH28" s="18">
         <v>0.26937499999999998</v>
       </c>
-      <c r="AI28" s="20">
+      <c r="AI28" s="19">
         <v>-9.5100000000000002E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A29" s="14" t="s">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="18">
         <v>1.8309390000000001</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="18">
         <v>1.8093760000000001</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="18">
         <v>1.8174790000000001</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="18">
         <v>1.8235220000000001</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="18">
         <v>1.818743</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="18">
         <v>1.790225</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="18">
         <v>1.8253189999999999</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="18">
         <v>1.8517319999999999</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="18">
         <v>1.887875</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="18">
         <v>1.9052979999999999</v>
       </c>
-      <c r="M29" s="19">
+      <c r="M29" s="18">
         <v>1.944483</v>
       </c>
-      <c r="N29" s="19">
+      <c r="N29" s="18">
         <v>1.992299</v>
       </c>
-      <c r="O29" s="19">
+      <c r="O29" s="18">
         <v>2.015873</v>
       </c>
-      <c r="P29" s="19">
+      <c r="P29" s="18">
         <v>2.0448029999999999</v>
       </c>
-      <c r="Q29" s="19">
+      <c r="Q29" s="18">
         <v>2.0937350000000001</v>
       </c>
-      <c r="R29" s="19">
+      <c r="R29" s="18">
         <v>2.1437379999999999</v>
       </c>
-      <c r="S29" s="19">
+      <c r="S29" s="18">
         <v>2.1782140000000001</v>
       </c>
-      <c r="T29" s="19">
+      <c r="T29" s="18">
         <v>2.2161110000000002</v>
       </c>
-      <c r="U29" s="19">
+      <c r="U29" s="18">
         <v>2.2279499999999999</v>
       </c>
-      <c r="V29" s="19">
+      <c r="V29" s="18">
         <v>2.2633580000000002</v>
       </c>
-      <c r="W29" s="19">
+      <c r="W29" s="18">
         <v>2.3063530000000001</v>
       </c>
-      <c r="X29" s="19">
+      <c r="X29" s="18">
         <v>2.3196979999999998</v>
       </c>
-      <c r="Y29" s="19">
+      <c r="Y29" s="18">
         <v>2.344128</v>
       </c>
-      <c r="Z29" s="19">
+      <c r="Z29" s="18">
         <v>2.394326</v>
       </c>
-      <c r="AA29" s="19">
+      <c r="AA29" s="18">
         <v>2.4222239999999999</v>
       </c>
-      <c r="AB29" s="19">
+      <c r="AB29" s="18">
         <v>2.4494739999999999</v>
       </c>
-      <c r="AC29" s="19">
+      <c r="AC29" s="18">
         <v>2.492918</v>
       </c>
-      <c r="AD29" s="19">
+      <c r="AD29" s="18">
         <v>2.5052509999999999</v>
       </c>
-      <c r="AE29" s="19">
+      <c r="AE29" s="18">
         <v>2.5637919999999998</v>
       </c>
-      <c r="AF29" s="19">
+      <c r="AF29" s="18">
         <v>2.6040740000000002</v>
       </c>
-      <c r="AG29" s="19">
+      <c r="AG29" s="18">
         <v>2.6351710000000002</v>
       </c>
-      <c r="AH29" s="19">
+      <c r="AH29" s="18">
         <v>2.6620910000000002</v>
       </c>
-      <c r="AI29" s="20">
+      <c r="AI29" s="19">
         <v>1.2147E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="11"/>
-      <c r="B31" s="17" t="s">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
-      <c r="AH31" s="11"/>
-      <c r="AI31" s="11"/>
-    </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="14" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+    </row>
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="18">
         <v>1.976542</v>
       </c>
-      <c r="D32" s="19">
+      <c r="D32" s="18">
         <v>1.9506760000000001</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="18">
         <v>1.9534389999999999</v>
       </c>
-      <c r="F32" s="19">
+      <c r="F32" s="18">
         <v>1.981519</v>
       </c>
-      <c r="G32" s="19">
+      <c r="G32" s="18">
         <v>1.995884</v>
       </c>
-      <c r="H32" s="19">
+      <c r="H32" s="18">
         <v>2.0495670000000001</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="18">
         <v>2.0593270000000001</v>
       </c>
-      <c r="J32" s="19">
+      <c r="J32" s="18">
         <v>2.1209150000000001</v>
       </c>
-      <c r="K32" s="19">
+      <c r="K32" s="18">
         <v>2.124838</v>
       </c>
-      <c r="L32" s="19">
+      <c r="L32" s="18">
         <v>2.1889780000000001</v>
       </c>
-      <c r="M32" s="19">
+      <c r="M32" s="18">
         <v>2.217425</v>
       </c>
-      <c r="N32" s="19">
+      <c r="N32" s="18">
         <v>2.2497509999999998</v>
       </c>
-      <c r="O32" s="19">
+      <c r="O32" s="18">
         <v>2.2967339999999998</v>
       </c>
-      <c r="P32" s="19">
+      <c r="P32" s="18">
         <v>2.3203019999999999</v>
       </c>
-      <c r="Q32" s="19">
+      <c r="Q32" s="18">
         <v>2.373818</v>
       </c>
-      <c r="R32" s="19">
+      <c r="R32" s="18">
         <v>2.41222</v>
       </c>
-      <c r="S32" s="19">
+      <c r="S32" s="18">
         <v>2.448677</v>
       </c>
-      <c r="T32" s="19">
+      <c r="T32" s="18">
         <v>2.4817170000000002</v>
       </c>
-      <c r="U32" s="19">
+      <c r="U32" s="18">
         <v>2.5142790000000002</v>
       </c>
-      <c r="V32" s="19">
+      <c r="V32" s="18">
         <v>2.5420569999999998</v>
       </c>
-      <c r="W32" s="19">
+      <c r="W32" s="18">
         <v>2.5794169999999998</v>
       </c>
-      <c r="X32" s="19">
+      <c r="X32" s="18">
         <v>2.5917219999999999</v>
       </c>
-      <c r="Y32" s="19">
+      <c r="Y32" s="18">
         <v>2.6257769999999998</v>
       </c>
-      <c r="Z32" s="19">
+      <c r="Z32" s="18">
         <v>2.6776680000000002</v>
       </c>
-      <c r="AA32" s="19">
+      <c r="AA32" s="18">
         <v>2.7055099999999999</v>
       </c>
-      <c r="AB32" s="19">
+      <c r="AB32" s="18">
         <v>2.737298</v>
       </c>
-      <c r="AC32" s="19">
+      <c r="AC32" s="18">
         <v>2.7945739999999999</v>
       </c>
-      <c r="AD32" s="19">
+      <c r="AD32" s="18">
         <v>2.8016510000000001</v>
       </c>
-      <c r="AE32" s="19">
+      <c r="AE32" s="18">
         <v>2.8586710000000002</v>
       </c>
-      <c r="AF32" s="19">
+      <c r="AF32" s="18">
         <v>2.905011</v>
       </c>
-      <c r="AG32" s="19">
+      <c r="AG32" s="18">
         <v>2.9385020000000002</v>
       </c>
-      <c r="AH32" s="19">
+      <c r="AH32" s="18">
         <v>2.9509319999999999</v>
       </c>
-      <c r="AI32" s="20">
+      <c r="AI32" s="19">
         <v>1.3011999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="18">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33" s="18">
         <v>4.2171E-2</v>
       </c>
-      <c r="E33" s="19">
+      <c r="E33" s="18">
         <v>4.1158E-2</v>
       </c>
-      <c r="F33" s="19">
+      <c r="F33" s="18">
         <v>4.0150999999999999E-2</v>
       </c>
-      <c r="G33" s="19">
+      <c r="G33" s="18">
         <v>3.9197000000000003E-2</v>
       </c>
-      <c r="H33" s="19">
+      <c r="H33" s="18">
         <v>3.8323000000000003E-2</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="18">
         <v>3.7472999999999999E-2</v>
       </c>
-      <c r="J33" s="19">
+      <c r="J33" s="18">
         <v>3.6615000000000002E-2</v>
       </c>
-      <c r="K33" s="19">
+      <c r="K33" s="18">
         <v>3.5758999999999999E-2</v>
       </c>
-      <c r="L33" s="19">
+      <c r="L33" s="18">
         <v>3.4921000000000001E-2</v>
       </c>
-      <c r="M33" s="19">
+      <c r="M33" s="18">
         <v>3.4106999999999998E-2</v>
       </c>
-      <c r="N33" s="19">
+      <c r="N33" s="18">
         <v>3.3329999999999999E-2</v>
       </c>
-      <c r="O33" s="19">
+      <c r="O33" s="18">
         <v>3.2592999999999997E-2</v>
       </c>
-      <c r="P33" s="19">
+      <c r="P33" s="18">
         <v>3.1885999999999998E-2</v>
       </c>
-      <c r="Q33" s="19">
+      <c r="Q33" s="18">
         <v>3.1195000000000001E-2</v>
       </c>
-      <c r="R33" s="19">
+      <c r="R33" s="18">
         <v>3.0532E-2</v>
       </c>
-      <c r="S33" s="19">
+      <c r="S33" s="18">
         <v>2.9881000000000001E-2</v>
       </c>
-      <c r="T33" s="19">
+      <c r="T33" s="18">
         <v>2.9236999999999999E-2</v>
       </c>
-      <c r="U33" s="19">
+      <c r="U33" s="18">
         <v>2.8601999999999999E-2</v>
       </c>
-      <c r="V33" s="19">
+      <c r="V33" s="18">
         <v>2.7976000000000001E-2</v>
       </c>
-      <c r="W33" s="19">
+      <c r="W33" s="18">
         <v>2.7362999999999998E-2</v>
       </c>
-      <c r="X33" s="19">
+      <c r="X33" s="18">
         <v>2.6765000000000001E-2</v>
       </c>
-      <c r="Y33" s="19">
+      <c r="Y33" s="18">
         <v>2.6172000000000001E-2</v>
       </c>
-      <c r="Z33" s="19">
+      <c r="Z33" s="18">
         <v>2.5585E-2</v>
       </c>
-      <c r="AA33" s="19">
+      <c r="AA33" s="18">
         <v>2.5009E-2</v>
       </c>
-      <c r="AB33" s="19">
+      <c r="AB33" s="18">
         <v>2.444E-2</v>
       </c>
-      <c r="AC33" s="19">
+      <c r="AC33" s="18">
         <v>2.3876000000000001E-2</v>
       </c>
-      <c r="AD33" s="19">
+      <c r="AD33" s="18">
         <v>2.3321999999999999E-2</v>
       </c>
-      <c r="AE33" s="19">
+      <c r="AE33" s="18">
         <v>2.2771E-2</v>
       </c>
-      <c r="AF33" s="19">
+      <c r="AF33" s="18">
         <v>2.2223E-2</v>
       </c>
-      <c r="AG33" s="19">
+      <c r="AG33" s="18">
         <v>2.1683999999999998E-2</v>
       </c>
-      <c r="AH33" s="19">
+      <c r="AH33" s="18">
         <v>2.1166000000000001E-2</v>
       </c>
-      <c r="AI33" s="20">
+      <c r="AI33" s="19">
         <v>-2.2752000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="18">
         <v>7.5786999999999993E-2</v>
       </c>
-      <c r="D34" s="19">
+      <c r="D34" s="18">
         <v>7.5786999999999993E-2</v>
       </c>
-      <c r="E34" s="19">
+      <c r="E34" s="18">
         <v>7.5994000000000006E-2</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="18">
         <v>7.6207999999999998E-2</v>
       </c>
-      <c r="G34" s="19">
+      <c r="G34" s="18">
         <v>7.6365000000000002E-2</v>
       </c>
-      <c r="H34" s="19">
+      <c r="H34" s="18">
         <v>7.6507000000000006E-2</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="18">
         <v>7.6641000000000001E-2</v>
       </c>
-      <c r="J34" s="19">
+      <c r="J34" s="18">
         <v>7.6765E-2</v>
       </c>
-      <c r="K34" s="19">
+      <c r="K34" s="18">
         <v>7.6876E-2</v>
       </c>
-      <c r="L34" s="19">
+      <c r="L34" s="18">
         <v>7.6991000000000004E-2</v>
       </c>
-      <c r="M34" s="19">
+      <c r="M34" s="18">
         <v>7.7107999999999996E-2</v>
       </c>
-      <c r="N34" s="19">
+      <c r="N34" s="18">
         <v>7.7219999999999997E-2</v>
       </c>
-      <c r="O34" s="19">
+      <c r="O34" s="18">
         <v>7.7326000000000006E-2</v>
       </c>
-      <c r="P34" s="19">
+      <c r="P34" s="18">
         <v>7.7431E-2</v>
       </c>
-      <c r="Q34" s="19">
+      <c r="Q34" s="18">
         <v>7.7537999999999996E-2</v>
       </c>
-      <c r="R34" s="19">
+      <c r="R34" s="18">
         <v>7.7656000000000003E-2</v>
       </c>
-      <c r="S34" s="19">
+      <c r="S34" s="18">
         <v>7.7773999999999996E-2</v>
       </c>
-      <c r="T34" s="19">
+      <c r="T34" s="18">
         <v>7.7889E-2</v>
       </c>
-      <c r="U34" s="19">
+      <c r="U34" s="18">
         <v>7.8005000000000005E-2</v>
       </c>
-      <c r="V34" s="19">
+      <c r="V34" s="18">
         <v>7.8108999999999998E-2</v>
       </c>
-      <c r="W34" s="19">
+      <c r="W34" s="18">
         <v>7.8210000000000002E-2</v>
       </c>
-      <c r="X34" s="19">
+      <c r="X34" s="18">
         <v>7.8312000000000007E-2</v>
       </c>
-      <c r="Y34" s="19">
+      <c r="Y34" s="18">
         <v>7.8409999999999994E-2</v>
       </c>
-      <c r="Z34" s="19">
+      <c r="Z34" s="18">
         <v>7.8519000000000005E-2</v>
       </c>
-      <c r="AA34" s="19">
+      <c r="AA34" s="18">
         <v>7.8632999999999995E-2</v>
       </c>
-      <c r="AB34" s="19">
+      <c r="AB34" s="18">
         <v>7.8744999999999996E-2</v>
       </c>
-      <c r="AC34" s="19">
+      <c r="AC34" s="18">
         <v>7.8856999999999997E-2</v>
       </c>
-      <c r="AD34" s="19">
+      <c r="AD34" s="18">
         <v>7.8950999999999993E-2</v>
       </c>
-      <c r="AE34" s="19">
+      <c r="AE34" s="18">
         <v>7.9021999999999995E-2</v>
       </c>
-      <c r="AF34" s="19">
+      <c r="AF34" s="18">
         <v>7.9084000000000002E-2</v>
       </c>
-      <c r="AG34" s="19">
+      <c r="AG34" s="18">
         <v>7.9136999999999999E-2</v>
       </c>
-      <c r="AH34" s="19">
+      <c r="AH34" s="18">
         <v>7.9182000000000002E-2</v>
       </c>
-      <c r="AI34" s="20">
+      <c r="AI34" s="19">
         <v>1.415E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="14" t="s">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="18">
         <v>2.4610000000000001E-3</v>
       </c>
-      <c r="D35" s="19">
+      <c r="D35" s="18">
         <v>2.5850000000000001E-3</v>
       </c>
-      <c r="E35" s="19">
+      <c r="E35" s="18">
         <v>2.5839999999999999E-3</v>
       </c>
-      <c r="F35" s="19">
+      <c r="F35" s="18">
         <v>2.5820000000000001E-3</v>
       </c>
-      <c r="G35" s="19">
+      <c r="G35" s="18">
         <v>2.5829999999999998E-3</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="18">
         <v>2.5839999999999999E-3</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="18">
         <v>2.5850000000000001E-3</v>
       </c>
-      <c r="J35" s="19">
+      <c r="J35" s="18">
         <v>2.5850000000000001E-3</v>
       </c>
-      <c r="K35" s="19">
+      <c r="K35" s="18">
         <v>2.5860000000000002E-3</v>
       </c>
-      <c r="L35" s="19">
+      <c r="L35" s="18">
         <v>2.5860000000000002E-3</v>
       </c>
-      <c r="M35" s="19">
+      <c r="M35" s="18">
         <v>2.5860000000000002E-3</v>
       </c>
-      <c r="N35" s="19">
+      <c r="N35" s="18">
         <v>1.1847999999999999E-2</v>
       </c>
-      <c r="O35" s="19">
+      <c r="O35" s="18">
         <v>1.1851E-2</v>
       </c>
-      <c r="P35" s="19">
+      <c r="P35" s="18">
         <v>1.1854999999999999E-2</v>
       </c>
-      <c r="Q35" s="19">
+      <c r="Q35" s="18">
         <v>1.3176E-2</v>
       </c>
-      <c r="R35" s="19">
+      <c r="R35" s="18">
         <v>1.3179E-2</v>
       </c>
-      <c r="S35" s="19">
+      <c r="S35" s="18">
         <v>1.3184E-2</v>
       </c>
-      <c r="T35" s="19">
+      <c r="T35" s="18">
         <v>1.3188999999999999E-2</v>
       </c>
-      <c r="U35" s="19">
+      <c r="U35" s="18">
         <v>1.3194000000000001E-2</v>
       </c>
-      <c r="V35" s="19">
+      <c r="V35" s="18">
         <v>1.3199000000000001E-2</v>
       </c>
-      <c r="W35" s="19">
+      <c r="W35" s="18">
         <v>1.3205E-2</v>
       </c>
-      <c r="X35" s="19">
+      <c r="X35" s="18">
         <v>1.3213000000000001E-2</v>
       </c>
-      <c r="Y35" s="19">
+      <c r="Y35" s="18">
         <v>1.3221999999999999E-2</v>
       </c>
-      <c r="Z35" s="19">
+      <c r="Z35" s="18">
         <v>1.3228E-2</v>
       </c>
-      <c r="AA35" s="19">
+      <c r="AA35" s="18">
         <v>1.3233E-2</v>
       </c>
-      <c r="AB35" s="19">
+      <c r="AB35" s="18">
         <v>1.3237000000000001E-2</v>
       </c>
-      <c r="AC35" s="19">
+      <c r="AC35" s="18">
         <v>1.3243E-2</v>
       </c>
-      <c r="AD35" s="19">
+      <c r="AD35" s="18">
         <v>1.3249E-2</v>
       </c>
-      <c r="AE35" s="19">
+      <c r="AE35" s="18">
         <v>1.3252999999999999E-2</v>
       </c>
-      <c r="AF35" s="19">
+      <c r="AF35" s="18">
         <v>1.3254E-2</v>
       </c>
-      <c r="AG35" s="19">
+      <c r="AG35" s="18">
         <v>1.3254999999999999E-2</v>
       </c>
-      <c r="AH35" s="19">
+      <c r="AH35" s="18">
         <v>1.3257E-2</v>
       </c>
-      <c r="AI35" s="20">
+      <c r="AI35" s="19">
         <v>5.5816999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="14" t="s">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="18">
         <v>1.9788E-2</v>
       </c>
-      <c r="D36" s="19">
+      <c r="D36" s="18">
         <v>1.9788E-2</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="18">
         <v>1.9810000000000001E-2</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="18">
         <v>1.9834000000000001E-2</v>
       </c>
-      <c r="G36" s="19">
+      <c r="G36" s="18">
         <v>1.9835999999999999E-2</v>
       </c>
-      <c r="H36" s="19">
+      <c r="H36" s="18">
         <v>1.9835999999999999E-2</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="18">
         <v>1.9841000000000001E-2</v>
       </c>
-      <c r="J36" s="19">
+      <c r="J36" s="18">
         <v>1.9844000000000001E-2</v>
       </c>
-      <c r="K36" s="19">
+      <c r="K36" s="18">
         <v>1.9845999999999999E-2</v>
       </c>
-      <c r="L36" s="19">
+      <c r="L36" s="18">
         <v>1.9848999999999999E-2</v>
       </c>
-      <c r="M36" s="19">
+      <c r="M36" s="18">
         <v>1.9851000000000001E-2</v>
       </c>
-      <c r="N36" s="19">
+      <c r="N36" s="18">
         <v>1.9852000000000002E-2</v>
       </c>
-      <c r="O36" s="19">
+      <c r="O36" s="18">
         <v>1.9852999999999999E-2</v>
       </c>
-      <c r="P36" s="19">
+      <c r="P36" s="18">
         <v>1.9854E-2</v>
       </c>
-      <c r="Q36" s="19">
+      <c r="Q36" s="18">
         <v>1.9855000000000001E-2</v>
       </c>
-      <c r="R36" s="19">
+      <c r="R36" s="18">
         <v>1.9858000000000001E-2</v>
       </c>
-      <c r="S36" s="19">
+      <c r="S36" s="18">
         <v>1.9859999999999999E-2</v>
       </c>
-      <c r="T36" s="19">
+      <c r="T36" s="18">
         <v>1.9862999999999999E-2</v>
       </c>
-      <c r="U36" s="19">
+      <c r="U36" s="18">
         <v>1.9865000000000001E-2</v>
       </c>
-      <c r="V36" s="19">
+      <c r="V36" s="18">
         <v>1.9866999999999999E-2</v>
       </c>
-      <c r="W36" s="19">
+      <c r="W36" s="18">
         <v>1.9866999999999999E-2</v>
       </c>
-      <c r="X36" s="19">
+      <c r="X36" s="18">
         <v>1.9866999999999999E-2</v>
       </c>
-      <c r="Y36" s="19">
+      <c r="Y36" s="18">
         <v>1.9866000000000002E-2</v>
       </c>
-      <c r="Z36" s="19">
+      <c r="Z36" s="18">
         <v>1.9866999999999999E-2</v>
       </c>
-      <c r="AA36" s="19">
+      <c r="AA36" s="18">
         <v>1.9869000000000001E-2</v>
       </c>
-      <c r="AB36" s="19">
+      <c r="AB36" s="18">
         <v>1.9872000000000001E-2</v>
       </c>
-      <c r="AC36" s="19">
+      <c r="AC36" s="18">
         <v>1.9873999999999999E-2</v>
       </c>
-      <c r="AD36" s="19">
+      <c r="AD36" s="18">
         <v>1.9872999999999998E-2</v>
       </c>
-      <c r="AE36" s="19">
+      <c r="AE36" s="18">
         <v>1.9869999999999999E-2</v>
       </c>
-      <c r="AF36" s="19">
+      <c r="AF36" s="18">
         <v>1.9869000000000001E-2</v>
       </c>
-      <c r="AG36" s="19">
+      <c r="AG36" s="18">
         <v>1.9866999999999999E-2</v>
       </c>
-      <c r="AH36" s="19">
+      <c r="AH36" s="18">
         <v>1.9866000000000002E-2</v>
       </c>
-      <c r="AI36" s="20">
+      <c r="AI36" s="19">
         <v>1.27E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="14" t="s">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="18">
         <v>1.835305</v>
       </c>
-      <c r="D37" s="19">
+      <c r="D37" s="18">
         <v>1.8103450000000001</v>
       </c>
-      <c r="E37" s="19">
+      <c r="E37" s="18">
         <v>1.8138920000000001</v>
       </c>
-      <c r="F37" s="19">
+      <c r="F37" s="18">
         <v>1.842743</v>
       </c>
-      <c r="G37" s="19">
+      <c r="G37" s="18">
         <v>1.8579030000000001</v>
       </c>
-      <c r="H37" s="19">
+      <c r="H37" s="18">
         <v>1.9123159999999999</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="18">
         <v>1.9227879999999999</v>
       </c>
-      <c r="J37" s="19">
+      <c r="J37" s="18">
         <v>1.985106</v>
       </c>
-      <c r="K37" s="19">
+      <c r="K37" s="18">
         <v>1.9897720000000001</v>
       </c>
-      <c r="L37" s="19">
+      <c r="L37" s="18">
         <v>2.0546310000000001</v>
       </c>
-      <c r="M37" s="19">
+      <c r="M37" s="18">
         <v>2.0837729999999999</v>
       </c>
-      <c r="N37" s="19">
+      <c r="N37" s="18">
         <v>2.1075020000000002</v>
       </c>
-      <c r="O37" s="19">
+      <c r="O37" s="18">
         <v>2.1551110000000002</v>
       </c>
-      <c r="P37" s="19">
+      <c r="P37" s="18">
         <v>2.1792769999999999</v>
       </c>
-      <c r="Q37" s="19">
+      <c r="Q37" s="18">
         <v>2.2320540000000002</v>
       </c>
-      <c r="R37" s="19">
+      <c r="R37" s="18">
         <v>2.2709950000000001</v>
       </c>
-      <c r="S37" s="19">
+      <c r="S37" s="18">
         <v>2.3079779999999999</v>
       </c>
-      <c r="T37" s="19">
+      <c r="T37" s="18">
         <v>2.3415379999999999</v>
       </c>
-      <c r="U37" s="19">
+      <c r="U37" s="18">
         <v>2.3746139999999998</v>
       </c>
-      <c r="V37" s="19">
+      <c r="V37" s="18">
         <v>2.4029060000000002</v>
       </c>
-      <c r="W37" s="19">
+      <c r="W37" s="18">
         <v>2.4407719999999999</v>
       </c>
-      <c r="X37" s="19">
+      <c r="X37" s="18">
         <v>2.4535650000000002</v>
       </c>
-      <c r="Y37" s="19">
+      <c r="Y37" s="18">
         <v>2.4881069999999998</v>
       </c>
-      <c r="Z37" s="19">
+      <c r="Z37" s="18">
         <v>2.5404689999999999</v>
       </c>
-      <c r="AA37" s="19">
+      <c r="AA37" s="18">
         <v>2.5687660000000001</v>
       </c>
-      <c r="AB37" s="19">
+      <c r="AB37" s="18">
         <v>2.6010040000000001</v>
       </c>
-      <c r="AC37" s="19">
+      <c r="AC37" s="18">
         <v>2.658725</v>
       </c>
-      <c r="AD37" s="19">
+      <c r="AD37" s="18">
         <v>2.666255</v>
       </c>
-      <c r="AE37" s="19">
+      <c r="AE37" s="18">
         <v>2.7237550000000001</v>
       </c>
-      <c r="AF37" s="19">
+      <c r="AF37" s="18">
         <v>2.770581</v>
       </c>
-      <c r="AG37" s="19">
+      <c r="AG37" s="18">
         <v>2.8045580000000001</v>
       </c>
-      <c r="AH37" s="19">
+      <c r="AH37" s="18">
         <v>2.8174610000000002</v>
       </c>
-      <c r="AI37" s="20">
+      <c r="AI37" s="19">
         <v>1.3923E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="11"/>
-      <c r="B39" s="17" t="s">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="11"/>
-      <c r="Y39" s="11"/>
-      <c r="Z39" s="11"/>
-      <c r="AA39" s="11"/>
-      <c r="AB39" s="11"/>
-      <c r="AC39" s="11"/>
-      <c r="AD39" s="11"/>
-      <c r="AE39" s="11"/>
-      <c r="AF39" s="11"/>
-      <c r="AG39" s="11"/>
-      <c r="AH39" s="11"/>
-      <c r="AI39" s="11"/>
-    </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="14" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+    </row>
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="18">
         <v>3.0089250000000001</v>
       </c>
-      <c r="D40" s="19">
+      <c r="D40" s="18">
         <v>2.9279329999999999</v>
       </c>
-      <c r="E40" s="19">
+      <c r="E40" s="18">
         <v>2.9736419999999999</v>
       </c>
-      <c r="F40" s="19">
+      <c r="F40" s="18">
         <v>3.0516649999999998</v>
       </c>
-      <c r="G40" s="19">
+      <c r="G40" s="18">
         <v>3.1067629999999999</v>
       </c>
-      <c r="H40" s="19">
+      <c r="H40" s="18">
         <v>3.1986150000000002</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="18">
         <v>3.258257</v>
       </c>
-      <c r="J40" s="19">
+      <c r="J40" s="18">
         <v>3.308532</v>
       </c>
-      <c r="K40" s="19">
+      <c r="K40" s="18">
         <v>3.3128340000000001</v>
       </c>
-      <c r="L40" s="19">
+      <c r="L40" s="18">
         <v>3.3594469999999998</v>
       </c>
-      <c r="M40" s="19">
+      <c r="M40" s="18">
         <v>3.386463</v>
       </c>
-      <c r="N40" s="19">
+      <c r="N40" s="18">
         <v>3.4018489999999999</v>
       </c>
-      <c r="O40" s="19">
+      <c r="O40" s="18">
         <v>3.4392649999999998</v>
       </c>
-      <c r="P40" s="19">
+      <c r="P40" s="18">
         <v>3.4621189999999999</v>
       </c>
-      <c r="Q40" s="19">
+      <c r="Q40" s="18">
         <v>3.50725</v>
       </c>
-      <c r="R40" s="19">
+      <c r="R40" s="18">
         <v>3.536197</v>
       </c>
-      <c r="S40" s="19">
+      <c r="S40" s="18">
         <v>3.565753</v>
       </c>
-      <c r="T40" s="19">
+      <c r="T40" s="18">
         <v>3.599078</v>
       </c>
-      <c r="U40" s="19">
+      <c r="U40" s="18">
         <v>3.6206960000000001</v>
       </c>
-      <c r="V40" s="19">
+      <c r="V40" s="18">
         <v>3.6487599999999998</v>
       </c>
-      <c r="W40" s="19">
+      <c r="W40" s="18">
         <v>3.6803409999999999</v>
       </c>
-      <c r="X40" s="19">
+      <c r="X40" s="18">
         <v>3.6808369999999999</v>
       </c>
-      <c r="Y40" s="19">
+      <c r="Y40" s="18">
         <v>3.7069800000000002</v>
       </c>
-      <c r="Z40" s="19">
+      <c r="Z40" s="18">
         <v>3.757476</v>
       </c>
-      <c r="AA40" s="19">
+      <c r="AA40" s="18">
         <v>3.781371</v>
       </c>
-      <c r="AB40" s="19">
+      <c r="AB40" s="18">
         <v>3.8072270000000001</v>
       </c>
-      <c r="AC40" s="19">
+      <c r="AC40" s="18">
         <v>3.8559950000000001</v>
       </c>
-      <c r="AD40" s="19">
+      <c r="AD40" s="18">
         <v>3.861999</v>
       </c>
-      <c r="AE40" s="19">
+      <c r="AE40" s="18">
         <v>3.8977580000000001</v>
       </c>
-      <c r="AF40" s="19">
+      <c r="AF40" s="18">
         <v>3.9353479999999998</v>
       </c>
-      <c r="AG40" s="19">
+      <c r="AG40" s="18">
         <v>3.9597630000000001</v>
       </c>
-      <c r="AH40" s="19">
+      <c r="AH40" s="18">
         <v>3.977589</v>
       </c>
-      <c r="AI40" s="20">
+      <c r="AI40" s="19">
         <v>9.044E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="14" t="s">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="18">
         <v>1.56E-4</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D41" s="18">
         <v>1.5300000000000001E-4</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E41" s="18">
         <v>1.5200000000000001E-4</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F41" s="18">
         <v>1.5200000000000001E-4</v>
       </c>
-      <c r="G41" s="19">
+      <c r="G41" s="18">
         <v>1.5300000000000001E-4</v>
       </c>
-      <c r="H41" s="19">
+      <c r="H41" s="18">
         <v>1.54E-4</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="18">
         <v>1.55E-4</v>
       </c>
-      <c r="J41" s="19">
+      <c r="J41" s="18">
         <v>1.56E-4</v>
       </c>
-      <c r="K41" s="19">
+      <c r="K41" s="18">
         <v>1.56E-4</v>
       </c>
-      <c r="L41" s="19">
+      <c r="L41" s="18">
         <v>1.5699999999999999E-4</v>
       </c>
-      <c r="M41" s="19">
+      <c r="M41" s="18">
         <v>1.5799999999999999E-4</v>
       </c>
-      <c r="N41" s="19">
+      <c r="N41" s="18">
         <v>7.2499999999999995E-4</v>
       </c>
-      <c r="O41" s="19">
+      <c r="O41" s="18">
         <v>7.2900000000000005E-4</v>
       </c>
-      <c r="P41" s="19">
+      <c r="P41" s="18">
         <v>7.3200000000000001E-4</v>
       </c>
-      <c r="Q41" s="19">
+      <c r="Q41" s="18">
         <v>8.1599999999999999E-4</v>
       </c>
-      <c r="R41" s="19">
+      <c r="R41" s="18">
         <v>8.1899999999999996E-4</v>
       </c>
-      <c r="S41" s="19">
+      <c r="S41" s="18">
         <v>8.2299999999999995E-4</v>
       </c>
-      <c r="T41" s="19">
+      <c r="T41" s="18">
         <v>8.2600000000000002E-4</v>
       </c>
-      <c r="U41" s="19">
+      <c r="U41" s="18">
         <v>8.2899999999999998E-4</v>
       </c>
-      <c r="V41" s="19">
+      <c r="V41" s="18">
         <v>8.3199999999999995E-4</v>
       </c>
-      <c r="W41" s="19">
+      <c r="W41" s="18">
         <v>8.3600000000000005E-4</v>
       </c>
-      <c r="X41" s="19">
+      <c r="X41" s="18">
         <v>8.3799999999999999E-4</v>
       </c>
-      <c r="Y41" s="19">
+      <c r="Y41" s="18">
         <v>8.4199999999999998E-4</v>
       </c>
-      <c r="Z41" s="19">
+      <c r="Z41" s="18">
         <v>8.4500000000000005E-4</v>
       </c>
-      <c r="AA41" s="19">
+      <c r="AA41" s="18">
         <v>8.4900000000000004E-4</v>
       </c>
-      <c r="AB41" s="19">
+      <c r="AB41" s="18">
         <v>8.5400000000000005E-4</v>
       </c>
-      <c r="AC41" s="19">
+      <c r="AC41" s="18">
         <v>8.5800000000000004E-4</v>
       </c>
-      <c r="AD41" s="19">
+      <c r="AD41" s="18">
         <v>8.6300000000000005E-4</v>
       </c>
-      <c r="AE41" s="19">
+      <c r="AE41" s="18">
         <v>8.6799999999999996E-4</v>
       </c>
-      <c r="AF41" s="19">
+      <c r="AF41" s="18">
         <v>8.7399999999999999E-4</v>
       </c>
-      <c r="AG41" s="19">
+      <c r="AG41" s="18">
         <v>8.7900000000000001E-4</v>
       </c>
-      <c r="AH41" s="19">
+      <c r="AH41" s="18">
         <v>8.8500000000000004E-4</v>
       </c>
-      <c r="AI41" s="20">
+      <c r="AI41" s="19">
         <v>5.7688000000000003E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="14" t="s">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="18">
         <v>1.019304</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D42" s="18">
         <v>1.0231170000000001</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E42" s="18">
         <v>1.0211220000000001</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F42" s="18">
         <v>1.0195920000000001</v>
       </c>
-      <c r="G42" s="19">
+      <c r="G42" s="18">
         <v>1.0182089999999999</v>
       </c>
-      <c r="H42" s="19">
+      <c r="H42" s="18">
         <v>1.0167930000000001</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="18">
         <v>1.0153540000000001</v>
       </c>
-      <c r="J42" s="19">
+      <c r="J42" s="18">
         <v>1.014176</v>
       </c>
-      <c r="K42" s="19">
+      <c r="K42" s="18">
         <v>1.0131650000000001</v>
       </c>
-      <c r="L42" s="19">
+      <c r="L42" s="18">
         <v>1.0120800000000001</v>
       </c>
-      <c r="M42" s="19">
+      <c r="M42" s="18">
         <v>1.011009</v>
       </c>
-      <c r="N42" s="19">
+      <c r="N42" s="18">
         <v>1.009943</v>
       </c>
-      <c r="O42" s="19">
+      <c r="O42" s="18">
         <v>1.009061</v>
       </c>
-      <c r="P42" s="19">
+      <c r="P42" s="18">
         <v>1.008013</v>
       </c>
-      <c r="Q42" s="19">
+      <c r="Q42" s="18">
         <v>1.007036</v>
       </c>
-      <c r="R42" s="19">
+      <c r="R42" s="18">
         <v>1.005968</v>
       </c>
-      <c r="S42" s="19">
+      <c r="S42" s="18">
         <v>1.004937</v>
       </c>
-      <c r="T42" s="19">
+      <c r="T42" s="18">
         <v>1.003806</v>
       </c>
-      <c r="U42" s="19">
+      <c r="U42" s="18">
         <v>1.0029669999999999</v>
       </c>
-      <c r="V42" s="19">
+      <c r="V42" s="18">
         <v>1.0016700000000001</v>
       </c>
-      <c r="W42" s="19">
+      <c r="W42" s="18">
         <v>1.0007060000000001</v>
       </c>
-      <c r="X42" s="19">
+      <c r="X42" s="18">
         <v>0.99941199999999997</v>
       </c>
-      <c r="Y42" s="19">
+      <c r="Y42" s="18">
         <v>0.99834800000000001</v>
       </c>
-      <c r="Z42" s="19">
+      <c r="Z42" s="18">
         <v>0.99720600000000004</v>
       </c>
-      <c r="AA42" s="19">
+      <c r="AA42" s="18">
         <v>0.99634299999999998</v>
       </c>
-      <c r="AB42" s="19">
+      <c r="AB42" s="18">
         <v>0.99479799999999996</v>
       </c>
-      <c r="AC42" s="19">
+      <c r="AC42" s="18">
         <v>0.99352399999999996</v>
       </c>
-      <c r="AD42" s="19">
+      <c r="AD42" s="18">
         <v>0.99223899999999998</v>
       </c>
-      <c r="AE42" s="19">
+      <c r="AE42" s="18">
         <v>0.99128799999999995</v>
       </c>
-      <c r="AF42" s="19">
+      <c r="AF42" s="18">
         <v>0.99009499999999995</v>
       </c>
-      <c r="AG42" s="19">
+      <c r="AG42" s="18">
         <v>0.98876500000000001</v>
       </c>
-      <c r="AH42" s="19">
+      <c r="AH42" s="18">
         <v>0.98726700000000001</v>
       </c>
-      <c r="AI42" s="20">
+      <c r="AI42" s="19">
         <v>-1.0300000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="18">
         <v>1.989465</v>
       </c>
-      <c r="D43" s="19">
+      <c r="D43" s="18">
         <v>1.904663</v>
       </c>
-      <c r="E43" s="19">
+      <c r="E43" s="18">
         <v>1.9523680000000001</v>
       </c>
-      <c r="F43" s="19">
+      <c r="F43" s="18">
         <v>2.0319199999999999</v>
       </c>
-      <c r="G43" s="19">
+      <c r="G43" s="18">
         <v>2.0884010000000002</v>
       </c>
-      <c r="H43" s="19">
+      <c r="H43" s="18">
         <v>2.1816689999999999</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I43" s="18">
         <v>2.2427480000000002</v>
       </c>
-      <c r="J43" s="19">
+      <c r="J43" s="18">
         <v>2.2942</v>
       </c>
-      <c r="K43" s="19">
+      <c r="K43" s="18">
         <v>2.299512</v>
       </c>
-      <c r="L43" s="19">
+      <c r="L43" s="18">
         <v>2.3472089999999999</v>
       </c>
-      <c r="M43" s="19">
+      <c r="M43" s="18">
         <v>2.3752960000000001</v>
       </c>
-      <c r="N43" s="19">
+      <c r="N43" s="18">
         <v>2.3911799999999999</v>
       </c>
-      <c r="O43" s="19">
+      <c r="O43" s="18">
         <v>2.4294760000000002</v>
       </c>
-      <c r="P43" s="19">
+      <c r="P43" s="18">
         <v>2.4533740000000002</v>
       </c>
-      <c r="Q43" s="19">
+      <c r="Q43" s="18">
         <v>2.4993979999999998</v>
       </c>
-      <c r="R43" s="19">
+      <c r="R43" s="18">
         <v>2.5294099999999999</v>
       </c>
-      <c r="S43" s="19">
+      <c r="S43" s="18">
         <v>2.559993</v>
       </c>
-      <c r="T43" s="19">
+      <c r="T43" s="18">
         <v>2.5944470000000002</v>
       </c>
-      <c r="U43" s="19">
+      <c r="U43" s="18">
         <v>2.6168999999999998</v>
       </c>
-      <c r="V43" s="19">
+      <c r="V43" s="18">
         <v>2.646258</v>
       </c>
-      <c r="W43" s="19">
+      <c r="W43" s="18">
         <v>2.6787990000000002</v>
       </c>
-      <c r="X43" s="19">
+      <c r="X43" s="18">
         <v>2.6805870000000001</v>
       </c>
-      <c r="Y43" s="19">
+      <c r="Y43" s="18">
         <v>2.7077909999999998</v>
       </c>
-      <c r="Z43" s="19">
+      <c r="Z43" s="18">
         <v>2.7594249999999998</v>
       </c>
-      <c r="AA43" s="19">
+      <c r="AA43" s="18">
         <v>2.784179</v>
       </c>
-      <c r="AB43" s="19">
+      <c r="AB43" s="18">
         <v>2.8115749999999999</v>
       </c>
-      <c r="AC43" s="19">
+      <c r="AC43" s="18">
         <v>2.8616130000000002</v>
       </c>
-      <c r="AD43" s="19">
+      <c r="AD43" s="18">
         <v>2.868897</v>
       </c>
-      <c r="AE43" s="19">
+      <c r="AE43" s="18">
         <v>2.905602</v>
       </c>
-      <c r="AF43" s="19">
+      <c r="AF43" s="18">
         <v>2.9443790000000001</v>
       </c>
-      <c r="AG43" s="19">
+      <c r="AG43" s="18">
         <v>2.970119</v>
       </c>
-      <c r="AH43" s="19">
+      <c r="AH43" s="18">
         <v>2.9894370000000001</v>
       </c>
-      <c r="AI43" s="20">
+      <c r="AI43" s="19">
         <v>1.3223E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="14" t="s">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C45" s="21">
+      <c r="C45" s="20">
         <v>1.5088569999999999</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D45" s="20">
         <v>1.392995</v>
       </c>
-      <c r="E45" s="21">
+      <c r="E45" s="20">
         <v>1.4674339999999999</v>
       </c>
-      <c r="F45" s="21">
+      <c r="F45" s="20">
         <v>1.523857</v>
       </c>
-      <c r="G45" s="21">
+      <c r="G45" s="20">
         <v>1.5557529999999999</v>
       </c>
-      <c r="H45" s="21">
+      <c r="H45" s="20">
         <v>1.5953200000000001</v>
       </c>
-      <c r="I45" s="21">
+      <c r="I45" s="20">
         <v>1.636549</v>
       </c>
-      <c r="J45" s="21">
+      <c r="J45" s="20">
         <v>1.6755150000000001</v>
       </c>
-      <c r="K45" s="21">
+      <c r="K45" s="20">
         <v>1.7042980000000001</v>
       </c>
-      <c r="L45" s="21">
+      <c r="L45" s="20">
         <v>1.7420659999999999</v>
       </c>
-      <c r="M45" s="21">
+      <c r="M45" s="20">
         <v>1.7792460000000001</v>
       </c>
-      <c r="N45" s="21">
+      <c r="N45" s="20">
         <v>1.8055129999999999</v>
       </c>
-      <c r="O45" s="21">
+      <c r="O45" s="20">
         <v>1.842263</v>
       </c>
-      <c r="P45" s="21">
+      <c r="P45" s="20">
         <v>1.871977</v>
       </c>
-      <c r="Q45" s="21">
+      <c r="Q45" s="20">
         <v>1.9166589999999999</v>
       </c>
-      <c r="R45" s="21">
+      <c r="R45" s="20">
         <v>1.949471</v>
       </c>
-      <c r="S45" s="21">
+      <c r="S45" s="20">
         <v>1.9839329999999999</v>
       </c>
-      <c r="T45" s="21">
+      <c r="T45" s="20">
         <v>2.0208759999999999</v>
       </c>
-      <c r="U45" s="21">
+      <c r="U45" s="20">
         <v>2.0518049999999999</v>
       </c>
-      <c r="V45" s="21">
+      <c r="V45" s="20">
         <v>2.0866159999999998</v>
       </c>
-      <c r="W45" s="21">
+      <c r="W45" s="20">
         <v>2.1229209999999998</v>
       </c>
-      <c r="X45" s="21">
+      <c r="X45" s="20">
         <v>2.15429</v>
       </c>
-      <c r="Y45" s="21">
+      <c r="Y45" s="20">
         <v>2.1818590000000002</v>
       </c>
-      <c r="Z45" s="21">
+      <c r="Z45" s="20">
         <v>2.2311269999999999</v>
       </c>
-      <c r="AA45" s="21">
+      <c r="AA45" s="20">
         <v>2.2593890000000001</v>
       </c>
-      <c r="AB45" s="21">
+      <c r="AB45" s="20">
         <v>2.2930069999999998</v>
       </c>
-      <c r="AC45" s="21">
+      <c r="AC45" s="20">
         <v>2.3276729999999999</v>
       </c>
-      <c r="AD45" s="21">
+      <c r="AD45" s="20">
         <v>2.3577379999999999</v>
       </c>
-      <c r="AE45" s="21">
+      <c r="AE45" s="20">
         <v>2.3983889999999999</v>
       </c>
-      <c r="AF45" s="21">
+      <c r="AF45" s="20">
         <v>2.4366279999999998</v>
       </c>
-      <c r="AG45" s="21">
+      <c r="AG45" s="20">
         <v>2.4713949999999998</v>
       </c>
-      <c r="AH45" s="21">
+      <c r="AH45" s="20">
         <v>2.4996149999999999</v>
       </c>
-      <c r="AI45" s="22">
+      <c r="AI45" s="21">
         <v>1.6417000000000001E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="14" t="s">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C46" s="21">
+      <c r="C46" s="20">
         <v>1.339548</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D46" s="20">
         <v>1.265161</v>
       </c>
-      <c r="E46" s="21">
+      <c r="E46" s="20">
         <v>1.386474</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="20">
         <v>1.4199790000000001</v>
       </c>
-      <c r="G46" s="21">
+      <c r="G46" s="20">
         <v>1.4477519999999999</v>
       </c>
-      <c r="H46" s="21">
+      <c r="H46" s="20">
         <v>1.5000800000000001</v>
       </c>
-      <c r="I46" s="21">
+      <c r="I46" s="20">
         <v>1.537094</v>
       </c>
-      <c r="J46" s="21">
+      <c r="J46" s="20">
         <v>1.576044</v>
       </c>
-      <c r="K46" s="21">
+      <c r="K46" s="20">
         <v>1.613683</v>
       </c>
-      <c r="L46" s="21">
+      <c r="L46" s="20">
         <v>1.631726</v>
       </c>
-      <c r="M46" s="21">
+      <c r="M46" s="20">
         <v>1.6682840000000001</v>
       </c>
-      <c r="N46" s="21">
+      <c r="N46" s="20">
         <v>1.6985429999999999</v>
       </c>
-      <c r="O46" s="21">
+      <c r="O46" s="20">
         <v>1.7385679999999999</v>
       </c>
-      <c r="P46" s="21">
+      <c r="P46" s="20">
         <v>1.7588820000000001</v>
       </c>
-      <c r="Q46" s="21">
+      <c r="Q46" s="20">
         <v>1.823334</v>
       </c>
-      <c r="R46" s="21">
+      <c r="R46" s="20">
         <v>1.852679</v>
       </c>
-      <c r="S46" s="21">
+      <c r="S46" s="20">
         <v>1.8894219999999999</v>
       </c>
-      <c r="T46" s="21">
+      <c r="T46" s="20">
         <v>1.9385699999999999</v>
       </c>
-      <c r="U46" s="21">
+      <c r="U46" s="20">
         <v>1.9477279999999999</v>
       </c>
-      <c r="V46" s="21">
+      <c r="V46" s="20">
         <v>1.984251</v>
       </c>
-      <c r="W46" s="21">
+      <c r="W46" s="20">
         <v>2.0187740000000001</v>
       </c>
-      <c r="X46" s="21">
+      <c r="X46" s="20">
         <v>2.0413589999999999</v>
       </c>
-      <c r="Y46" s="21">
+      <c r="Y46" s="20">
         <v>2.0654170000000001</v>
       </c>
-      <c r="Z46" s="21">
+      <c r="Z46" s="20">
         <v>2.11965</v>
       </c>
-      <c r="AA46" s="21">
+      <c r="AA46" s="20">
         <v>2.1457269999999999</v>
       </c>
-      <c r="AB46" s="21">
+      <c r="AB46" s="20">
         <v>2.176221</v>
       </c>
-      <c r="AC46" s="21">
+      <c r="AC46" s="20">
         <v>2.2226669999999999</v>
       </c>
-      <c r="AD46" s="21">
+      <c r="AD46" s="20">
         <v>2.2393049999999999</v>
       </c>
-      <c r="AE46" s="21">
+      <c r="AE46" s="20">
         <v>2.2956180000000002</v>
       </c>
-      <c r="AF46" s="21">
+      <c r="AF46" s="20">
         <v>2.338946</v>
       </c>
-      <c r="AG46" s="21">
+      <c r="AG46" s="20">
         <v>2.3741219999999998</v>
       </c>
-      <c r="AH46" s="21">
+      <c r="AH46" s="20">
         <v>2.398177</v>
       </c>
-      <c r="AI46" s="22">
+      <c r="AI46" s="21">
         <v>1.8964000000000002E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
-      <c r="R47" s="11"/>
-      <c r="S47" s="11"/>
-      <c r="T47" s="11"/>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="X47" s="11"/>
-      <c r="Y47" s="11"/>
-      <c r="Z47" s="11"/>
-      <c r="AA47" s="11"/>
-      <c r="AB47" s="11"/>
-      <c r="AC47" s="11"/>
-      <c r="AD47" s="11"/>
-      <c r="AE47" s="11"/>
-      <c r="AF47" s="11"/>
-      <c r="AG47" s="11"/>
-      <c r="AH47" s="11"/>
-      <c r="AI47" s="11"/>
-    </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="11"/>
-      <c r="B48" s="9" t="s">
+    <row r="47" spans="1:35" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="10"/>
+      <c r="AB47" s="10"/>
+      <c r="AC47" s="10"/>
+      <c r="AD47" s="10"/>
+      <c r="AE47" s="10"/>
+      <c r="AF47" s="10"/>
+      <c r="AG47" s="10"/>
+      <c r="AH47" s="10"/>
+      <c r="AI47" s="10"/>
+    </row>
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="9"/>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="9"/>
-      <c r="AB48" s="9"/>
-      <c r="AC48" s="9"/>
-      <c r="AD48" s="9"/>
-      <c r="AE48" s="9"/>
-      <c r="AF48" s="9"/>
-      <c r="AG48" s="9"/>
-      <c r="AH48" s="9"/>
-      <c r="AI48" s="9"/>
-    </row>
-    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="23" t="s">
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="24"/>
+      <c r="AA48" s="24"/>
+      <c r="AB48" s="24"/>
+      <c r="AC48" s="24"/>
+      <c r="AD48" s="24"/>
+      <c r="AE48" s="24"/>
+      <c r="AF48" s="24"/>
+      <c r="AG48" s="24"/>
+      <c r="AH48" s="24"/>
+      <c r="AI48" s="24"/>
+    </row>
+    <row r="49" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="23" t="s">
+    <row r="50" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="22" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="23" t="s">
+    <row r="51" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="22" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
     </row>
-    <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
     </row>
-    <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
     </row>
-    <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
     </row>
   </sheetData>
@@ -5066,23 +5106,2274 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4220DFA0-66CB-48DD-AACC-21EFB8999F18}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AI22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="H1" s="1">
+        <v>2025</v>
+      </c>
+      <c r="I1" s="1">
+        <v>2026</v>
+      </c>
+      <c r="J1" s="1">
+        <v>2027</v>
+      </c>
+      <c r="K1" s="1">
+        <v>2028</v>
+      </c>
+      <c r="L1" s="1">
+        <v>2029</v>
+      </c>
+      <c r="M1" s="1">
+        <v>2030</v>
+      </c>
+      <c r="N1" s="1">
+        <v>2031</v>
+      </c>
+      <c r="O1" s="1">
+        <v>2032</v>
+      </c>
+      <c r="P1" s="1">
+        <v>2033</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2034</v>
+      </c>
+      <c r="R1" s="1">
+        <v>2035</v>
+      </c>
+      <c r="S1" s="1">
+        <v>2036</v>
+      </c>
+      <c r="T1" s="1">
+        <v>2037</v>
+      </c>
+      <c r="U1" s="1">
+        <v>2038</v>
+      </c>
+      <c r="V1" s="1">
+        <v>2039</v>
+      </c>
+      <c r="W1" s="1">
+        <v>2040</v>
+      </c>
+      <c r="X1" s="1">
+        <v>2041</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>2042</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>2043</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>2044</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>2045</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>2046</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>2047</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>2048</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>2049</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>2050</v>
+      </c>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AI22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG29" sqref="AG29"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.73046875" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="1">
@@ -5184,7 +7475,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -5317,7 +7608,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>82</v>
       </c>
@@ -5450,7 +7741,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -5583,7 +7874,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -5716,7 +8007,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -5817,7 +8108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -5918,7 +8209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -6019,7 +8310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -6152,7 +8443,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -6252,42 +8543,42 @@
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.1705261468960152</v>
       </c>
-      <c r="Z10" s="10">
+      <c r="Z10" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.16791661597171478</v>
       </c>
-      <c r="AA10" s="10">
+      <c r="AA10" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.16541707846687681</v>
       </c>
-      <c r="AB10" s="10">
+      <c r="AB10" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.16209069177489394</v>
       </c>
-      <c r="AC10" s="10">
+      <c r="AC10" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.1605150302613694</v>
       </c>
-      <c r="AD10" s="10">
+      <c r="AD10" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.15657490002809571</v>
       </c>
-      <c r="AE10" s="10">
+      <c r="AE10" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.15368864291520273</v>
       </c>
-      <c r="AF10" s="10">
+      <c r="AF10" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.1513354048711453</v>
       </c>
-      <c r="AG10" s="10">
+      <c r="AG10" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$24:$AJ$24,MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$25:$AJ$26,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.14922871309453889</v>
       </c>
-      <c r="AH10" s="10"/>
-      <c r="AI10" s="10"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -6387,42 +8678,42 @@
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.15715208233420089</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="Z11" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.15490596009060917</v>
       </c>
-      <c r="AA11" s="10">
+      <c r="AA11" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.15240428476562257</v>
       </c>
-      <c r="AB11" s="10">
+      <c r="AB11" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.14895151464839695</v>
       </c>
-      <c r="AC11" s="10">
+      <c r="AC11" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.14777544261237055</v>
       </c>
-      <c r="AD11" s="10">
+      <c r="AD11" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.14518374827080111</v>
       </c>
-      <c r="AE11" s="10">
+      <c r="AE11" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.14276908795378282</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AF11" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.14078183293932509</v>
       </c>
-      <c r="AG11" s="10">
+      <c r="AG11" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$16:$AJ$16,MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$17:$AJ$18,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>0.13893488595694672</v>
       </c>
-      <c r="AH11" s="10"/>
-      <c r="AI11" s="10"/>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -6431,7 +8722,7 @@
         <v>0.2568005159971371</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" ref="C12:AI12" si="1">C10</f>
+        <f t="shared" ref="C12:AG12" si="1">C10</f>
         <v>0.25713525168619367</v>
       </c>
       <c r="D12" s="5">
@@ -6522,42 +8813,42 @@
         <f t="shared" si="1"/>
         <v>0.1705261468960152</v>
       </c>
-      <c r="Z12" s="10">
+      <c r="Z12" s="9">
         <f t="shared" si="1"/>
         <v>0.16791661597171478</v>
       </c>
-      <c r="AA12" s="10">
+      <c r="AA12" s="9">
         <f t="shared" si="1"/>
         <v>0.16541707846687681</v>
       </c>
-      <c r="AB12" s="10">
+      <c r="AB12" s="9">
         <f t="shared" si="1"/>
         <v>0.16209069177489394</v>
       </c>
-      <c r="AC12" s="10">
+      <c r="AC12" s="9">
         <f t="shared" si="1"/>
         <v>0.1605150302613694</v>
       </c>
-      <c r="AD12" s="10">
+      <c r="AD12" s="9">
         <f t="shared" si="1"/>
         <v>0.15657490002809571</v>
       </c>
-      <c r="AE12" s="10">
+      <c r="AE12" s="9">
         <f t="shared" si="1"/>
         <v>0.15368864291520273</v>
       </c>
-      <c r="AF12" s="10">
+      <c r="AF12" s="9">
         <f t="shared" si="1"/>
         <v>0.1513354048711453</v>
       </c>
-      <c r="AG12" s="10">
+      <c r="AG12" s="9">
         <f t="shared" si="1"/>
         <v>0.14922871309453889</v>
       </c>
-      <c r="AH12" s="10"/>
-      <c r="AI12" s="10"/>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -6566,7 +8857,7 @@
         <v>0.24136121635119143</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ref="C13:AI13" si="3">C11</f>
+        <f t="shared" ref="C13:AG13" si="3">C11</f>
         <v>0.24915074581119739</v>
       </c>
       <c r="D13" s="5">
@@ -6657,42 +8948,42 @@
         <f t="shared" si="3"/>
         <v>0.15715208233420089</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="Z13" s="9">
         <f t="shared" si="3"/>
         <v>0.15490596009060917</v>
       </c>
-      <c r="AA13" s="10">
+      <c r="AA13" s="9">
         <f t="shared" si="3"/>
         <v>0.15240428476562257</v>
       </c>
-      <c r="AB13" s="10">
+      <c r="AB13" s="9">
         <f t="shared" si="3"/>
         <v>0.14895151464839695</v>
       </c>
-      <c r="AC13" s="10">
+      <c r="AC13" s="9">
         <f t="shared" si="3"/>
         <v>0.14777544261237055</v>
       </c>
-      <c r="AD13" s="10">
+      <c r="AD13" s="9">
         <f t="shared" si="3"/>
         <v>0.14518374827080111</v>
       </c>
-      <c r="AE13" s="10">
+      <c r="AE13" s="9">
         <f t="shared" si="3"/>
         <v>0.14276908795378282</v>
       </c>
-      <c r="AF13" s="10">
+      <c r="AF13" s="9">
         <f t="shared" si="3"/>
         <v>0.14078183293932509</v>
       </c>
-      <c r="AG13" s="10">
+      <c r="AG13" s="9">
         <f t="shared" si="3"/>
         <v>0.13893488595694672</v>
       </c>
-      <c r="AH13" s="10"/>
-      <c r="AI13" s="10"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>28</v>
       </c>
@@ -6792,42 +9083,42 @@
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Y$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>4.0451296334577259E-2</v>
       </c>
-      <c r="Z14" s="10">
+      <c r="Z14" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(Z$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.9833688719028017E-2</v>
       </c>
-      <c r="AA14" s="10">
+      <c r="AA14" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AA$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.9172579156626912E-2</v>
       </c>
-      <c r="AB14" s="10">
+      <c r="AB14" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AB$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.8164586987121454E-2</v>
       </c>
-      <c r="AC14" s="10">
+      <c r="AC14" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AC$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.7887617073266502E-2</v>
       </c>
-      <c r="AD14" s="10">
+      <c r="AD14" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AD$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.6923287864025892E-2</v>
       </c>
-      <c r="AE14" s="10">
+      <c r="AE14" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AE$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.6133272271252598E-2</v>
       </c>
-      <c r="AF14" s="10">
+      <c r="AF14" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AF$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.5529363589494371E-2</v>
       </c>
-      <c r="AG14" s="10">
+      <c r="AG14" s="9">
         <f>SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))))/(INDEX('AEO Table 59'!$C$32:$AJ$32,MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0))-SUM(INDEX('AEO Table 59'!$C$33:$AJ$34,0,(MATCH(AG$1,'AEO Table 59'!$C$1:$AJ$1,0)))))</f>
         <v>3.5202611114073468E-2</v>
       </c>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
@@ -6960,7 +9251,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>49</v>
       </c>
@@ -7061,7 +9352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>80</v>
       </c>
@@ -7194,7 +9485,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>84</v>
       </c>
@@ -7295,7 +9586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
@@ -7396,7 +9687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>86</v>
       </c>
@@ -7529,7 +9820,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>87</v>
       </c>
@@ -7662,7 +9953,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>83</v>
       </c>
